--- a/clonedprediction_history.xlsx
+++ b/clonedprediction_history.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4450" uniqueCount="1519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5052" uniqueCount="1583">
   <si>
     <t>matchid</t>
   </si>
@@ -4581,6 +4581,198 @@
   </si>
   <si>
     <t>3.1%</t>
+  </si>
+  <si>
+    <t>Antwerp-St Truiden</t>
+  </si>
+  <si>
+    <t>25/01/2022</t>
+  </si>
+  <si>
+    <t>Charleroi-Kortrijk</t>
+  </si>
+  <si>
+    <t>69.9%</t>
+  </si>
+  <si>
+    <t>Gent-Oostende</t>
+  </si>
+  <si>
+    <t>Oostende</t>
+  </si>
+  <si>
+    <t>Birmingham-Peterboro</t>
+  </si>
+  <si>
+    <t>8.3%</t>
+  </si>
+  <si>
+    <t>Coventry-Stoke</t>
+  </si>
+  <si>
+    <t>Luton-Bristol City</t>
+  </si>
+  <si>
+    <t>QPR-Swansea</t>
+  </si>
+  <si>
+    <t>AFC Wimbledon-Ipswich</t>
+  </si>
+  <si>
+    <t>Burton-Milton Keynes Dons</t>
+  </si>
+  <si>
+    <t>Fleetwood Town-Plymouth</t>
+  </si>
+  <si>
+    <t>Gillingham-Shrewsbury</t>
+  </si>
+  <si>
+    <t>80.9%</t>
+  </si>
+  <si>
+    <t>Barrow-Salford</t>
+  </si>
+  <si>
+    <t>Leyton Orient-Newport County</t>
+  </si>
+  <si>
+    <t>Scunthorpe-Bristol Rvs</t>
+  </si>
+  <si>
+    <t>Walsall-Bradford</t>
+  </si>
+  <si>
+    <t>Aldershot-Southend</t>
+  </si>
+  <si>
+    <t>Bromley-Woking</t>
+  </si>
+  <si>
+    <t>Dover Athletic-Eastleigh</t>
+  </si>
+  <si>
+    <t>82.0%</t>
+  </si>
+  <si>
+    <t>Halifax-Boreham Wood</t>
+  </si>
+  <si>
+    <t>Stockport-Maidenhead</t>
+  </si>
+  <si>
+    <t>5.9%</t>
+  </si>
+  <si>
+    <t>Torquay-Solihull</t>
+  </si>
+  <si>
+    <t>Wealdstone-Notts County</t>
+  </si>
+  <si>
+    <t>70.8%</t>
+  </si>
+  <si>
+    <t>Weymouth-Dag and Red</t>
+  </si>
+  <si>
+    <t>Wrexham-Grimsby</t>
+  </si>
+  <si>
+    <t>83.2%</t>
+  </si>
+  <si>
+    <t>St Mirren-Aberdeen</t>
+  </si>
+  <si>
+    <t>St Mirren</t>
+  </si>
+  <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
+    <t>78.4%</t>
+  </si>
+  <si>
+    <t>Clyde-Airdrie Utd</t>
+  </si>
+  <si>
+    <t>Elgin-Kelty Hearts</t>
+  </si>
+  <si>
+    <t>Eupen-Standard</t>
+  </si>
+  <si>
+    <t>26/01/2022</t>
+  </si>
+  <si>
+    <t>Waregem-Oud-Heverlee Leuven</t>
+  </si>
+  <si>
+    <t>Waregem</t>
+  </si>
+  <si>
+    <t>Anderlecht-Cercle Brugge</t>
+  </si>
+  <si>
+    <t>Seraing-Beerschot VA</t>
+  </si>
+  <si>
+    <t>West Brom-Preston</t>
+  </si>
+  <si>
+    <t>Angers-St Etienne</t>
+  </si>
+  <si>
+    <t>46.7%</t>
+  </si>
+  <si>
+    <t>Dundee United-Ross County</t>
+  </si>
+  <si>
+    <t>Dundee United</t>
+  </si>
+  <si>
+    <t>Ross County</t>
+  </si>
+  <si>
+    <t>Hearts-Celtic</t>
+  </si>
+  <si>
+    <t>Hearts</t>
+  </si>
+  <si>
+    <t>Motherwell-Hibernian</t>
+  </si>
+  <si>
+    <t>Motherwell</t>
+  </si>
+  <si>
+    <t>Rangers-Livingston</t>
+  </si>
+  <si>
+    <t>Rangers</t>
+  </si>
+  <si>
+    <t>Livingston</t>
+  </si>
+  <si>
+    <t>St Johnstone-Dundee</t>
+  </si>
+  <si>
+    <t>St Johnstone</t>
+  </si>
+  <si>
+    <t>Dundee</t>
+  </si>
+  <si>
+    <t>Club Brugge-St. Gilloise</t>
+  </si>
+  <si>
+    <t>27/01/2022</t>
+  </si>
+  <si>
+    <t>Estoril-Arouca</t>
   </si>
 </sst>
 </file>
@@ -4943,10 +5135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH317"/>
+  <dimension ref="A1:AH360"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H112" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A159" sqref="A159:AH317"/>
+    <sheetView tabSelected="1" topLeftCell="H304" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J317" sqref="J317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37895,6 +38087,4478 @@
         <v>1498</v>
       </c>
     </row>
+    <row r="318" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C318" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D318" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E318" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F318" t="s">
+        <v>153</v>
+      </c>
+      <c r="G318" t="s">
+        <v>170</v>
+      </c>
+      <c r="H318">
+        <v>1.556</v>
+      </c>
+      <c r="I318">
+        <v>4.4249999999999998</v>
+      </c>
+      <c r="J318">
+        <v>7.7519999999999998</v>
+      </c>
+      <c r="K318" t="s">
+        <v>113</v>
+      </c>
+      <c r="L318">
+        <v>2.36</v>
+      </c>
+      <c r="M318" t="s">
+        <v>58</v>
+      </c>
+      <c r="N318">
+        <v>1.74</v>
+      </c>
+      <c r="O318" t="s">
+        <v>244</v>
+      </c>
+      <c r="P318">
+        <v>2.59</v>
+      </c>
+      <c r="Q318" t="s">
+        <v>243</v>
+      </c>
+      <c r="R318">
+        <v>1.64</v>
+      </c>
+      <c r="S318">
+        <v>6.2</v>
+      </c>
+      <c r="T318">
+        <v>17.212</v>
+      </c>
+      <c r="U318">
+        <v>9.8040000000000003</v>
+      </c>
+      <c r="V318">
+        <v>7.0670000000000002</v>
+      </c>
+      <c r="W318">
+        <v>54.347999999999999</v>
+      </c>
+      <c r="X318">
+        <v>11.186</v>
+      </c>
+      <c r="Y318">
+        <v>31.056000000000001</v>
+      </c>
+      <c r="Z318" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA318" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB318">
+        <v>6</v>
+      </c>
+      <c r="AC318">
+        <v>-2</v>
+      </c>
+      <c r="AD318">
+        <v>1</v>
+      </c>
+      <c r="AE318">
+        <v>2</v>
+      </c>
+      <c r="AF318">
+        <v>4.9090999999999996</v>
+      </c>
+      <c r="AG318">
+        <v>4.0869999999999997</v>
+      </c>
+      <c r="AH318" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="319" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C319" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D319" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E319" t="s">
+        <v>718</v>
+      </c>
+      <c r="F319" t="s">
+        <v>848</v>
+      </c>
+      <c r="G319" t="s">
+        <v>940</v>
+      </c>
+      <c r="H319">
+        <v>3.1560000000000001</v>
+      </c>
+      <c r="I319">
+        <v>3.1640000000000001</v>
+      </c>
+      <c r="J319">
+        <v>2.726</v>
+      </c>
+      <c r="K319" t="s">
+        <v>340</v>
+      </c>
+      <c r="L319">
+        <v>3.33</v>
+      </c>
+      <c r="M319" t="s">
+        <v>1522</v>
+      </c>
+      <c r="N319">
+        <v>1.43</v>
+      </c>
+      <c r="O319" t="s">
+        <v>660</v>
+      </c>
+      <c r="P319">
+        <v>2.64</v>
+      </c>
+      <c r="Q319" t="s">
+        <v>1198</v>
+      </c>
+      <c r="R319">
+        <v>1.61</v>
+      </c>
+      <c r="S319">
+        <v>7.4630000000000001</v>
+      </c>
+      <c r="T319">
+        <v>6.7610000000000001</v>
+      </c>
+      <c r="U319">
+        <v>7.4180000000000001</v>
+      </c>
+      <c r="V319">
+        <v>16.367000000000001</v>
+      </c>
+      <c r="W319">
+        <v>13.459</v>
+      </c>
+      <c r="X319">
+        <v>16.286999999999999</v>
+      </c>
+      <c r="Y319">
+        <v>14.749000000000001</v>
+      </c>
+      <c r="Z319" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA319" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB319">
+        <v>-3</v>
+      </c>
+      <c r="AC319">
+        <v>3</v>
+      </c>
+      <c r="AD319">
+        <v>0</v>
+      </c>
+      <c r="AE319">
+        <v>0</v>
+      </c>
+      <c r="AF319">
+        <v>3.6957</v>
+      </c>
+      <c r="AG319">
+        <v>5.3182</v>
+      </c>
+      <c r="AH319" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="320" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C320" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D320" t="s">
+        <v>1524</v>
+      </c>
+      <c r="E320" t="s">
+        <v>546</v>
+      </c>
+      <c r="F320" t="s">
+        <v>383</v>
+      </c>
+      <c r="G320" t="s">
+        <v>67</v>
+      </c>
+      <c r="H320">
+        <v>1.401</v>
+      </c>
+      <c r="I320">
+        <v>5.75</v>
+      </c>
+      <c r="J320">
+        <v>9.6530000000000005</v>
+      </c>
+      <c r="K320" t="s">
+        <v>286</v>
+      </c>
+      <c r="L320">
+        <v>1.77</v>
+      </c>
+      <c r="M320" t="s">
+        <v>287</v>
+      </c>
+      <c r="N320">
+        <v>2.35</v>
+      </c>
+      <c r="O320" t="s">
+        <v>137</v>
+      </c>
+      <c r="P320">
+        <v>2.19</v>
+      </c>
+      <c r="Q320" t="s">
+        <v>412</v>
+      </c>
+      <c r="R320">
+        <v>1.87</v>
+      </c>
+      <c r="S320">
+        <v>8.7569999999999997</v>
+      </c>
+      <c r="T320">
+        <v>27.321999999999999</v>
+      </c>
+      <c r="U320">
+        <v>12.092000000000001</v>
+      </c>
+      <c r="V320">
+        <v>7.7460000000000004</v>
+      </c>
+      <c r="W320">
+        <v>75.757999999999996</v>
+      </c>
+      <c r="X320">
+        <v>10.695</v>
+      </c>
+      <c r="Y320">
+        <v>33.445</v>
+      </c>
+      <c r="Z320" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA320" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB320">
+        <v>1</v>
+      </c>
+      <c r="AC320">
+        <v>-5</v>
+      </c>
+      <c r="AD320">
+        <v>0</v>
+      </c>
+      <c r="AE320">
+        <v>-1</v>
+      </c>
+      <c r="AF320">
+        <v>4.3913000000000002</v>
+      </c>
+      <c r="AG320">
+        <v>4.3182</v>
+      </c>
+      <c r="AH320" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="321" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B321" t="s">
+        <v>197</v>
+      </c>
+      <c r="C321" t="s">
+        <v>648</v>
+      </c>
+      <c r="D321" t="s">
+        <v>886</v>
+      </c>
+      <c r="E321" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F321" t="s">
+        <v>965</v>
+      </c>
+      <c r="G321" t="s">
+        <v>1526</v>
+      </c>
+      <c r="H321">
+        <v>1.351</v>
+      </c>
+      <c r="I321">
+        <v>5.91</v>
+      </c>
+      <c r="J321">
+        <v>12.092000000000001</v>
+      </c>
+      <c r="K321" t="s">
+        <v>110</v>
+      </c>
+      <c r="L321">
+        <v>1.92</v>
+      </c>
+      <c r="M321" t="s">
+        <v>329</v>
+      </c>
+      <c r="N321">
+        <v>2.12</v>
+      </c>
+      <c r="O321" t="s">
+        <v>254</v>
+      </c>
+      <c r="P321">
+        <v>2.57</v>
+      </c>
+      <c r="Q321" t="s">
+        <v>429</v>
+      </c>
+      <c r="R321">
+        <v>1.66</v>
+      </c>
+      <c r="S321">
+        <v>7.3959999999999999</v>
+      </c>
+      <c r="T321">
+        <v>28.09</v>
+      </c>
+      <c r="U321">
+        <v>12.69</v>
+      </c>
+      <c r="V321">
+        <v>6.6840000000000002</v>
+      </c>
+      <c r="W321">
+        <v>96.153999999999996</v>
+      </c>
+      <c r="X321">
+        <v>11.481</v>
+      </c>
+      <c r="Y321">
+        <v>43.667999999999999</v>
+      </c>
+      <c r="Z321" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA321" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB321">
+        <v>-8</v>
+      </c>
+      <c r="AC321">
+        <v>-9</v>
+      </c>
+      <c r="AD321">
+        <v>1</v>
+      </c>
+      <c r="AE321">
+        <v>-3</v>
+      </c>
+      <c r="AF321">
+        <v>3.4443999999999999</v>
+      </c>
+      <c r="AG321">
+        <v>3.56</v>
+      </c>
+      <c r="AH321" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="322" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B322" t="s">
+        <v>197</v>
+      </c>
+      <c r="C322" t="s">
+        <v>219</v>
+      </c>
+      <c r="D322" t="s">
+        <v>463</v>
+      </c>
+      <c r="E322" t="s">
+        <v>440</v>
+      </c>
+      <c r="F322" t="s">
+        <v>84</v>
+      </c>
+      <c r="G322" t="s">
+        <v>747</v>
+      </c>
+      <c r="H322">
+        <v>2.0640000000000001</v>
+      </c>
+      <c r="I322">
+        <v>3.5609999999999999</v>
+      </c>
+      <c r="J322">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="K322" t="s">
+        <v>253</v>
+      </c>
+      <c r="L322">
+        <v>2.69</v>
+      </c>
+      <c r="M322" t="s">
+        <v>867</v>
+      </c>
+      <c r="N322">
+        <v>1.59</v>
+      </c>
+      <c r="O322" t="s">
+        <v>115</v>
+      </c>
+      <c r="P322">
+        <v>2.39</v>
+      </c>
+      <c r="Q322" t="s">
+        <v>581</v>
+      </c>
+      <c r="R322">
+        <v>1.72</v>
+      </c>
+      <c r="S322">
+        <v>6.5960000000000001</v>
+      </c>
+      <c r="T322">
+        <v>10.548999999999999</v>
+      </c>
+      <c r="U322">
+        <v>7.8620000000000001</v>
+      </c>
+      <c r="V322">
+        <v>9.843</v>
+      </c>
+      <c r="W322">
+        <v>25.126000000000001</v>
+      </c>
+      <c r="X322">
+        <v>11.723000000000001</v>
+      </c>
+      <c r="Y322">
+        <v>18.727</v>
+      </c>
+      <c r="Z322" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA322" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB322">
+        <v>0</v>
+      </c>
+      <c r="AC322">
+        <v>1</v>
+      </c>
+      <c r="AD322">
+        <v>-1</v>
+      </c>
+      <c r="AE322">
+        <v>-1</v>
+      </c>
+      <c r="AF322">
+        <v>3.68</v>
+      </c>
+      <c r="AG322">
+        <v>3.8845999999999998</v>
+      </c>
+      <c r="AH322" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="323" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B323" t="s">
+        <v>197</v>
+      </c>
+      <c r="C323" t="s">
+        <v>1157</v>
+      </c>
+      <c r="D323" t="s">
+        <v>451</v>
+      </c>
+      <c r="E323" t="s">
+        <v>33</v>
+      </c>
+      <c r="F323" t="s">
+        <v>161</v>
+      </c>
+      <c r="G323" t="s">
+        <v>319</v>
+      </c>
+      <c r="H323">
+        <v>1.825</v>
+      </c>
+      <c r="I323">
+        <v>5.0250000000000004</v>
+      </c>
+      <c r="J323">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="K323" t="s">
+        <v>546</v>
+      </c>
+      <c r="L323">
+        <v>1.4</v>
+      </c>
+      <c r="M323" t="s">
+        <v>876</v>
+      </c>
+      <c r="N323">
+        <v>3.62</v>
+      </c>
+      <c r="O323" t="s">
+        <v>1342</v>
+      </c>
+      <c r="P323">
+        <v>1.46</v>
+      </c>
+      <c r="Q323" t="s">
+        <v>311</v>
+      </c>
+      <c r="R323">
+        <v>3.27</v>
+      </c>
+      <c r="S323">
+        <v>18.727</v>
+      </c>
+      <c r="T323">
+        <v>28.986000000000001</v>
+      </c>
+      <c r="U323">
+        <v>12.706</v>
+      </c>
+      <c r="V323">
+        <v>16.446999999999999</v>
+      </c>
+      <c r="W323">
+        <v>39.216000000000001</v>
+      </c>
+      <c r="X323">
+        <v>11.148</v>
+      </c>
+      <c r="Y323">
+        <v>17.212</v>
+      </c>
+      <c r="Z323" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA323" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB323">
+        <v>3</v>
+      </c>
+      <c r="AC323">
+        <v>-4</v>
+      </c>
+      <c r="AD323">
+        <v>-2</v>
+      </c>
+      <c r="AE323">
+        <v>1</v>
+      </c>
+      <c r="AF323">
+        <v>3.44</v>
+      </c>
+      <c r="AG323">
+        <v>3.1480999999999999</v>
+      </c>
+      <c r="AH323" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="324" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>875</v>
+      </c>
+      <c r="B324" t="s">
+        <v>197</v>
+      </c>
+      <c r="C324" t="s">
+        <v>458</v>
+      </c>
+      <c r="D324" t="s">
+        <v>199</v>
+      </c>
+      <c r="E324" t="s">
+        <v>95</v>
+      </c>
+      <c r="F324" t="s">
+        <v>876</v>
+      </c>
+      <c r="G324" t="s">
+        <v>367</v>
+      </c>
+      <c r="H324">
+        <v>1.9670000000000001</v>
+      </c>
+      <c r="I324">
+        <v>3.6269999999999998</v>
+      </c>
+      <c r="J324">
+        <v>4.6509999999999998</v>
+      </c>
+      <c r="K324" t="s">
+        <v>213</v>
+      </c>
+      <c r="L324">
+        <v>2.68</v>
+      </c>
+      <c r="M324" t="s">
+        <v>71</v>
+      </c>
+      <c r="N324">
+        <v>1.6</v>
+      </c>
+      <c r="O324" t="s">
+        <v>877</v>
+      </c>
+      <c r="P324">
+        <v>2.42</v>
+      </c>
+      <c r="Q324" t="s">
+        <v>878</v>
+      </c>
+      <c r="R324">
+        <v>1.7</v>
+      </c>
+      <c r="S324">
+        <v>6.4139999999999997</v>
+      </c>
+      <c r="T324">
+        <v>11.173</v>
+      </c>
+      <c r="U324">
+        <v>8.0389999999999997</v>
+      </c>
+      <c r="V324">
+        <v>9.234</v>
+      </c>
+      <c r="W324">
+        <v>28.010999999999999</v>
+      </c>
+      <c r="X324">
+        <v>11.574</v>
+      </c>
+      <c r="Y324">
+        <v>20.161000000000001</v>
+      </c>
+      <c r="Z324" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA324" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB324">
+        <v>3</v>
+      </c>
+      <c r="AC324">
+        <v>-3</v>
+      </c>
+      <c r="AD324">
+        <v>1</v>
+      </c>
+      <c r="AE324">
+        <v>-1</v>
+      </c>
+      <c r="AF324">
+        <v>4.3704000000000001</v>
+      </c>
+      <c r="AG324">
+        <v>3.48</v>
+      </c>
+      <c r="AH324" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="325" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B325" t="s">
+        <v>197</v>
+      </c>
+      <c r="C325" t="s">
+        <v>452</v>
+      </c>
+      <c r="D325" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E325" t="s">
+        <v>601</v>
+      </c>
+      <c r="F325" t="s">
+        <v>453</v>
+      </c>
+      <c r="G325" t="s">
+        <v>102</v>
+      </c>
+      <c r="H325">
+        <v>1.7969999999999999</v>
+      </c>
+      <c r="I325">
+        <v>4.1719999999999997</v>
+      </c>
+      <c r="J325">
+        <v>4.9630000000000001</v>
+      </c>
+      <c r="K325" t="s">
+        <v>460</v>
+      </c>
+      <c r="L325">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="M325" t="s">
+        <v>1171</v>
+      </c>
+      <c r="N325">
+        <v>1.94</v>
+      </c>
+      <c r="O325" t="s">
+        <v>986</v>
+      </c>
+      <c r="P325">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="Q325" t="s">
+        <v>431</v>
+      </c>
+      <c r="R325">
+        <v>1.96</v>
+      </c>
+      <c r="S325">
+        <v>8.0389999999999997</v>
+      </c>
+      <c r="T325">
+        <v>14.925000000000001</v>
+      </c>
+      <c r="U325">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="V325">
+        <v>9.4610000000000003</v>
+      </c>
+      <c r="W325">
+        <v>32.573</v>
+      </c>
+      <c r="X325">
+        <v>10.340999999999999</v>
+      </c>
+      <c r="Y325">
+        <v>19.193999999999999</v>
+      </c>
+      <c r="Z325" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA325" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB325">
+        <v>1</v>
+      </c>
+      <c r="AC325">
+        <v>-2</v>
+      </c>
+      <c r="AD325">
+        <v>1</v>
+      </c>
+      <c r="AE325">
+        <v>1</v>
+      </c>
+      <c r="AF325">
+        <v>3.3462000000000001</v>
+      </c>
+      <c r="AG325">
+        <v>3.875</v>
+      </c>
+      <c r="AH325" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="326" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B326" t="s">
+        <v>238</v>
+      </c>
+      <c r="C326" t="s">
+        <v>265</v>
+      </c>
+      <c r="D326" t="s">
+        <v>239</v>
+      </c>
+      <c r="E326" t="s">
+        <v>848</v>
+      </c>
+      <c r="F326" t="s">
+        <v>124</v>
+      </c>
+      <c r="G326" t="s">
+        <v>555</v>
+      </c>
+      <c r="H326">
+        <v>3.161</v>
+      </c>
+      <c r="I326">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="J326">
+        <v>2.17</v>
+      </c>
+      <c r="K326" t="s">
+        <v>1104</v>
+      </c>
+      <c r="L326">
+        <v>1.46</v>
+      </c>
+      <c r="M326" t="s">
+        <v>623</v>
+      </c>
+      <c r="N326">
+        <v>3.21</v>
+      </c>
+      <c r="O326" t="s">
+        <v>1150</v>
+      </c>
+      <c r="P326">
+        <v>1.47</v>
+      </c>
+      <c r="Q326" t="s">
+        <v>728</v>
+      </c>
+      <c r="R326">
+        <v>3.18</v>
+      </c>
+      <c r="S326">
+        <v>21.882000000000001</v>
+      </c>
+      <c r="T326">
+        <v>17.824999999999999</v>
+      </c>
+      <c r="U326">
+        <v>11.186</v>
+      </c>
+      <c r="V326">
+        <v>27.472999999999999</v>
+      </c>
+      <c r="W326">
+        <v>18.215</v>
+      </c>
+      <c r="X326">
+        <v>14.025</v>
+      </c>
+      <c r="Y326">
+        <v>11.416</v>
+      </c>
+      <c r="Z326" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA326" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB326">
+        <v>-4</v>
+      </c>
+      <c r="AC326">
+        <v>4</v>
+      </c>
+      <c r="AD326">
+        <v>0</v>
+      </c>
+      <c r="AE326">
+        <v>1</v>
+      </c>
+      <c r="AF326">
+        <v>3.68</v>
+      </c>
+      <c r="AG326">
+        <v>3.6295999999999999</v>
+      </c>
+      <c r="AH326" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="327" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B327" t="s">
+        <v>238</v>
+      </c>
+      <c r="C327" t="s">
+        <v>531</v>
+      </c>
+      <c r="D327" t="s">
+        <v>248</v>
+      </c>
+      <c r="E327" t="s">
+        <v>627</v>
+      </c>
+      <c r="F327" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G327" t="s">
+        <v>192</v>
+      </c>
+      <c r="H327">
+        <v>3.2989999999999999</v>
+      </c>
+      <c r="I327">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="J327">
+        <v>2.101</v>
+      </c>
+      <c r="K327" t="s">
+        <v>1137</v>
+      </c>
+      <c r="L327">
+        <v>1.46</v>
+      </c>
+      <c r="M327" t="s">
+        <v>498</v>
+      </c>
+      <c r="N327">
+        <v>3.24</v>
+      </c>
+      <c r="O327" t="s">
+        <v>1150</v>
+      </c>
+      <c r="P327">
+        <v>1.47</v>
+      </c>
+      <c r="Q327" t="s">
+        <v>275</v>
+      </c>
+      <c r="R327">
+        <v>3.18</v>
+      </c>
+      <c r="S327">
+        <v>22.623999999999999</v>
+      </c>
+      <c r="T327">
+        <v>17.699000000000002</v>
+      </c>
+      <c r="U327">
+        <v>11.311999999999999</v>
+      </c>
+      <c r="V327">
+        <v>28.902000000000001</v>
+      </c>
+      <c r="W327">
+        <v>17.699000000000002</v>
+      </c>
+      <c r="X327">
+        <v>14.451000000000001</v>
+      </c>
+      <c r="Y327">
+        <v>11.298999999999999</v>
+      </c>
+      <c r="Z327" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA327" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB327">
+        <v>2</v>
+      </c>
+      <c r="AC327">
+        <v>2</v>
+      </c>
+      <c r="AD327">
+        <v>0</v>
+      </c>
+      <c r="AE327">
+        <v>-1</v>
+      </c>
+      <c r="AF327">
+        <v>3.1537999999999999</v>
+      </c>
+      <c r="AG327">
+        <v>3.2963</v>
+      </c>
+      <c r="AH327" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="328" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B328" t="s">
+        <v>238</v>
+      </c>
+      <c r="C328" t="s">
+        <v>299</v>
+      </c>
+      <c r="D328" t="s">
+        <v>272</v>
+      </c>
+      <c r="E328" t="s">
+        <v>686</v>
+      </c>
+      <c r="F328" t="s">
+        <v>46</v>
+      </c>
+      <c r="G328" t="s">
+        <v>805</v>
+      </c>
+      <c r="H328">
+        <v>4.7690000000000001</v>
+      </c>
+      <c r="I328">
+        <v>5.0430000000000001</v>
+      </c>
+      <c r="J328">
+        <v>1.7130000000000001</v>
+      </c>
+      <c r="K328" t="s">
+        <v>796</v>
+      </c>
+      <c r="L328">
+        <v>1.48</v>
+      </c>
+      <c r="M328" t="s">
+        <v>718</v>
+      </c>
+      <c r="N328">
+        <v>3.16</v>
+      </c>
+      <c r="O328" t="s">
+        <v>184</v>
+      </c>
+      <c r="P328">
+        <v>1.56</v>
+      </c>
+      <c r="Q328" t="s">
+        <v>966</v>
+      </c>
+      <c r="R328">
+        <v>2.84</v>
+      </c>
+      <c r="S328">
+        <v>26.454999999999998</v>
+      </c>
+      <c r="T328">
+        <v>15.106</v>
+      </c>
+      <c r="U328">
+        <v>11.805999999999999</v>
+      </c>
+      <c r="V328">
+        <v>41.322000000000003</v>
+      </c>
+      <c r="W328">
+        <v>13.459</v>
+      </c>
+      <c r="X328">
+        <v>18.45</v>
+      </c>
+      <c r="Y328">
+        <v>10.526</v>
+      </c>
+      <c r="Z328" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA328" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB328">
+        <v>-2</v>
+      </c>
+      <c r="AC328">
+        <v>-1</v>
+      </c>
+      <c r="AD328">
+        <v>-2</v>
+      </c>
+      <c r="AE328">
+        <v>-1</v>
+      </c>
+      <c r="AF328">
+        <v>3.5</v>
+      </c>
+      <c r="AG328">
+        <v>3.8845999999999998</v>
+      </c>
+      <c r="AH328" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="329" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B329" t="s">
+        <v>238</v>
+      </c>
+      <c r="C329" t="s">
+        <v>541</v>
+      </c>
+      <c r="D329" t="s">
+        <v>289</v>
+      </c>
+      <c r="E329" t="s">
+        <v>132</v>
+      </c>
+      <c r="F329" t="s">
+        <v>524</v>
+      </c>
+      <c r="G329" t="s">
+        <v>212</v>
+      </c>
+      <c r="H329">
+        <v>3.839</v>
+      </c>
+      <c r="I329">
+        <v>2.7429999999999999</v>
+      </c>
+      <c r="J329">
+        <v>2.669</v>
+      </c>
+      <c r="K329" t="s">
+        <v>143</v>
+      </c>
+      <c r="L329">
+        <v>5.24</v>
+      </c>
+      <c r="M329" t="s">
+        <v>1534</v>
+      </c>
+      <c r="N329">
+        <v>1.24</v>
+      </c>
+      <c r="O329" t="s">
+        <v>241</v>
+      </c>
+      <c r="P329">
+        <v>3.65</v>
+      </c>
+      <c r="Q329" t="s">
+        <v>911</v>
+      </c>
+      <c r="R329">
+        <v>1.38</v>
+      </c>
+      <c r="S329">
+        <v>6.8730000000000002</v>
+      </c>
+      <c r="T329">
+        <v>5.2880000000000003</v>
+      </c>
+      <c r="U329">
+        <v>8.1039999999999992</v>
+      </c>
+      <c r="V329">
+        <v>21.053000000000001</v>
+      </c>
+      <c r="W329">
+        <v>12.468999999999999</v>
+      </c>
+      <c r="X329">
+        <v>24.814</v>
+      </c>
+      <c r="Y329">
+        <v>19.12</v>
+      </c>
+      <c r="Z329" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA329" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB329">
+        <v>-12</v>
+      </c>
+      <c r="AC329">
+        <v>5</v>
+      </c>
+      <c r="AD329">
+        <v>-1</v>
+      </c>
+      <c r="AE329">
+        <v>-1</v>
+      </c>
+      <c r="AF329">
+        <v>2.8462000000000001</v>
+      </c>
+      <c r="AG329">
+        <v>3.3332999999999999</v>
+      </c>
+      <c r="AH329" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="330" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B330" t="s">
+        <v>306</v>
+      </c>
+      <c r="C330" t="s">
+        <v>307</v>
+      </c>
+      <c r="D330" t="s">
+        <v>979</v>
+      </c>
+      <c r="E330" t="s">
+        <v>332</v>
+      </c>
+      <c r="F330" t="s">
+        <v>241</v>
+      </c>
+      <c r="G330" t="s">
+        <v>627</v>
+      </c>
+      <c r="H330">
+        <v>2.3650000000000002</v>
+      </c>
+      <c r="I330">
+        <v>3.6549999999999998</v>
+      </c>
+      <c r="J330">
+        <v>3.3010000000000002</v>
+      </c>
+      <c r="K330" t="s">
+        <v>962</v>
+      </c>
+      <c r="L330">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="M330" t="s">
+        <v>221</v>
+      </c>
+      <c r="N330">
+        <v>1.76</v>
+      </c>
+      <c r="O330" t="s">
+        <v>440</v>
+      </c>
+      <c r="P330">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="Q330" t="s">
+        <v>1171</v>
+      </c>
+      <c r="R330">
+        <v>1.94</v>
+      </c>
+      <c r="S330">
+        <v>8.3469999999999995</v>
+      </c>
+      <c r="T330">
+        <v>10.276999999999999</v>
+      </c>
+      <c r="U330">
+        <v>7.7460000000000004</v>
+      </c>
+      <c r="V330">
+        <v>12.579000000000001</v>
+      </c>
+      <c r="W330">
+        <v>19.084</v>
+      </c>
+      <c r="X330">
+        <v>11.669</v>
+      </c>
+      <c r="Y330">
+        <v>14.368</v>
+      </c>
+      <c r="Z330" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA330" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB330">
+        <v>-1</v>
+      </c>
+      <c r="AC330">
+        <v>0</v>
+      </c>
+      <c r="AD330">
+        <v>-2</v>
+      </c>
+      <c r="AE330">
+        <v>-3</v>
+      </c>
+      <c r="AF330">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="AG330">
+        <v>3.8462000000000001</v>
+      </c>
+      <c r="AH330" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="331" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B331" t="s">
+        <v>306</v>
+      </c>
+      <c r="C331" t="s">
+        <v>584</v>
+      </c>
+      <c r="D331" t="s">
+        <v>612</v>
+      </c>
+      <c r="E331" t="s">
+        <v>414</v>
+      </c>
+      <c r="F331" t="s">
+        <v>809</v>
+      </c>
+      <c r="G331" t="s">
+        <v>779</v>
+      </c>
+      <c r="H331">
+        <v>1.365</v>
+      </c>
+      <c r="I331">
+        <v>6.1349999999999998</v>
+      </c>
+      <c r="J331">
+        <v>10.695</v>
+      </c>
+      <c r="K331" t="s">
+        <v>1453</v>
+      </c>
+      <c r="L331">
+        <v>1.72</v>
+      </c>
+      <c r="M331" t="s">
+        <v>156</v>
+      </c>
+      <c r="N331">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="O331" t="s">
+        <v>174</v>
+      </c>
+      <c r="P331">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="Q331" t="s">
+        <v>94</v>
+      </c>
+      <c r="R331">
+        <v>1.87</v>
+      </c>
+      <c r="S331">
+        <v>9.1159999999999997</v>
+      </c>
+      <c r="T331">
+        <v>30.488</v>
+      </c>
+      <c r="U331">
+        <v>12.887</v>
+      </c>
+      <c r="V331">
+        <v>7.7160000000000002</v>
+      </c>
+      <c r="W331">
+        <v>86.206999999999994</v>
+      </c>
+      <c r="X331">
+        <v>10.917</v>
+      </c>
+      <c r="Y331">
+        <v>36.496000000000002</v>
+      </c>
+      <c r="Z331" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA331" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB331">
+        <v>0</v>
+      </c>
+      <c r="AC331">
+        <v>1</v>
+      </c>
+      <c r="AD331">
+        <v>0</v>
+      </c>
+      <c r="AE331">
+        <v>1</v>
+      </c>
+      <c r="AF331">
+        <v>4</v>
+      </c>
+      <c r="AG331">
+        <v>3.3462000000000001</v>
+      </c>
+      <c r="AH331" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="332" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B332" t="s">
+        <v>306</v>
+      </c>
+      <c r="C332" t="s">
+        <v>591</v>
+      </c>
+      <c r="D332" t="s">
+        <v>585</v>
+      </c>
+      <c r="E332" t="s">
+        <v>319</v>
+      </c>
+      <c r="F332" t="s">
+        <v>84</v>
+      </c>
+      <c r="G332" t="s">
+        <v>192</v>
+      </c>
+      <c r="H332">
+        <v>4.1120000000000001</v>
+      </c>
+      <c r="I332">
+        <v>3.5609999999999999</v>
+      </c>
+      <c r="J332">
+        <v>2.1019999999999999</v>
+      </c>
+      <c r="K332" t="s">
+        <v>717</v>
+      </c>
+      <c r="L332">
+        <v>2.65</v>
+      </c>
+      <c r="M332" t="s">
+        <v>444</v>
+      </c>
+      <c r="N332">
+        <v>1.61</v>
+      </c>
+      <c r="O332" t="s">
+        <v>1185</v>
+      </c>
+      <c r="P332">
+        <v>2.34</v>
+      </c>
+      <c r="Q332" t="s">
+        <v>58</v>
+      </c>
+      <c r="R332">
+        <v>1.74</v>
+      </c>
+      <c r="S332">
+        <v>10.417</v>
+      </c>
+      <c r="T332">
+        <v>6.766</v>
+      </c>
+      <c r="U332">
+        <v>7.8120000000000003</v>
+      </c>
+      <c r="V332">
+        <v>24.038</v>
+      </c>
+      <c r="W332">
+        <v>10.141999999999999</v>
+      </c>
+      <c r="X332">
+        <v>18.050999999999998</v>
+      </c>
+      <c r="Y332">
+        <v>11.71</v>
+      </c>
+      <c r="Z332" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA332" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB332">
+        <v>-6</v>
+      </c>
+      <c r="AC332">
+        <v>1</v>
+      </c>
+      <c r="AD332">
+        <v>-1</v>
+      </c>
+      <c r="AE332">
+        <v>0</v>
+      </c>
+      <c r="AF332">
+        <v>3.0385</v>
+      </c>
+      <c r="AG332">
+        <v>4.4348000000000001</v>
+      </c>
+      <c r="AH332" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="333" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B333" t="s">
+        <v>306</v>
+      </c>
+      <c r="C333" t="s">
+        <v>611</v>
+      </c>
+      <c r="D333" t="s">
+        <v>557</v>
+      </c>
+      <c r="E333" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F333" t="s">
+        <v>876</v>
+      </c>
+      <c r="G333" t="s">
+        <v>608</v>
+      </c>
+      <c r="H333">
+        <v>2.548</v>
+      </c>
+      <c r="I333">
+        <v>3.617</v>
+      </c>
+      <c r="J333">
+        <v>3.0270000000000001</v>
+      </c>
+      <c r="K333" t="s">
+        <v>951</v>
+      </c>
+      <c r="L333">
+        <v>2.34</v>
+      </c>
+      <c r="M333" t="s">
+        <v>266</v>
+      </c>
+      <c r="N333">
+        <v>1.75</v>
+      </c>
+      <c r="O333" t="s">
+        <v>812</v>
+      </c>
+      <c r="P333">
+        <v>2.06</v>
+      </c>
+      <c r="Q333" t="s">
+        <v>810</v>
+      </c>
+      <c r="R333">
+        <v>1.94</v>
+      </c>
+      <c r="S333">
+        <v>8.6809999999999992</v>
+      </c>
+      <c r="T333">
+        <v>9.6620000000000008</v>
+      </c>
+      <c r="U333">
+        <v>7.6689999999999996</v>
+      </c>
+      <c r="V333">
+        <v>13.773999999999999</v>
+      </c>
+      <c r="W333">
+        <v>17.065000000000001</v>
+      </c>
+      <c r="X333">
+        <v>12.164999999999999</v>
+      </c>
+      <c r="Y333">
+        <v>13.55</v>
+      </c>
+      <c r="Z333" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA333" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB333">
+        <v>-3</v>
+      </c>
+      <c r="AC333">
+        <v>0</v>
+      </c>
+      <c r="AD333">
+        <v>-2</v>
+      </c>
+      <c r="AE333">
+        <v>0</v>
+      </c>
+      <c r="AF333">
+        <v>3</v>
+      </c>
+      <c r="AG333">
+        <v>3.28</v>
+      </c>
+      <c r="AH333" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="334" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B334" t="s">
+        <v>75</v>
+      </c>
+      <c r="C334" t="s">
+        <v>100</v>
+      </c>
+      <c r="D334" t="s">
+        <v>693</v>
+      </c>
+      <c r="E334" t="s">
+        <v>653</v>
+      </c>
+      <c r="F334" t="s">
+        <v>734</v>
+      </c>
+      <c r="G334" t="s">
+        <v>231</v>
+      </c>
+      <c r="H334">
+        <v>2.66</v>
+      </c>
+      <c r="I334">
+        <v>2.99</v>
+      </c>
+      <c r="J334">
+        <v>3.4529999999999998</v>
+      </c>
+      <c r="K334" t="s">
+        <v>968</v>
+      </c>
+      <c r="L334">
+        <v>3.95</v>
+      </c>
+      <c r="M334" t="s">
+        <v>1509</v>
+      </c>
+      <c r="N334">
+        <v>1.34</v>
+      </c>
+      <c r="O334" t="s">
+        <v>233</v>
+      </c>
+      <c r="P334">
+        <v>2.99</v>
+      </c>
+      <c r="Q334" t="s">
+        <v>234</v>
+      </c>
+      <c r="R334">
+        <v>1.5</v>
+      </c>
+      <c r="S334">
+        <v>6.0060000000000002</v>
+      </c>
+      <c r="T334">
+        <v>7.194</v>
+      </c>
+      <c r="U334">
+        <v>7.5869999999999997</v>
+      </c>
+      <c r="V334">
+        <v>12.673999999999999</v>
+      </c>
+      <c r="W334">
+        <v>18.181999999999999</v>
+      </c>
+      <c r="X334">
+        <v>16.026</v>
+      </c>
+      <c r="Y334">
+        <v>19.193999999999999</v>
+      </c>
+      <c r="Z334" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA334" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB334">
+        <v>3</v>
+      </c>
+      <c r="AC334">
+        <v>0</v>
+      </c>
+      <c r="AD334">
+        <v>0</v>
+      </c>
+      <c r="AE334">
+        <v>1</v>
+      </c>
+      <c r="AF334">
+        <v>4.9166999999999996</v>
+      </c>
+      <c r="AG334">
+        <v>3.9544999999999999</v>
+      </c>
+      <c r="AH334" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="335" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B335" t="s">
+        <v>75</v>
+      </c>
+      <c r="C335" t="s">
+        <v>120</v>
+      </c>
+      <c r="D335" t="s">
+        <v>140</v>
+      </c>
+      <c r="E335" t="s">
+        <v>691</v>
+      </c>
+      <c r="F335" t="s">
+        <v>1180</v>
+      </c>
+      <c r="G335" t="s">
+        <v>481</v>
+      </c>
+      <c r="H335">
+        <v>1.907</v>
+      </c>
+      <c r="I335">
+        <v>4.6929999999999996</v>
+      </c>
+      <c r="J335">
+        <v>3.8969999999999998</v>
+      </c>
+      <c r="K335" t="s">
+        <v>339</v>
+      </c>
+      <c r="L335">
+        <v>1.51</v>
+      </c>
+      <c r="M335" t="s">
+        <v>482</v>
+      </c>
+      <c r="N335">
+        <v>3</v>
+      </c>
+      <c r="O335" t="s">
+        <v>473</v>
+      </c>
+      <c r="P335">
+        <v>1.54</v>
+      </c>
+      <c r="Q335" t="s">
+        <v>570</v>
+      </c>
+      <c r="R335">
+        <v>2.89</v>
+      </c>
+      <c r="S335">
+        <v>15.106</v>
+      </c>
+      <c r="T335">
+        <v>22.422000000000001</v>
+      </c>
+      <c r="U335">
+        <v>10.929</v>
+      </c>
+      <c r="V335">
+        <v>14.728</v>
+      </c>
+      <c r="W335">
+        <v>32.468000000000004</v>
+      </c>
+      <c r="X335">
+        <v>10.65</v>
+      </c>
+      <c r="Y335">
+        <v>15.823</v>
+      </c>
+      <c r="Z335" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA335" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB335">
+        <v>3</v>
+      </c>
+      <c r="AC335">
+        <v>-2</v>
+      </c>
+      <c r="AD335">
+        <v>1</v>
+      </c>
+      <c r="AE335">
+        <v>2</v>
+      </c>
+      <c r="AF335">
+        <v>3.1739000000000002</v>
+      </c>
+      <c r="AG335">
+        <v>3.9129999999999998</v>
+      </c>
+      <c r="AH335" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="336" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B336" t="s">
+        <v>75</v>
+      </c>
+      <c r="C336" t="s">
+        <v>141</v>
+      </c>
+      <c r="D336" t="s">
+        <v>108</v>
+      </c>
+      <c r="E336" t="s">
+        <v>837</v>
+      </c>
+      <c r="F336" t="s">
+        <v>182</v>
+      </c>
+      <c r="G336" t="s">
+        <v>484</v>
+      </c>
+      <c r="H336">
+        <v>4.2610000000000001</v>
+      </c>
+      <c r="I336">
+        <v>2.7109999999999999</v>
+      </c>
+      <c r="J336">
+        <v>2.524</v>
+      </c>
+      <c r="K336" t="s">
+        <v>905</v>
+      </c>
+      <c r="L336">
+        <v>5.57</v>
+      </c>
+      <c r="M336" t="s">
+        <v>1542</v>
+      </c>
+      <c r="N336">
+        <v>1.22</v>
+      </c>
+      <c r="O336" t="s">
+        <v>259</v>
+      </c>
+      <c r="P336">
+        <v>3.88</v>
+      </c>
+      <c r="Q336" t="s">
+        <v>1071</v>
+      </c>
+      <c r="R336">
+        <v>1.35</v>
+      </c>
+      <c r="S336">
+        <v>7.2519999999999998</v>
+      </c>
+      <c r="T336">
+        <v>4.9550000000000001</v>
+      </c>
+      <c r="U336">
+        <v>8.3960000000000008</v>
+      </c>
+      <c r="V336">
+        <v>24.57</v>
+      </c>
+      <c r="W336">
+        <v>11.481</v>
+      </c>
+      <c r="X336">
+        <v>28.408999999999999</v>
+      </c>
+      <c r="Y336">
+        <v>19.454999999999998</v>
+      </c>
+      <c r="Z336" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA336" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB336">
+        <v>-12</v>
+      </c>
+      <c r="AC336">
+        <v>-8</v>
+      </c>
+      <c r="AD336">
+        <v>-5</v>
+      </c>
+      <c r="AE336">
+        <v>-3</v>
+      </c>
+      <c r="AF336">
+        <v>2.75</v>
+      </c>
+      <c r="AG336">
+        <v>3.7273000000000001</v>
+      </c>
+      <c r="AH336" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="337" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B337" t="s">
+        <v>75</v>
+      </c>
+      <c r="C337" t="s">
+        <v>89</v>
+      </c>
+      <c r="D337" t="s">
+        <v>668</v>
+      </c>
+      <c r="E337" t="s">
+        <v>460</v>
+      </c>
+      <c r="F337" t="s">
+        <v>1172</v>
+      </c>
+      <c r="G337" t="s">
+        <v>347</v>
+      </c>
+      <c r="H337">
+        <v>2.0720000000000001</v>
+      </c>
+      <c r="I337">
+        <v>3.5790000000000002</v>
+      </c>
+      <c r="J337">
+        <v>4.2160000000000002</v>
+      </c>
+      <c r="K337" t="s">
+        <v>717</v>
+      </c>
+      <c r="L337">
+        <v>2.65</v>
+      </c>
+      <c r="M337" t="s">
+        <v>884</v>
+      </c>
+      <c r="N337">
+        <v>1.61</v>
+      </c>
+      <c r="O337" t="s">
+        <v>262</v>
+      </c>
+      <c r="P337">
+        <v>2.35</v>
+      </c>
+      <c r="Q337" t="s">
+        <v>385</v>
+      </c>
+      <c r="R337">
+        <v>1.74</v>
+      </c>
+      <c r="S337">
+        <v>6.7110000000000003</v>
+      </c>
+      <c r="T337">
+        <v>10.603999999999999</v>
+      </c>
+      <c r="U337">
+        <v>7.8550000000000004</v>
+      </c>
+      <c r="V337">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="W337">
+        <v>24.814</v>
+      </c>
+      <c r="X337">
+        <v>11.654999999999999</v>
+      </c>
+      <c r="Y337">
+        <v>18.416</v>
+      </c>
+      <c r="Z337" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA337" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB337">
+        <v>6</v>
+      </c>
+      <c r="AC337">
+        <v>7</v>
+      </c>
+      <c r="AD337">
+        <v>-1</v>
+      </c>
+      <c r="AE337">
+        <v>0</v>
+      </c>
+      <c r="AF337">
+        <v>3.25</v>
+      </c>
+      <c r="AG337">
+        <v>2.6667000000000001</v>
+      </c>
+      <c r="AH337" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="338" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B338" t="s">
+        <v>75</v>
+      </c>
+      <c r="C338" t="s">
+        <v>130</v>
+      </c>
+      <c r="D338" t="s">
+        <v>119</v>
+      </c>
+      <c r="E338" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F338" t="s">
+        <v>553</v>
+      </c>
+      <c r="G338" t="s">
+        <v>1545</v>
+      </c>
+      <c r="H338">
+        <v>1.298</v>
+      </c>
+      <c r="I338">
+        <v>6.0830000000000002</v>
+      </c>
+      <c r="J338">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="K338" t="s">
+        <v>555</v>
+      </c>
+      <c r="L338">
+        <v>2.17</v>
+      </c>
+      <c r="M338" t="s">
+        <v>534</v>
+      </c>
+      <c r="N338">
+        <v>1.88</v>
+      </c>
+      <c r="O338" t="s">
+        <v>72</v>
+      </c>
+      <c r="P338">
+        <v>3.38</v>
+      </c>
+      <c r="Q338" t="s">
+        <v>341</v>
+      </c>
+      <c r="R338">
+        <v>1.43</v>
+      </c>
+      <c r="S338">
+        <v>5.9770000000000003</v>
+      </c>
+      <c r="T338">
+        <v>30.864000000000001</v>
+      </c>
+      <c r="U338">
+        <v>14.472</v>
+      </c>
+      <c r="V338">
+        <v>5.6050000000000004</v>
+      </c>
+      <c r="W338">
+        <v>149.25399999999999</v>
+      </c>
+      <c r="X338">
+        <v>13.587</v>
+      </c>
+      <c r="Y338">
+        <v>69.930000000000007</v>
+      </c>
+      <c r="Z338" t="s">
+        <v>342</v>
+      </c>
+      <c r="AA338" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB338">
+        <v>12</v>
+      </c>
+      <c r="AC338">
+        <v>-1</v>
+      </c>
+      <c r="AD338">
+        <v>2</v>
+      </c>
+      <c r="AE338">
+        <v>1</v>
+      </c>
+      <c r="AF338">
+        <v>2.8696000000000002</v>
+      </c>
+      <c r="AG338">
+        <v>2.4544999999999999</v>
+      </c>
+      <c r="AH338" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="339" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B339" t="s">
+        <v>75</v>
+      </c>
+      <c r="C339" t="s">
+        <v>109</v>
+      </c>
+      <c r="D339" t="s">
+        <v>129</v>
+      </c>
+      <c r="E339" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F339" t="s">
+        <v>644</v>
+      </c>
+      <c r="G339" t="s">
+        <v>278</v>
+      </c>
+      <c r="H339">
+        <v>2.7029999999999998</v>
+      </c>
+      <c r="I339">
+        <v>3.7450000000000001</v>
+      </c>
+      <c r="J339">
+        <v>2.758</v>
+      </c>
+      <c r="K339" t="s">
+        <v>387</v>
+      </c>
+      <c r="L339">
+        <v>2.14</v>
+      </c>
+      <c r="M339" t="s">
+        <v>534</v>
+      </c>
+      <c r="N339">
+        <v>1.88</v>
+      </c>
+      <c r="O339" t="s">
+        <v>193</v>
+      </c>
+      <c r="P339">
+        <v>1.93</v>
+      </c>
+      <c r="Q339" t="s">
+        <v>432</v>
+      </c>
+      <c r="R339">
+        <v>2.08</v>
+      </c>
+      <c r="S339">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="T339">
+        <v>10.090999999999999</v>
+      </c>
+      <c r="U339">
+        <v>7.8739999999999997</v>
+      </c>
+      <c r="V339">
+        <v>15.576000000000001</v>
+      </c>
+      <c r="W339">
+        <v>15.949</v>
+      </c>
+      <c r="X339">
+        <v>12.285</v>
+      </c>
+      <c r="Y339">
+        <v>12.438000000000001</v>
+      </c>
+      <c r="Z339" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA339" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB339">
+        <v>5</v>
+      </c>
+      <c r="AC339">
+        <v>9</v>
+      </c>
+      <c r="AD339">
+        <v>1</v>
+      </c>
+      <c r="AE339">
+        <v>5</v>
+      </c>
+      <c r="AF339">
+        <v>2.9167000000000001</v>
+      </c>
+      <c r="AG339">
+        <v>3.2608999999999999</v>
+      </c>
+      <c r="AH339" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="340" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B340" t="s">
+        <v>75</v>
+      </c>
+      <c r="C340" t="s">
+        <v>684</v>
+      </c>
+      <c r="D340" t="s">
+        <v>690</v>
+      </c>
+      <c r="E340" t="s">
+        <v>925</v>
+      </c>
+      <c r="F340" t="s">
+        <v>498</v>
+      </c>
+      <c r="G340" t="s">
+        <v>543</v>
+      </c>
+      <c r="H340">
+        <v>6.0419999999999998</v>
+      </c>
+      <c r="I340">
+        <v>3.25</v>
+      </c>
+      <c r="J340">
+        <v>1.901</v>
+      </c>
+      <c r="K340" t="s">
+        <v>216</v>
+      </c>
+      <c r="L340">
+        <v>3.93</v>
+      </c>
+      <c r="M340" t="s">
+        <v>217</v>
+      </c>
+      <c r="N340">
+        <v>1.34</v>
+      </c>
+      <c r="O340" t="s">
+        <v>666</v>
+      </c>
+      <c r="P340">
+        <v>3.43</v>
+      </c>
+      <c r="Q340" t="s">
+        <v>1548</v>
+      </c>
+      <c r="R340">
+        <v>1.41</v>
+      </c>
+      <c r="S340">
+        <v>10.638</v>
+      </c>
+      <c r="T340">
+        <v>4.7530000000000001</v>
+      </c>
+      <c r="U340">
+        <v>8.8109999999999999</v>
+      </c>
+      <c r="V340">
+        <v>39.369999999999997</v>
+      </c>
+      <c r="W340">
+        <v>7.8680000000000003</v>
+      </c>
+      <c r="X340">
+        <v>32.68</v>
+      </c>
+      <c r="Y340">
+        <v>14.577</v>
+      </c>
+      <c r="Z340" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA340" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB340">
+        <v>-7</v>
+      </c>
+      <c r="AC340">
+        <v>6</v>
+      </c>
+      <c r="AD340">
+        <v>-2</v>
+      </c>
+      <c r="AE340">
+        <v>2</v>
+      </c>
+      <c r="AF340">
+        <v>3.5455000000000001</v>
+      </c>
+      <c r="AG340">
+        <v>4.2857000000000003</v>
+      </c>
+      <c r="AH340" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="341" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B341" t="s">
+        <v>75</v>
+      </c>
+      <c r="C341" t="s">
+        <v>679</v>
+      </c>
+      <c r="D341" t="s">
+        <v>99</v>
+      </c>
+      <c r="E341" t="s">
+        <v>809</v>
+      </c>
+      <c r="F341" t="s">
+        <v>153</v>
+      </c>
+      <c r="G341" t="s">
+        <v>1131</v>
+      </c>
+      <c r="H341">
+        <v>6.1310000000000002</v>
+      </c>
+      <c r="I341">
+        <v>4.4290000000000003</v>
+      </c>
+      <c r="J341">
+        <v>1.6439999999999999</v>
+      </c>
+      <c r="K341" t="s">
+        <v>460</v>
+      </c>
+      <c r="L341">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="M341" t="s">
+        <v>810</v>
+      </c>
+      <c r="N341">
+        <v>1.95</v>
+      </c>
+      <c r="O341" t="s">
+        <v>695</v>
+      </c>
+      <c r="P341">
+        <v>2.16</v>
+      </c>
+      <c r="Q341" t="s">
+        <v>94</v>
+      </c>
+      <c r="R341">
+        <v>1.87</v>
+      </c>
+      <c r="S341">
+        <v>16.949000000000002</v>
+      </c>
+      <c r="T341">
+        <v>7.5819999999999999</v>
+      </c>
+      <c r="U341">
+        <v>9.3629999999999995</v>
+      </c>
+      <c r="V341">
+        <v>41.841000000000001</v>
+      </c>
+      <c r="W341">
+        <v>8.3819999999999997</v>
+      </c>
+      <c r="X341">
+        <v>23.148</v>
+      </c>
+      <c r="Y341">
+        <v>10.352</v>
+      </c>
+      <c r="Z341" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA341" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB341">
+        <v>-5</v>
+      </c>
+      <c r="AC341">
+        <v>4</v>
+      </c>
+      <c r="AD341">
+        <v>0</v>
+      </c>
+      <c r="AE341">
+        <v>-2</v>
+      </c>
+      <c r="AF341">
+        <v>1.8635999999999999</v>
+      </c>
+      <c r="AG341">
+        <v>2.7082999999999999</v>
+      </c>
+      <c r="AH341" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="342" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B342" t="s">
+        <v>75</v>
+      </c>
+      <c r="C342" t="s">
+        <v>77</v>
+      </c>
+      <c r="D342" t="s">
+        <v>900</v>
+      </c>
+      <c r="E342" t="s">
+        <v>34</v>
+      </c>
+      <c r="F342" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G342" t="s">
+        <v>46</v>
+      </c>
+      <c r="H342">
+        <v>2.3159999999999998</v>
+      </c>
+      <c r="I342">
+        <v>2.702</v>
+      </c>
+      <c r="J342">
+        <v>5.048</v>
+      </c>
+      <c r="K342" t="s">
+        <v>1296</v>
+      </c>
+      <c r="L342">
+        <v>5.96</v>
+      </c>
+      <c r="M342" t="s">
+        <v>1551</v>
+      </c>
+      <c r="N342">
+        <v>1.2</v>
+      </c>
+      <c r="O342" t="s">
+        <v>420</v>
+      </c>
+      <c r="P342">
+        <v>4.24</v>
+      </c>
+      <c r="Q342" t="s">
+        <v>1179</v>
+      </c>
+      <c r="R342">
+        <v>1.31</v>
+      </c>
+      <c r="S342">
+        <v>4.5350000000000001</v>
+      </c>
+      <c r="T342">
+        <v>8.0519999999999996</v>
+      </c>
+      <c r="U342">
+        <v>8.9529999999999994</v>
+      </c>
+      <c r="V342">
+        <v>10.090999999999999</v>
+      </c>
+      <c r="W342">
+        <v>31.745999999999999</v>
+      </c>
+      <c r="X342">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="Y342">
+        <v>35.335999999999999</v>
+      </c>
+      <c r="Z342" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA342" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB342">
+        <v>1</v>
+      </c>
+      <c r="AC342">
+        <v>-2</v>
+      </c>
+      <c r="AD342">
+        <v>1</v>
+      </c>
+      <c r="AE342">
+        <v>-1</v>
+      </c>
+      <c r="AF342">
+        <v>3.1739000000000002</v>
+      </c>
+      <c r="AG342">
+        <v>2.8696000000000002</v>
+      </c>
+      <c r="AH342" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="343" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1553</v>
+      </c>
+      <c r="D343" t="s">
+        <v>1554</v>
+      </c>
+      <c r="E343" t="s">
+        <v>833</v>
+      </c>
+      <c r="F343" t="s">
+        <v>489</v>
+      </c>
+      <c r="G343" t="s">
+        <v>233</v>
+      </c>
+      <c r="H343">
+        <v>3.2090000000000001</v>
+      </c>
+      <c r="I343">
+        <v>2.8260000000000001</v>
+      </c>
+      <c r="J343">
+        <v>2.988</v>
+      </c>
+      <c r="K343" t="s">
+        <v>1395</v>
+      </c>
+      <c r="L343">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="M343" t="s">
+        <v>1555</v>
+      </c>
+      <c r="N343">
+        <v>1.27</v>
+      </c>
+      <c r="O343" t="s">
+        <v>671</v>
+      </c>
+      <c r="P343">
+        <v>3.31</v>
+      </c>
+      <c r="Q343" t="s">
+        <v>341</v>
+      </c>
+      <c r="R343">
+        <v>1.43</v>
+      </c>
+      <c r="S343">
+        <v>6.3410000000000002</v>
+      </c>
+      <c r="T343">
+        <v>6.0279999999999996</v>
+      </c>
+      <c r="U343">
+        <v>7.7519999999999998</v>
+      </c>
+      <c r="V343">
+        <v>16.312999999999999</v>
+      </c>
+      <c r="W343">
+        <v>14.728</v>
+      </c>
+      <c r="X343">
+        <v>19.920000000000002</v>
+      </c>
+      <c r="Y343">
+        <v>18.939</v>
+      </c>
+      <c r="Z343" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA343" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB343">
+        <v>-4</v>
+      </c>
+      <c r="AC343">
+        <v>6</v>
+      </c>
+      <c r="AD343">
+        <v>1</v>
+      </c>
+      <c r="AE343">
+        <v>0</v>
+      </c>
+      <c r="AF343">
+        <v>3.6667000000000001</v>
+      </c>
+      <c r="AG343">
+        <v>4.5713999999999997</v>
+      </c>
+      <c r="AH343" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="344" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B344" t="s">
+        <v>416</v>
+      </c>
+      <c r="C344" t="s">
+        <v>750</v>
+      </c>
+      <c r="D344" t="s">
+        <v>417</v>
+      </c>
+      <c r="E344" t="s">
+        <v>284</v>
+      </c>
+      <c r="F344" t="s">
+        <v>283</v>
+      </c>
+      <c r="G344" t="s">
+        <v>1173</v>
+      </c>
+      <c r="H344">
+        <v>6.3780000000000001</v>
+      </c>
+      <c r="I344">
+        <v>5.2880000000000003</v>
+      </c>
+      <c r="J344">
+        <v>1.5489999999999999</v>
+      </c>
+      <c r="K344" t="s">
+        <v>652</v>
+      </c>
+      <c r="L344">
+        <v>1.6</v>
+      </c>
+      <c r="M344" t="s">
+        <v>285</v>
+      </c>
+      <c r="N344">
+        <v>2.74</v>
+      </c>
+      <c r="O344" t="s">
+        <v>286</v>
+      </c>
+      <c r="P344">
+        <v>1.77</v>
+      </c>
+      <c r="Q344" t="s">
+        <v>287</v>
+      </c>
+      <c r="R344">
+        <v>2.35</v>
+      </c>
+      <c r="S344">
+        <v>26.042000000000002</v>
+      </c>
+      <c r="T344">
+        <v>11.696</v>
+      </c>
+      <c r="U344">
+        <v>11.521000000000001</v>
+      </c>
+      <c r="V344">
+        <v>51.281999999999996</v>
+      </c>
+      <c r="W344">
+        <v>10.352</v>
+      </c>
+      <c r="X344">
+        <v>22.727</v>
+      </c>
+      <c r="Y344">
+        <v>10.204000000000001</v>
+      </c>
+      <c r="Z344" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA344" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB344">
+        <v>1</v>
+      </c>
+      <c r="AC344">
+        <v>7</v>
+      </c>
+      <c r="AD344">
+        <v>0</v>
+      </c>
+      <c r="AE344">
+        <v>1</v>
+      </c>
+      <c r="AF344">
+        <v>2.8332999999999999</v>
+      </c>
+      <c r="AG344">
+        <v>2.7143000000000002</v>
+      </c>
+      <c r="AH344" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="345" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B345" t="s">
+        <v>764</v>
+      </c>
+      <c r="C345" t="s">
+        <v>770</v>
+      </c>
+      <c r="D345" t="s">
+        <v>774</v>
+      </c>
+      <c r="E345" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F345" t="s">
+        <v>1341</v>
+      </c>
+      <c r="G345" t="s">
+        <v>652</v>
+      </c>
+      <c r="H345">
+        <v>5.8620000000000001</v>
+      </c>
+      <c r="I345">
+        <v>5.1280000000000001</v>
+      </c>
+      <c r="J345">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="K345" t="s">
+        <v>71</v>
+      </c>
+      <c r="L345">
+        <v>1.6</v>
+      </c>
+      <c r="M345" t="s">
+        <v>1089</v>
+      </c>
+      <c r="N345">
+        <v>2.73</v>
+      </c>
+      <c r="O345" t="s">
+        <v>397</v>
+      </c>
+      <c r="P345">
+        <v>1.73</v>
+      </c>
+      <c r="Q345" t="s">
+        <v>396</v>
+      </c>
+      <c r="R345">
+        <v>2.41</v>
+      </c>
+      <c r="S345">
+        <v>24.814</v>
+      </c>
+      <c r="T345">
+        <v>11.891</v>
+      </c>
+      <c r="U345">
+        <v>11.223000000000001</v>
+      </c>
+      <c r="V345">
+        <v>46.728999999999999</v>
+      </c>
+      <c r="W345">
+        <v>10.763999999999999</v>
+      </c>
+      <c r="X345">
+        <v>21.186</v>
+      </c>
+      <c r="Y345">
+        <v>10.163</v>
+      </c>
+      <c r="Z345" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA345" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB345">
+        <v>-1</v>
+      </c>
+      <c r="AC345">
+        <v>10</v>
+      </c>
+      <c r="AD345">
+        <v>0</v>
+      </c>
+      <c r="AE345">
+        <v>0</v>
+      </c>
+      <c r="AF345">
+        <v>3.2250000000000001</v>
+      </c>
+      <c r="AG345">
+        <v>2.5789</v>
+      </c>
+      <c r="AH345" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="346" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D346" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E346" t="s">
+        <v>164</v>
+      </c>
+      <c r="F346" t="s">
+        <v>112</v>
+      </c>
+      <c r="G346" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H346">
+        <v>2.5830000000000002</v>
+      </c>
+      <c r="I346">
+        <v>4.0830000000000002</v>
+      </c>
+      <c r="J346">
+        <v>2.7320000000000002</v>
+      </c>
+      <c r="K346" t="s">
+        <v>491</v>
+      </c>
+      <c r="L346">
+        <v>1.77</v>
+      </c>
+      <c r="M346" t="s">
+        <v>34</v>
+      </c>
+      <c r="N346">
+        <v>2.31</v>
+      </c>
+      <c r="O346" t="s">
+        <v>772</v>
+      </c>
+      <c r="P346">
+        <v>1.68</v>
+      </c>
+      <c r="Q346" t="s">
+        <v>493</v>
+      </c>
+      <c r="R346">
+        <v>2.48</v>
+      </c>
+      <c r="S346">
+        <v>12.821</v>
+      </c>
+      <c r="T346">
+        <v>13.244999999999999</v>
+      </c>
+      <c r="U346">
+        <v>8.8109999999999999</v>
+      </c>
+      <c r="V346">
+        <v>17.065000000000001</v>
+      </c>
+      <c r="W346">
+        <v>18.215</v>
+      </c>
+      <c r="X346">
+        <v>11.723000000000001</v>
+      </c>
+      <c r="Y346">
+        <v>12.106999999999999</v>
+      </c>
+      <c r="Z346" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA346" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB346">
+        <v>-9</v>
+      </c>
+      <c r="AC346">
+        <v>-4</v>
+      </c>
+      <c r="AD346">
+        <v>0</v>
+      </c>
+      <c r="AE346">
+        <v>0</v>
+      </c>
+      <c r="AF346">
+        <v>4.0869999999999997</v>
+      </c>
+      <c r="AG346">
+        <v>5.6818</v>
+      </c>
+      <c r="AH346" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="347" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C347" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D347" t="s">
+        <v>1085</v>
+      </c>
+      <c r="E347" t="s">
+        <v>91</v>
+      </c>
+      <c r="F347" t="s">
+        <v>959</v>
+      </c>
+      <c r="G347" t="s">
+        <v>659</v>
+      </c>
+      <c r="H347">
+        <v>3.786</v>
+      </c>
+      <c r="I347">
+        <v>5.1950000000000003</v>
+      </c>
+      <c r="J347">
+        <v>1.8879999999999999</v>
+      </c>
+      <c r="K347" t="s">
+        <v>1179</v>
+      </c>
+      <c r="L347">
+        <v>1.31</v>
+      </c>
+      <c r="M347" t="s">
+        <v>105</v>
+      </c>
+      <c r="N347">
+        <v>4.5</v>
+      </c>
+      <c r="O347" t="s">
+        <v>49</v>
+      </c>
+      <c r="P347">
+        <v>1.37</v>
+      </c>
+      <c r="Q347" t="s">
+        <v>894</v>
+      </c>
+      <c r="R347">
+        <v>3.93</v>
+      </c>
+      <c r="S347">
+        <v>36.231999999999999</v>
+      </c>
+      <c r="T347">
+        <v>25.189</v>
+      </c>
+      <c r="U347">
+        <v>14.925000000000001</v>
+      </c>
+      <c r="V347">
+        <v>42.917999999999999</v>
+      </c>
+      <c r="W347">
+        <v>20.79</v>
+      </c>
+      <c r="X347">
+        <v>17.699000000000002</v>
+      </c>
+      <c r="Y347">
+        <v>12.315</v>
+      </c>
+      <c r="Z347" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA347" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB347">
+        <v>-6</v>
+      </c>
+      <c r="AC347">
+        <v>-3</v>
+      </c>
+      <c r="AD347">
+        <v>-2</v>
+      </c>
+      <c r="AE347">
+        <v>-2</v>
+      </c>
+      <c r="AF347">
+        <v>4.5909000000000004</v>
+      </c>
+      <c r="AG347">
+        <v>4.9545000000000003</v>
+      </c>
+      <c r="AH347" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="348" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D348" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E348" t="s">
+        <v>136</v>
+      </c>
+      <c r="F348" t="s">
+        <v>102</v>
+      </c>
+      <c r="G348" t="s">
+        <v>649</v>
+      </c>
+      <c r="H348">
+        <v>1.843</v>
+      </c>
+      <c r="I348">
+        <v>4.9749999999999996</v>
+      </c>
+      <c r="J348">
+        <v>4.04</v>
+      </c>
+      <c r="K348" t="s">
+        <v>890</v>
+      </c>
+      <c r="L348">
+        <v>1.41</v>
+      </c>
+      <c r="M348" t="s">
+        <v>84</v>
+      </c>
+      <c r="N348">
+        <v>3.55</v>
+      </c>
+      <c r="O348" t="s">
+        <v>868</v>
+      </c>
+      <c r="P348">
+        <v>1.46</v>
+      </c>
+      <c r="Q348" t="s">
+        <v>498</v>
+      </c>
+      <c r="R348">
+        <v>3.25</v>
+      </c>
+      <c r="S348">
+        <v>18.416</v>
+      </c>
+      <c r="T348">
+        <v>28.09</v>
+      </c>
+      <c r="U348">
+        <v>12.484</v>
+      </c>
+      <c r="V348">
+        <v>16.367000000000001</v>
+      </c>
+      <c r="W348">
+        <v>38.167999999999999</v>
+      </c>
+      <c r="X348">
+        <v>11.111000000000001</v>
+      </c>
+      <c r="Y348">
+        <v>16.949000000000002</v>
+      </c>
+      <c r="Z348" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA348" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB348">
+        <v>15</v>
+      </c>
+      <c r="AC348">
+        <v>8</v>
+      </c>
+      <c r="AD348">
+        <v>1</v>
+      </c>
+      <c r="AE348">
+        <v>2</v>
+      </c>
+      <c r="AF348">
+        <v>3.5651999999999999</v>
+      </c>
+      <c r="AG348">
+        <v>4.7826000000000004</v>
+      </c>
+      <c r="AH348" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="349" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D349" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E349" t="s">
+        <v>303</v>
+      </c>
+      <c r="F349" t="s">
+        <v>252</v>
+      </c>
+      <c r="G349" t="s">
+        <v>153</v>
+      </c>
+      <c r="H349">
+        <v>1.8149999999999999</v>
+      </c>
+      <c r="I349">
+        <v>4.5579999999999998</v>
+      </c>
+      <c r="J349">
+        <v>4.4290000000000003</v>
+      </c>
+      <c r="K349" t="s">
+        <v>291</v>
+      </c>
+      <c r="L349">
+        <v>1.67</v>
+      </c>
+      <c r="M349" t="s">
+        <v>560</v>
+      </c>
+      <c r="N349">
+        <v>2.52</v>
+      </c>
+      <c r="O349" t="s">
+        <v>702</v>
+      </c>
+      <c r="P349">
+        <v>1.7</v>
+      </c>
+      <c r="Q349" t="s">
+        <v>260</v>
+      </c>
+      <c r="R349">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="S349">
+        <v>11.614000000000001</v>
+      </c>
+      <c r="T349">
+        <v>19.341999999999999</v>
+      </c>
+      <c r="U349">
+        <v>9.9209999999999994</v>
+      </c>
+      <c r="V349">
+        <v>11.919</v>
+      </c>
+      <c r="W349">
+        <v>33.003</v>
+      </c>
+      <c r="X349">
+        <v>10.183</v>
+      </c>
+      <c r="Y349">
+        <v>16.949000000000002</v>
+      </c>
+      <c r="Z349" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA349" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB349">
+        <v>-17</v>
+      </c>
+      <c r="AC349">
+        <v>-12</v>
+      </c>
+      <c r="AD349">
+        <v>-2</v>
+      </c>
+      <c r="AE349">
+        <v>2</v>
+      </c>
+      <c r="AF349">
+        <v>4.4348000000000001</v>
+      </c>
+      <c r="AG349">
+        <v>4.5454999999999997</v>
+      </c>
+      <c r="AH349" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="350" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B350" t="s">
+        <v>197</v>
+      </c>
+      <c r="C350" t="s">
+        <v>655</v>
+      </c>
+      <c r="D350" t="s">
+        <v>883</v>
+      </c>
+      <c r="E350" t="s">
+        <v>83</v>
+      </c>
+      <c r="F350" t="s">
+        <v>292</v>
+      </c>
+      <c r="G350" t="s">
+        <v>373</v>
+      </c>
+      <c r="H350">
+        <v>1.421</v>
+      </c>
+      <c r="I350">
+        <v>4.4720000000000004</v>
+      </c>
+      <c r="J350">
+        <v>14.085000000000001</v>
+      </c>
+      <c r="K350" t="s">
+        <v>419</v>
+      </c>
+      <c r="L350">
+        <v>3.11</v>
+      </c>
+      <c r="M350" t="s">
+        <v>500</v>
+      </c>
+      <c r="N350">
+        <v>1.48</v>
+      </c>
+      <c r="O350" t="s">
+        <v>767</v>
+      </c>
+      <c r="P350">
+        <v>4.29</v>
+      </c>
+      <c r="Q350" t="s">
+        <v>586</v>
+      </c>
+      <c r="R350">
+        <v>1.31</v>
+      </c>
+      <c r="S350">
+        <v>4.45</v>
+      </c>
+      <c r="T350">
+        <v>21.692</v>
+      </c>
+      <c r="U350">
+        <v>13.071999999999999</v>
+      </c>
+      <c r="V350">
+        <v>5.3680000000000003</v>
+      </c>
+      <c r="W350">
+        <v>126.58199999999999</v>
+      </c>
+      <c r="X350">
+        <v>15.773</v>
+      </c>
+      <c r="Y350">
+        <v>76.923000000000002</v>
+      </c>
+      <c r="Z350" t="s">
+        <v>342</v>
+      </c>
+      <c r="AA350" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB350">
+        <v>2</v>
+      </c>
+      <c r="AC350">
+        <v>0</v>
+      </c>
+      <c r="AD350">
+        <v>3</v>
+      </c>
+      <c r="AE350">
+        <v>-1</v>
+      </c>
+      <c r="AF350">
+        <v>3.4443999999999999</v>
+      </c>
+      <c r="AG350">
+        <v>3.7307999999999999</v>
+      </c>
+      <c r="AH350" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="351" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D351" t="s">
+        <v>1224</v>
+      </c>
+      <c r="E351" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F351" t="s">
+        <v>322</v>
+      </c>
+      <c r="G351" t="s">
+        <v>965</v>
+      </c>
+      <c r="H351">
+        <v>1.665</v>
+      </c>
+      <c r="I351">
+        <v>4.3879999999999999</v>
+      </c>
+      <c r="J351">
+        <v>5.9240000000000004</v>
+      </c>
+      <c r="K351" t="s">
+        <v>440</v>
+      </c>
+      <c r="L351">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="M351" t="s">
+        <v>439</v>
+      </c>
+      <c r="N351">
+        <v>1.95</v>
+      </c>
+      <c r="O351" t="s">
+        <v>1566</v>
+      </c>
+      <c r="P351">
+        <v>2.14</v>
+      </c>
+      <c r="Q351" t="s">
+        <v>659</v>
+      </c>
+      <c r="R351">
+        <v>1.89</v>
+      </c>
+      <c r="S351">
+        <v>7.657</v>
+      </c>
+      <c r="T351">
+        <v>16.611000000000001</v>
+      </c>
+      <c r="U351">
+        <v>9.2680000000000007</v>
+      </c>
+      <c r="V351">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="W351">
+        <v>40.323</v>
+      </c>
+      <c r="X351">
+        <v>10.331</v>
+      </c>
+      <c r="Y351">
+        <v>22.422000000000001</v>
+      </c>
+      <c r="Z351" t="s">
+        <v>116</v>
+      </c>
+      <c r="AA351" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB351">
+        <v>-4</v>
+      </c>
+      <c r="AC351">
+        <v>-11</v>
+      </c>
+      <c r="AD351">
+        <v>1</v>
+      </c>
+      <c r="AE351">
+        <v>-1</v>
+      </c>
+      <c r="AF351">
+        <v>3.8571</v>
+      </c>
+      <c r="AG351">
+        <v>3.8094999999999999</v>
+      </c>
+      <c r="AH351" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="352" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1242</v>
+      </c>
+      <c r="D352" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E352" t="s">
+        <v>599</v>
+      </c>
+      <c r="F352" t="s">
+        <v>401</v>
+      </c>
+      <c r="G352" t="s">
+        <v>877</v>
+      </c>
+      <c r="H352">
+        <v>3.484</v>
+      </c>
+      <c r="I352">
+        <v>3.3290000000000002</v>
+      </c>
+      <c r="J352">
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="K352" t="s">
+        <v>338</v>
+      </c>
+      <c r="L352">
+        <v>2.96</v>
+      </c>
+      <c r="M352" t="s">
+        <v>532</v>
+      </c>
+      <c r="N352">
+        <v>1.51</v>
+      </c>
+      <c r="O352" t="s">
+        <v>260</v>
+      </c>
+      <c r="P352">
+        <v>2.46</v>
+      </c>
+      <c r="Q352" t="s">
+        <v>1244</v>
+      </c>
+      <c r="R352">
+        <v>1.69</v>
+      </c>
+      <c r="S352">
+        <v>8.6129999999999995</v>
+      </c>
+      <c r="T352">
+        <v>6.7930000000000001</v>
+      </c>
+      <c r="U352">
+        <v>7.5019999999999998</v>
+      </c>
+      <c r="V352">
+        <v>19.010999999999999</v>
+      </c>
+      <c r="W352">
+        <v>11.834</v>
+      </c>
+      <c r="X352">
+        <v>16.556000000000001</v>
+      </c>
+      <c r="Y352">
+        <v>13.055</v>
+      </c>
+      <c r="Z352" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA352" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB352">
+        <v>-3</v>
+      </c>
+      <c r="AC352">
+        <v>7</v>
+      </c>
+      <c r="AD352">
+        <v>-1</v>
+      </c>
+      <c r="AE352">
+        <v>3</v>
+      </c>
+      <c r="AF352">
+        <v>3.7143000000000002</v>
+      </c>
+      <c r="AG352">
+        <v>3.8571</v>
+      </c>
+      <c r="AH352" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="353" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D353" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E353" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F353" t="s">
+        <v>355</v>
+      </c>
+      <c r="G353" t="s">
+        <v>374</v>
+      </c>
+      <c r="H353">
+        <v>1.2390000000000001</v>
+      </c>
+      <c r="I353">
+        <v>11.038</v>
+      </c>
+      <c r="J353">
+        <v>21.645</v>
+      </c>
+      <c r="K353" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L353">
+        <v>1.39</v>
+      </c>
+      <c r="M353" t="s">
+        <v>292</v>
+      </c>
+      <c r="N353">
+        <v>4.47</v>
+      </c>
+      <c r="O353" t="s">
+        <v>206</v>
+      </c>
+      <c r="P353">
+        <v>2.12</v>
+      </c>
+      <c r="Q353" t="s">
+        <v>206</v>
+      </c>
+      <c r="R353">
+        <v>2.12</v>
+      </c>
+      <c r="S353">
+        <v>17.920999999999999</v>
+      </c>
+      <c r="T353">
+        <v>82.644999999999996</v>
+      </c>
+      <c r="U353">
+        <v>24.51</v>
+      </c>
+      <c r="V353">
+        <v>10.638</v>
+      </c>
+      <c r="W353">
+        <v>227.273</v>
+      </c>
+      <c r="X353">
+        <v>14.535</v>
+      </c>
+      <c r="Y353">
+        <v>67.114000000000004</v>
+      </c>
+      <c r="Z353" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA353" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB353">
+        <v>5</v>
+      </c>
+      <c r="AC353">
+        <v>-3</v>
+      </c>
+      <c r="AD353">
+        <v>1</v>
+      </c>
+      <c r="AE353">
+        <v>0</v>
+      </c>
+      <c r="AF353">
+        <v>4.6841999999999997</v>
+      </c>
+      <c r="AG353">
+        <v>6.0556000000000001</v>
+      </c>
+      <c r="AH353" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="354" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1568</v>
+      </c>
+      <c r="D354" t="s">
+        <v>1569</v>
+      </c>
+      <c r="E354" t="s">
+        <v>91</v>
+      </c>
+      <c r="F354" t="s">
+        <v>401</v>
+      </c>
+      <c r="G354" t="s">
+        <v>43</v>
+      </c>
+      <c r="H354">
+        <v>3.7909999999999999</v>
+      </c>
+      <c r="I354">
+        <v>3.3340000000000001</v>
+      </c>
+      <c r="J354">
+        <v>2.2930000000000001</v>
+      </c>
+      <c r="K354" t="s">
+        <v>474</v>
+      </c>
+      <c r="L354">
+        <v>3.02</v>
+      </c>
+      <c r="M354" t="s">
+        <v>520</v>
+      </c>
+      <c r="N354">
+        <v>1.5</v>
+      </c>
+      <c r="O354" t="s">
+        <v>484</v>
+      </c>
+      <c r="P354">
+        <v>2.52</v>
+      </c>
+      <c r="Q354" t="s">
+        <v>485</v>
+      </c>
+      <c r="R354">
+        <v>1.66</v>
+      </c>
+      <c r="S354">
+        <v>8.9770000000000003</v>
+      </c>
+      <c r="T354">
+        <v>6.4429999999999996</v>
+      </c>
+      <c r="U354">
+        <v>7.593</v>
+      </c>
+      <c r="V354">
+        <v>21.141999999999999</v>
+      </c>
+      <c r="W354">
+        <v>10.904999999999999</v>
+      </c>
+      <c r="X354">
+        <v>17.888999999999999</v>
+      </c>
+      <c r="Y354">
+        <v>12.853</v>
+      </c>
+      <c r="Z354" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA354" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB354">
+        <v>-9</v>
+      </c>
+      <c r="AC354">
+        <v>2</v>
+      </c>
+      <c r="AD354">
+        <v>-1</v>
+      </c>
+      <c r="AE354">
+        <v>2</v>
+      </c>
+      <c r="AF354">
+        <v>3.7143000000000002</v>
+      </c>
+      <c r="AG354">
+        <v>4</v>
+      </c>
+      <c r="AH354" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="355" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C355" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D355" t="s">
+        <v>1515</v>
+      </c>
+      <c r="E355" t="s">
+        <v>823</v>
+      </c>
+      <c r="F355" t="s">
+        <v>644</v>
+      </c>
+      <c r="G355" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H355">
+        <v>2.9449999999999998</v>
+      </c>
+      <c r="I355">
+        <v>3.74</v>
+      </c>
+      <c r="J355">
+        <v>2.552</v>
+      </c>
+      <c r="K355" t="s">
+        <v>93</v>
+      </c>
+      <c r="L355">
+        <v>2.16</v>
+      </c>
+      <c r="M355" t="s">
+        <v>94</v>
+      </c>
+      <c r="N355">
+        <v>1.87</v>
+      </c>
+      <c r="O355" t="s">
+        <v>810</v>
+      </c>
+      <c r="P355">
+        <v>1.94</v>
+      </c>
+      <c r="Q355" t="s">
+        <v>812</v>
+      </c>
+      <c r="R355">
+        <v>2.06</v>
+      </c>
+      <c r="S355">
+        <v>10.406000000000001</v>
+      </c>
+      <c r="T355">
+        <v>9.5329999999999995</v>
+      </c>
+      <c r="U355">
+        <v>7.8680000000000003</v>
+      </c>
+      <c r="V355">
+        <v>17.152999999999999</v>
+      </c>
+      <c r="W355">
+        <v>14.43</v>
+      </c>
+      <c r="X355">
+        <v>12.987</v>
+      </c>
+      <c r="Y355">
+        <v>11.904999999999999</v>
+      </c>
+      <c r="Z355" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA355" t="s">
+        <v>86</v>
+      </c>
+      <c r="AB355">
+        <v>2</v>
+      </c>
+      <c r="AC355">
+        <v>9</v>
+      </c>
+      <c r="AD355">
+        <v>2</v>
+      </c>
+      <c r="AE355">
+        <v>2</v>
+      </c>
+      <c r="AF355">
+        <v>4.3333000000000004</v>
+      </c>
+      <c r="AG355">
+        <v>2.7143000000000002</v>
+      </c>
+      <c r="AH355" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="356" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D356" t="s">
+        <v>1516</v>
+      </c>
+      <c r="E356" t="s">
+        <v>746</v>
+      </c>
+      <c r="F356" t="s">
+        <v>471</v>
+      </c>
+      <c r="G356" t="s">
+        <v>490</v>
+      </c>
+      <c r="H356">
+        <v>2.8620000000000001</v>
+      </c>
+      <c r="I356">
+        <v>4.0129999999999999</v>
+      </c>
+      <c r="J356">
+        <v>2.4990000000000001</v>
+      </c>
+      <c r="K356" t="s">
+        <v>1010</v>
+      </c>
+      <c r="L356">
+        <v>1.84</v>
+      </c>
+      <c r="M356" t="s">
+        <v>839</v>
+      </c>
+      <c r="N356">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O356" t="s">
+        <v>226</v>
+      </c>
+      <c r="P356">
+        <v>1.73</v>
+      </c>
+      <c r="Q356" t="s">
+        <v>225</v>
+      </c>
+      <c r="R356">
+        <v>2.37</v>
+      </c>
+      <c r="S356">
+        <v>12.723000000000001</v>
+      </c>
+      <c r="T356">
+        <v>11.750999999999999</v>
+      </c>
+      <c r="U356">
+        <v>8.5540000000000003</v>
+      </c>
+      <c r="V356">
+        <v>18.518999999999998</v>
+      </c>
+      <c r="W356">
+        <v>15.798</v>
+      </c>
+      <c r="X356">
+        <v>12.452999999999999</v>
+      </c>
+      <c r="Y356">
+        <v>11.507</v>
+      </c>
+      <c r="Z356" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA356" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB356">
+        <v>1</v>
+      </c>
+      <c r="AC356">
+        <v>1</v>
+      </c>
+      <c r="AD356">
+        <v>-2</v>
+      </c>
+      <c r="AE356">
+        <v>-2</v>
+      </c>
+      <c r="AF356">
+        <v>4.1905000000000001</v>
+      </c>
+      <c r="AG356">
+        <v>4.0476000000000001</v>
+      </c>
+      <c r="AH356" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="357" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D357" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E357" t="s">
+        <v>406</v>
+      </c>
+      <c r="F357" t="s">
+        <v>56</v>
+      </c>
+      <c r="G357" t="s">
+        <v>670</v>
+      </c>
+      <c r="H357">
+        <v>1.357</v>
+      </c>
+      <c r="I357">
+        <v>5.476</v>
+      </c>
+      <c r="J357">
+        <v>13.228</v>
+      </c>
+      <c r="K357" t="s">
+        <v>742</v>
+      </c>
+      <c r="L357">
+        <v>2.23</v>
+      </c>
+      <c r="M357" t="s">
+        <v>696</v>
+      </c>
+      <c r="N357">
+        <v>1.83</v>
+      </c>
+      <c r="O357" t="s">
+        <v>751</v>
+      </c>
+      <c r="P357">
+        <v>3.08</v>
+      </c>
+      <c r="Q357" t="s">
+        <v>609</v>
+      </c>
+      <c r="R357">
+        <v>1.49</v>
+      </c>
+      <c r="S357">
+        <v>5.992</v>
+      </c>
+      <c r="T357">
+        <v>25.574999999999999</v>
+      </c>
+      <c r="U357">
+        <v>12.657999999999999</v>
+      </c>
+      <c r="V357">
+        <v>5.931</v>
+      </c>
+      <c r="W357">
+        <v>107.527</v>
+      </c>
+      <c r="X357">
+        <v>12.531000000000001</v>
+      </c>
+      <c r="Y357">
+        <v>53.475999999999999</v>
+      </c>
+      <c r="Z357" t="s">
+        <v>342</v>
+      </c>
+      <c r="AA357" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB357">
+        <v>10</v>
+      </c>
+      <c r="AC357">
+        <v>2</v>
+      </c>
+      <c r="AD357">
+        <v>0</v>
+      </c>
+      <c r="AE357">
+        <v>2</v>
+      </c>
+      <c r="AF357">
+        <v>4.4762000000000004</v>
+      </c>
+      <c r="AG357">
+        <v>3.7618999999999998</v>
+      </c>
+      <c r="AH357" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="358" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D358" t="s">
+        <v>1579</v>
+      </c>
+      <c r="E358" t="s">
+        <v>93</v>
+      </c>
+      <c r="F358" t="s">
+        <v>768</v>
+      </c>
+      <c r="G358" t="s">
+        <v>403</v>
+      </c>
+      <c r="H358">
+        <v>2.1549999999999998</v>
+      </c>
+      <c r="I358">
+        <v>3.4609999999999999</v>
+      </c>
+      <c r="J358">
+        <v>4.0620000000000003</v>
+      </c>
+      <c r="K358" t="s">
+        <v>489</v>
+      </c>
+      <c r="L358">
+        <v>2.82</v>
+      </c>
+      <c r="M358" t="s">
+        <v>282</v>
+      </c>
+      <c r="N358">
+        <v>1.55</v>
+      </c>
+      <c r="O358" t="s">
+        <v>1066</v>
+      </c>
+      <c r="P358">
+        <v>2.44</v>
+      </c>
+      <c r="Q358" t="s">
+        <v>1166</v>
+      </c>
+      <c r="R358">
+        <v>1.7</v>
+      </c>
+      <c r="S358">
+        <v>6.5190000000000001</v>
+      </c>
+      <c r="T358">
+        <v>9.843</v>
+      </c>
+      <c r="U358">
+        <v>7.734</v>
+      </c>
+      <c r="V358">
+        <v>10.246</v>
+      </c>
+      <c r="W358">
+        <v>23.364000000000001</v>
+      </c>
+      <c r="X358">
+        <v>12.151</v>
+      </c>
+      <c r="Y358">
+        <v>18.349</v>
+      </c>
+      <c r="Z358" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA358" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB358">
+        <v>-10</v>
+      </c>
+      <c r="AC358">
+        <v>-9</v>
+      </c>
+      <c r="AD358">
+        <v>-2</v>
+      </c>
+      <c r="AE358">
+        <v>-2</v>
+      </c>
+      <c r="AF358">
+        <v>4.2381000000000002</v>
+      </c>
+      <c r="AG358">
+        <v>4.4762000000000004</v>
+      </c>
+      <c r="AH358" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="359" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D359" t="s">
+        <v>1093</v>
+      </c>
+      <c r="E359" t="s">
+        <v>105</v>
+      </c>
+      <c r="F359" t="s">
+        <v>267</v>
+      </c>
+      <c r="G359" t="s">
+        <v>250</v>
+      </c>
+      <c r="H359">
+        <v>4.4980000000000002</v>
+      </c>
+      <c r="I359">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="J359">
+        <v>1.772</v>
+      </c>
+      <c r="K359" t="s">
+        <v>733</v>
+      </c>
+      <c r="L359">
+        <v>1.53</v>
+      </c>
+      <c r="M359" t="s">
+        <v>1240</v>
+      </c>
+      <c r="N359">
+        <v>2.95</v>
+      </c>
+      <c r="O359" t="s">
+        <v>739</v>
+      </c>
+      <c r="P359">
+        <v>1.59</v>
+      </c>
+      <c r="Q359" t="s">
+        <v>524</v>
+      </c>
+      <c r="R359">
+        <v>2.75</v>
+      </c>
+      <c r="S359">
+        <v>23.696999999999999</v>
+      </c>
+      <c r="T359">
+        <v>14.124000000000001</v>
+      </c>
+      <c r="U359">
+        <v>11.099</v>
+      </c>
+      <c r="V359">
+        <v>37.174999999999997</v>
+      </c>
+      <c r="W359">
+        <v>13.244999999999999</v>
+      </c>
+      <c r="X359">
+        <v>17.452000000000002</v>
+      </c>
+      <c r="Y359">
+        <v>10.406000000000001</v>
+      </c>
+      <c r="Z359" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA359" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB359">
+        <v>6</v>
+      </c>
+      <c r="AC359">
+        <v>10</v>
+      </c>
+      <c r="AD359">
+        <v>0</v>
+      </c>
+      <c r="AE359">
+        <v>1</v>
+      </c>
+      <c r="AF359">
+        <v>4.7390999999999996</v>
+      </c>
+      <c r="AG359">
+        <v>4.4348000000000001</v>
+      </c>
+      <c r="AH359" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="360" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B360" t="s">
+        <v>149</v>
+      </c>
+      <c r="C360" t="s">
+        <v>169</v>
+      </c>
+      <c r="D360" t="s">
+        <v>487</v>
+      </c>
+      <c r="E360" t="s">
+        <v>950</v>
+      </c>
+      <c r="F360" t="s">
+        <v>644</v>
+      </c>
+      <c r="G360" t="s">
+        <v>283</v>
+      </c>
+      <c r="H360">
+        <v>1.8440000000000001</v>
+      </c>
+      <c r="I360">
+        <v>3.7410000000000001</v>
+      </c>
+      <c r="J360">
+        <v>5.2830000000000004</v>
+      </c>
+      <c r="K360" t="s">
+        <v>653</v>
+      </c>
+      <c r="L360">
+        <v>2.66</v>
+      </c>
+      <c r="M360" t="s">
+        <v>444</v>
+      </c>
+      <c r="N360">
+        <v>1.6</v>
+      </c>
+      <c r="O360" t="s">
+        <v>490</v>
+      </c>
+      <c r="P360">
+        <v>2.5</v>
+      </c>
+      <c r="Q360" t="s">
+        <v>291</v>
+      </c>
+      <c r="R360">
+        <v>1.67</v>
+      </c>
+      <c r="S360">
+        <v>6.173</v>
+      </c>
+      <c r="T360">
+        <v>12.18</v>
+      </c>
+      <c r="U360">
+        <v>8.3539999999999992</v>
+      </c>
+      <c r="V360">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="W360">
+        <v>33.003</v>
+      </c>
+      <c r="X360">
+        <v>11.455</v>
+      </c>
+      <c r="Y360">
+        <v>22.623999999999999</v>
+      </c>
+      <c r="Z360" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA360" t="s">
+        <v>117</v>
+      </c>
+      <c r="AB360">
+        <v>-5</v>
+      </c>
+      <c r="AC360">
+        <v>-13</v>
+      </c>
+      <c r="AD360">
+        <v>-2</v>
+      </c>
+      <c r="AE360">
+        <v>-2</v>
+      </c>
+      <c r="AF360">
+        <v>6.1111000000000004</v>
+      </c>
+      <c r="AG360">
+        <v>6.7222</v>
+      </c>
+      <c r="AH360" t="s">
+        <v>1581</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/clonedprediction_history.xlsx
+++ b/clonedprediction_history.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kovan\Rsoccer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95674A84-53AA-4BA8-8259-F4657A681457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676B64BB-CDBC-4C7D-BC78-0F7A3EBDBE22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="686">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="753">
   <si>
     <t>league</t>
   </si>
@@ -2089,6 +2089,207 @@
   </si>
   <si>
     <t>3.8824</t>
+  </si>
+  <si>
+    <t>37.9%</t>
+  </si>
+  <si>
+    <t>12.5%</t>
+  </si>
+  <si>
+    <t>13.1%</t>
+  </si>
+  <si>
+    <t>86.9%</t>
+  </si>
+  <si>
+    <t>16.6%</t>
+  </si>
+  <si>
+    <t>83.4%</t>
+  </si>
+  <si>
+    <t>62.8%</t>
+  </si>
+  <si>
+    <t>56.5%</t>
+  </si>
+  <si>
+    <t>31.6%</t>
+  </si>
+  <si>
+    <t>11.8%</t>
+  </si>
+  <si>
+    <t>20.4%</t>
+  </si>
+  <si>
+    <t>79.6%</t>
+  </si>
+  <si>
+    <t>78.3%</t>
+  </si>
+  <si>
+    <t>Oviedo</t>
+  </si>
+  <si>
+    <t>11.3%</t>
+  </si>
+  <si>
+    <t>27.6%</t>
+  </si>
+  <si>
+    <t>73.0%</t>
+  </si>
+  <si>
+    <t>5.1667</t>
+  </si>
+  <si>
+    <t>34.8%</t>
+  </si>
+  <si>
+    <t>78.1%</t>
+  </si>
+  <si>
+    <t>18.1%</t>
+  </si>
+  <si>
+    <t>86.1%</t>
+  </si>
+  <si>
+    <t>79.7%</t>
+  </si>
+  <si>
+    <t>66.8%</t>
+  </si>
+  <si>
+    <t>57.7%</t>
+  </si>
+  <si>
+    <t>41.6%</t>
+  </si>
+  <si>
+    <t>50.7%</t>
+  </si>
+  <si>
+    <t>36.6%</t>
+  </si>
+  <si>
+    <t>16.9%</t>
+  </si>
+  <si>
+    <t>16.3%</t>
+  </si>
+  <si>
+    <t>83.7%</t>
+  </si>
+  <si>
+    <t>Tenerife</t>
+  </si>
+  <si>
+    <t>32.8%</t>
+  </si>
+  <si>
+    <t>5.6111</t>
+  </si>
+  <si>
+    <t>27.3%</t>
+  </si>
+  <si>
+    <t>33.1%</t>
+  </si>
+  <si>
+    <t>50.4%</t>
+  </si>
+  <si>
+    <t>50.5%</t>
+  </si>
+  <si>
+    <t>29.0%</t>
+  </si>
+  <si>
+    <t>53.5%</t>
+  </si>
+  <si>
+    <t>72.4%</t>
+  </si>
+  <si>
+    <t>69.7%</t>
+  </si>
+  <si>
+    <t>62.6%</t>
+  </si>
+  <si>
+    <t>48.2%</t>
+  </si>
+  <si>
+    <t>43.5%</t>
+  </si>
+  <si>
+    <t>71.7%</t>
+  </si>
+  <si>
+    <t>64.7%</t>
+  </si>
+  <si>
+    <t>21.1%</t>
+  </si>
+  <si>
+    <t>54.0%</t>
+  </si>
+  <si>
+    <t>45.5%</t>
+  </si>
+  <si>
+    <t>45.4%</t>
+  </si>
+  <si>
+    <t>54.6%</t>
+  </si>
+  <si>
+    <t>45.2%</t>
+  </si>
+  <si>
+    <t>57.3%</t>
+  </si>
+  <si>
+    <t>44.8%</t>
+  </si>
+  <si>
+    <t>70.7%</t>
+  </si>
+  <si>
+    <t>27.4%</t>
+  </si>
+  <si>
+    <t>18.4%</t>
+  </si>
+  <si>
+    <t>81.6%</t>
+  </si>
+  <si>
+    <t>17.5%</t>
+  </si>
+  <si>
+    <t>60.0%</t>
+  </si>
+  <si>
+    <t>16.7%</t>
+  </si>
+  <si>
+    <t>47.1%</t>
+  </si>
+  <si>
+    <t>45.7%</t>
+  </si>
+  <si>
+    <t>85.7%</t>
+  </si>
+  <si>
+    <t>19.3%</t>
+  </si>
+  <si>
+    <t>80.6%</t>
   </si>
 </sst>
 </file>
@@ -2098,7 +2299,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2117,6 +2318,14 @@
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2143,14 +2352,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2466,10 +2676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AS84"/>
+  <dimension ref="A1:AS96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AO104" sqref="AO104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2569,26 +2779,26 @@
       <c r="W1" t="s">
         <v>542</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AI1" s="1" t="s">
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AI1" s="4" t="s">
         <v>544</v>
       </c>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AM1" s="1" t="s">
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AM1" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AQ1" s="1" t="s">
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AQ1" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2678,13 +2888,13 @@
       <c r="AC2" t="s">
         <v>549</v>
       </c>
-      <c r="AE2" s="2">
+      <c r="AE2" s="1">
         <v>1.84</v>
       </c>
-      <c r="AF2" s="2">
+      <c r="AF2" s="1">
         <v>1.07</v>
       </c>
-      <c r="AG2" s="3">
+      <c r="AG2" s="2">
         <v>2.91</v>
       </c>
       <c r="AI2">
@@ -2703,7 +2913,7 @@
       <c r="AN2">
         <v>1.9769062499999954</v>
       </c>
-      <c r="AO2" s="4">
+      <c r="AO2" s="3">
         <f>ROUNDDOWN(SUM(AM2:AN2),0)</f>
         <v>4</v>
       </c>
@@ -2713,7 +2923,7 @@
       <c r="AR2">
         <v>2.8217516949152559</v>
       </c>
-      <c r="AS2" s="4">
+      <c r="AS2" s="3">
         <f>ROUNDDOWN(SUM(AQ2:AR2),0)</f>
         <v>9</v>
       </c>
@@ -2806,13 +3016,13 @@
       <c r="AC3" t="s">
         <v>552</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AE3" s="1">
         <v>1.79</v>
       </c>
-      <c r="AF3" s="2">
+      <c r="AF3" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="AG3" s="3">
+      <c r="AG3" s="2">
         <v>2.34</v>
       </c>
       <c r="AI3">
@@ -2831,7 +3041,7 @@
       <c r="AN3">
         <v>2.0957678571428522</v>
       </c>
-      <c r="AO3" s="4">
+      <c r="AO3" s="3">
         <f t="shared" ref="AO3:AO66" si="1">ROUNDDOWN(SUM(AM3:AN3),0)</f>
         <v>3</v>
       </c>
@@ -2841,7 +3051,7 @@
       <c r="AR3">
         <v>1.8387991525423739</v>
       </c>
-      <c r="AS3" s="4">
+      <c r="AS3" s="3">
         <f t="shared" ref="AS3:AS66" si="2">ROUNDDOWN(SUM(AQ3:AR3),0)</f>
         <v>8</v>
       </c>
@@ -2934,13 +3144,13 @@
       <c r="AC4" t="s">
         <v>555</v>
       </c>
-      <c r="AE4" s="2">
+      <c r="AE4" s="1">
         <v>1.56</v>
       </c>
-      <c r="AF4" s="2">
+      <c r="AF4" s="1">
         <v>0.78</v>
       </c>
-      <c r="AG4" s="3">
+      <c r="AG4" s="2">
         <v>2.34</v>
       </c>
       <c r="AI4">
@@ -2959,7 +3169,7 @@
       <c r="AN4">
         <v>2.0584928571428525</v>
       </c>
-      <c r="AO4" s="4">
+      <c r="AO4" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -2969,7 +3179,7 @@
       <c r="AR4">
         <v>2.4856271186440693</v>
       </c>
-      <c r="AS4" s="4">
+      <c r="AS4" s="3">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
@@ -3062,13 +3272,13 @@
       <c r="AC5" t="s">
         <v>558</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AE5" s="1">
         <v>0.74</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AF5" s="1">
         <v>1.99</v>
       </c>
-      <c r="AG5" s="3">
+      <c r="AG5" s="2">
         <v>2.73</v>
       </c>
       <c r="AI5">
@@ -3087,7 +3297,7 @@
       <c r="AN5">
         <v>0.85199999999999809</v>
       </c>
-      <c r="AO5" s="4">
+      <c r="AO5" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3097,7 +3307,7 @@
       <c r="AR5">
         <v>11.942308474576276</v>
       </c>
-      <c r="AS5" s="4">
+      <c r="AS5" s="3">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
@@ -3190,13 +3400,13 @@
       <c r="AC6" t="s">
         <v>561</v>
       </c>
-      <c r="AE6" s="2">
+      <c r="AE6" s="1">
         <v>1.1200000000000001</v>
       </c>
-      <c r="AF6" s="2">
+      <c r="AF6" s="1">
         <v>0.41</v>
       </c>
-      <c r="AG6" s="3">
+      <c r="AG6" s="2">
         <v>1.53</v>
       </c>
       <c r="AI6">
@@ -3215,7 +3425,7 @@
       <c r="AN6">
         <v>2.4698491071428514</v>
       </c>
-      <c r="AO6" s="4">
+      <c r="AO6" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -3225,7 +3435,7 @@
       <c r="AR6">
         <v>2.6776983050847472</v>
       </c>
-      <c r="AS6" s="4">
+      <c r="AS6" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -3318,13 +3528,13 @@
       <c r="AC7" t="s">
         <v>565</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AE7" s="1">
         <v>2.86</v>
       </c>
-      <c r="AF7" s="2">
+      <c r="AF7" s="1">
         <v>0.46</v>
       </c>
-      <c r="AG7" s="3">
+      <c r="AG7" s="2">
         <v>3.32</v>
       </c>
       <c r="AI7">
@@ -3343,7 +3553,7 @@
       <c r="AN7">
         <v>1.5438696428571395</v>
       </c>
-      <c r="AO7" s="4">
+      <c r="AO7" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3353,7 +3563,7 @@
       <c r="AR7">
         <v>6.3303461864406803</v>
       </c>
-      <c r="AS7" s="4">
+      <c r="AS7" s="3">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -3446,13 +3656,13 @@
       <c r="AC8" t="s">
         <v>567</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="AE8" s="1">
         <v>1.05</v>
       </c>
-      <c r="AF8" s="2">
+      <c r="AF8" s="1">
         <v>0.87</v>
       </c>
-      <c r="AG8" s="3">
+      <c r="AG8" s="2">
         <v>1.92</v>
       </c>
       <c r="AI8">
@@ -3471,7 +3681,7 @@
       <c r="AN8">
         <v>1.0096475770925091</v>
       </c>
-      <c r="AO8" s="4">
+      <c r="AO8" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -3481,7 +3691,7 @@
       <c r="AR8">
         <v>4.04136234309623</v>
       </c>
-      <c r="AS8" s="4">
+      <c r="AS8" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -3574,13 +3784,13 @@
       <c r="AC9" t="s">
         <v>569</v>
       </c>
-      <c r="AE9" s="2">
+      <c r="AE9" s="1">
         <v>1.1299999999999999</v>
       </c>
-      <c r="AF9" s="2">
+      <c r="AF9" s="1">
         <v>0.72</v>
       </c>
-      <c r="AG9" s="3">
+      <c r="AG9" s="2">
         <v>1.8499999999999999</v>
       </c>
       <c r="AI9">
@@ -3599,7 +3809,7 @@
       <c r="AN9">
         <v>1.666960352422904</v>
       </c>
-      <c r="AO9" s="4">
+      <c r="AO9" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -3609,7 +3819,7 @@
       <c r="AR9">
         <v>3.8124811715481135</v>
       </c>
-      <c r="AS9" s="4">
+      <c r="AS9" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -3702,13 +3912,13 @@
       <c r="AC10" t="s">
         <v>571</v>
       </c>
-      <c r="AE10" s="2">
+      <c r="AE10" s="1">
         <v>1.6</v>
       </c>
-      <c r="AF10" s="2">
+      <c r="AF10" s="1">
         <v>0.54</v>
       </c>
-      <c r="AG10" s="3">
+      <c r="AG10" s="2">
         <v>2.14</v>
       </c>
       <c r="AI10">
@@ -3727,7 +3937,7 @@
       <c r="AN10">
         <v>2.4600925110132108</v>
       </c>
-      <c r="AO10" s="4">
+      <c r="AO10" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -3737,7 +3947,7 @@
       <c r="AR10">
         <v>3.4354225941422558</v>
       </c>
-      <c r="AS10" s="4">
+      <c r="AS10" s="3">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -3830,13 +4040,13 @@
       <c r="AC11" t="s">
         <v>575</v>
       </c>
-      <c r="AE11" s="2">
+      <c r="AE11" s="1">
         <v>1.8</v>
       </c>
-      <c r="AF11" s="2">
+      <c r="AF11" s="1">
         <v>0.16</v>
       </c>
-      <c r="AG11" s="3">
+      <c r="AG11" s="2">
         <v>1.96</v>
       </c>
       <c r="AI11">
@@ -3855,7 +4065,7 @@
       <c r="AN11">
         <v>2.501329787234047</v>
       </c>
-      <c r="AO11" s="4">
+      <c r="AO11" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -3865,7 +4075,7 @@
       <c r="AR11">
         <v>3.3540606060606049</v>
       </c>
-      <c r="AS11" s="4">
+      <c r="AS11" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -3958,13 +4168,13 @@
       <c r="AC12" t="s">
         <v>577</v>
       </c>
-      <c r="AE12" s="2">
+      <c r="AE12" s="1">
         <v>1.27</v>
       </c>
-      <c r="AF12" s="2">
+      <c r="AF12" s="1">
         <v>1.01</v>
       </c>
-      <c r="AG12" s="3">
+      <c r="AG12" s="2">
         <v>2.2800000000000002</v>
       </c>
       <c r="AI12">
@@ -3983,7 +4193,7 @@
       <c r="AN12">
         <v>2.4032092369477871</v>
       </c>
-      <c r="AO12" s="4">
+      <c r="AO12" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -3993,7 +4203,7 @@
       <c r="AR12">
         <v>5.5900000000000007</v>
       </c>
-      <c r="AS12" s="4">
+      <c r="AS12" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -4086,13 +4296,13 @@
       <c r="AC13" t="s">
         <v>578</v>
       </c>
-      <c r="AE13" s="2">
+      <c r="AE13" s="1">
         <v>0.7</v>
       </c>
-      <c r="AF13" s="2">
+      <c r="AF13" s="1">
         <v>1.37</v>
       </c>
-      <c r="AG13" s="3">
+      <c r="AG13" s="2">
         <v>2.0700000000000003</v>
       </c>
       <c r="AI13">
@@ -4111,7 +4321,7 @@
       <c r="AN13">
         <v>1.9769062499999956</v>
       </c>
-      <c r="AO13" s="4">
+      <c r="AO13" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -4121,7 +4331,7 @@
       <c r="AR13">
         <v>4.8676864406779687</v>
       </c>
-      <c r="AS13" s="4">
+      <c r="AS13" s="3">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -4214,13 +4424,13 @@
       <c r="AC14" t="s">
         <v>581</v>
       </c>
-      <c r="AE14" s="2">
+      <c r="AE14" s="1">
         <v>1.36</v>
       </c>
-      <c r="AF14" s="2">
+      <c r="AF14" s="1">
         <v>2.59</v>
       </c>
-      <c r="AG14" s="3">
+      <c r="AG14" s="2">
         <v>3.95</v>
       </c>
       <c r="AI14">
@@ -4239,7 +4449,7 @@
       <c r="AN14">
         <v>1.4309035714285683</v>
       </c>
-      <c r="AO14" s="4">
+      <c r="AO14" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -4249,7 +4459,7 @@
       <c r="AR14">
         <v>4.9938508474576295</v>
       </c>
-      <c r="AS14" s="4">
+      <c r="AS14" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -4342,13 +4552,13 @@
       <c r="AC15" t="s">
         <v>552</v>
       </c>
-      <c r="AE15" s="2">
+      <c r="AE15" s="1">
         <v>0.92</v>
       </c>
-      <c r="AF15" s="2">
+      <c r="AF15" s="1">
         <v>1.1200000000000001</v>
       </c>
-      <c r="AG15" s="3">
+      <c r="AG15" s="2">
         <v>2.04</v>
       </c>
       <c r="AI15">
@@ -4367,7 +4577,7 @@
       <c r="AN15">
         <v>1.1714999999999973</v>
       </c>
-      <c r="AO15" s="4">
+      <c r="AO15" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -4377,7 +4587,7 @@
       <c r="AR15">
         <v>5.3553966101694943</v>
       </c>
-      <c r="AS15" s="4">
+      <c r="AS15" s="3">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
@@ -4470,13 +4680,13 @@
       <c r="AC16" t="s">
         <v>554</v>
       </c>
-      <c r="AE16" s="2">
+      <c r="AE16" s="1">
         <v>0.75</v>
       </c>
-      <c r="AF16" s="2">
+      <c r="AF16" s="1">
         <v>1.56</v>
       </c>
-      <c r="AG16" s="3">
+      <c r="AG16" s="2">
         <v>2.31</v>
       </c>
       <c r="AI16">
@@ -4495,7 +4705,7 @@
       <c r="AN16">
         <v>1.1714999999999973</v>
       </c>
-      <c r="AO16" s="4">
+      <c r="AO16" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -4505,7 +4715,7 @@
       <c r="AR16">
         <v>5.6821059322033927</v>
       </c>
-      <c r="AS16" s="4">
+      <c r="AS16" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -4598,13 +4808,13 @@
       <c r="AC17" t="s">
         <v>555</v>
       </c>
-      <c r="AE17" s="2">
+      <c r="AE17" s="1">
         <v>1.06</v>
       </c>
-      <c r="AF17" s="2">
+      <c r="AF17" s="1">
         <v>1.95</v>
       </c>
-      <c r="AG17" s="3">
+      <c r="AG17" s="2">
         <v>3.01</v>
       </c>
       <c r="AI17">
@@ -4623,7 +4833,7 @@
       <c r="AN17">
         <v>2.2815723214285661</v>
       </c>
-      <c r="AO17" s="4">
+      <c r="AO17" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -4633,7 +4843,7 @@
       <c r="AR17">
         <v>3.9873601694915268</v>
       </c>
-      <c r="AS17" s="4">
+      <c r="AS17" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -4726,13 +4936,13 @@
       <c r="AC18" t="s">
         <v>585</v>
       </c>
-      <c r="AE18" s="2">
+      <c r="AE18" s="1">
         <v>0.93</v>
       </c>
-      <c r="AF18" s="2">
+      <c r="AF18" s="1">
         <v>1.33</v>
       </c>
-      <c r="AG18" s="3">
+      <c r="AG18" s="2">
         <v>2.2600000000000002</v>
       </c>
       <c r="AI18">
@@ -4751,7 +4961,7 @@
       <c r="AN18">
         <v>3.4483348017621074</v>
       </c>
-      <c r="AO18" s="4">
+      <c r="AO18" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -4761,7 +4971,7 @@
       <c r="AR18">
         <v>6.8549690376568968</v>
       </c>
-      <c r="AS18" s="4">
+      <c r="AS18" s="3">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -4854,13 +5064,13 @@
       <c r="AC19" t="s">
         <v>586</v>
       </c>
-      <c r="AE19" s="2">
+      <c r="AE19" s="1">
         <v>0.27</v>
       </c>
-      <c r="AF19" s="2">
+      <c r="AF19" s="1">
         <v>0.97</v>
       </c>
-      <c r="AG19" s="3">
+      <c r="AG19" s="2">
         <v>1.24</v>
       </c>
       <c r="AI19">
@@ -4879,7 +5089,7 @@
       <c r="AN19">
         <v>2.2288017621145331</v>
       </c>
-      <c r="AO19" s="4">
+      <c r="AO19" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -4889,7 +5099,7 @@
       <c r="AR19">
         <v>4.297144769874472</v>
       </c>
-      <c r="AS19" s="4">
+      <c r="AS19" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -4982,13 +5192,13 @@
       <c r="AC20" t="s">
         <v>588</v>
       </c>
-      <c r="AE20" s="2">
+      <c r="AE20" s="1">
         <v>1.0900000000000001</v>
       </c>
-      <c r="AF20" s="2">
+      <c r="AF20" s="1">
         <v>0.68</v>
       </c>
-      <c r="AG20" s="3">
+      <c r="AG20" s="2">
         <v>1.77</v>
       </c>
       <c r="AI20">
@@ -5007,7 +5217,7 @@
       <c r="AN20">
         <v>1.7806167400881019</v>
       </c>
-      <c r="AO20" s="4">
+      <c r="AO20" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -5017,7 +5227,7 @@
       <c r="AR20">
         <v>3.3736820083681978</v>
       </c>
-      <c r="AS20" s="4">
+      <c r="AS20" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -5110,13 +5320,13 @@
       <c r="AC21" t="s">
         <v>570</v>
       </c>
-      <c r="AE21" s="2">
+      <c r="AE21" s="1">
         <v>1.89</v>
       </c>
-      <c r="AF21" s="2">
+      <c r="AF21" s="1">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AG21" s="3">
+      <c r="AG21" s="2">
         <v>2.4699999999999998</v>
       </c>
       <c r="AI21">
@@ -5135,7 +5345,7 @@
       <c r="AN21">
         <v>2.9920044052863375</v>
       </c>
-      <c r="AO21" s="4">
+      <c r="AO21" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -5145,7 +5355,7 @@
       <c r="AR21">
         <v>4.7346209205020866</v>
       </c>
-      <c r="AS21" s="4">
+      <c r="AS21" s="3">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
@@ -5238,13 +5448,13 @@
       <c r="AC22" t="s">
         <v>570</v>
       </c>
-      <c r="AE22" s="2">
+      <c r="AE22" s="1">
         <v>1.28</v>
       </c>
-      <c r="AF22" s="2">
+      <c r="AF22" s="1">
         <v>1.73</v>
       </c>
-      <c r="AG22" s="3">
+      <c r="AG22" s="2">
         <v>3.01</v>
       </c>
       <c r="AI22">
@@ -5263,7 +5473,7 @@
       <c r="AN22">
         <v>1.0096475770925091</v>
       </c>
-      <c r="AO22" s="4">
+      <c r="AO22" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -5273,7 +5483,7 @@
       <c r="AR22">
         <v>5.907251046025098</v>
       </c>
-      <c r="AS22" s="4">
+      <c r="AS22" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -5366,13 +5576,13 @@
       <c r="AC23" t="s">
         <v>569</v>
       </c>
-      <c r="AE23" s="2">
+      <c r="AE23" s="1">
         <v>0.81</v>
       </c>
-      <c r="AF23" s="2">
+      <c r="AF23" s="1">
         <v>1.46</v>
       </c>
-      <c r="AG23" s="3">
+      <c r="AG23" s="2">
         <v>2.27</v>
       </c>
       <c r="AI23">
@@ -5391,7 +5601,7 @@
       <c r="AN23">
         <v>0.70277533039647422</v>
       </c>
-      <c r="AO23" s="4">
+      <c r="AO23" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -5401,7 +5611,7 @@
       <c r="AR23">
         <v>5.5954610878661031</v>
       </c>
-      <c r="AS23" s="4">
+      <c r="AS23" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -5494,13 +5704,13 @@
       <c r="AC24" t="s">
         <v>571</v>
       </c>
-      <c r="AE24" s="2">
+      <c r="AE24" s="1">
         <v>2.1800000000000002</v>
       </c>
-      <c r="AF24" s="2">
+      <c r="AF24" s="1">
         <v>0.79</v>
       </c>
-      <c r="AG24" s="3">
+      <c r="AG24" s="2">
         <v>2.97</v>
       </c>
       <c r="AI24">
@@ -5519,7 +5729,7 @@
       <c r="AN24">
         <v>2.0833215859030791</v>
       </c>
-      <c r="AO24" s="4">
+      <c r="AO24" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -5529,7 +5739,7 @@
       <c r="AR24">
         <v>2.1115280334728008</v>
       </c>
-      <c r="AS24" s="4">
+      <c r="AS24" s="3">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -5622,13 +5832,13 @@
       <c r="AC25" t="s">
         <v>590</v>
       </c>
-      <c r="AE25" s="2">
+      <c r="AE25" s="1">
         <v>1.0900000000000001</v>
       </c>
-      <c r="AF25" s="2">
+      <c r="AF25" s="1">
         <v>0.85</v>
       </c>
-      <c r="AG25" s="3">
+      <c r="AG25" s="2">
         <v>1.94</v>
       </c>
       <c r="AI25">
@@ -5647,7 +5857,7 @@
       <c r="AN25">
         <v>1.5980088105726842</v>
       </c>
-      <c r="AO25" s="4">
+      <c r="AO25" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -5657,7 +5867,7 @@
       <c r="AR25">
         <v>3.8124811715481135</v>
       </c>
-      <c r="AS25" s="4">
+      <c r="AS25" s="3">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -5750,13 +5960,13 @@
       <c r="AC26" t="s">
         <v>594</v>
       </c>
-      <c r="AE26" s="2">
+      <c r="AE26" s="1">
         <v>1.02</v>
       </c>
-      <c r="AF26" s="2">
+      <c r="AF26" s="1">
         <v>0.93</v>
       </c>
-      <c r="AG26" s="3">
+      <c r="AG26" s="2">
         <v>1.9500000000000002</v>
       </c>
       <c r="AI26">
@@ -5775,7 +5985,7 @@
       <c r="AN26">
         <v>2.2288017621145331</v>
       </c>
-      <c r="AO26" s="4">
+      <c r="AO26" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -5785,7 +5995,7 @@
       <c r="AR26">
         <v>2.9295907949790769</v>
       </c>
-      <c r="AS26" s="4">
+      <c r="AS26" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -5878,13 +6088,13 @@
       <c r="AC27" t="s">
         <v>596</v>
       </c>
-      <c r="AE27" s="2">
+      <c r="AE27" s="1">
         <v>1.31</v>
       </c>
-      <c r="AF27" s="2">
+      <c r="AF27" s="1">
         <v>1.42</v>
       </c>
-      <c r="AG27" s="3">
+      <c r="AG27" s="2">
         <v>2.73</v>
       </c>
       <c r="AI27">
@@ -5903,7 +6113,7 @@
       <c r="AN27">
         <v>1.8602991735537189</v>
       </c>
-      <c r="AO27" s="4">
+      <c r="AO27" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -5913,7 +6123,7 @@
       <c r="AR27">
         <v>0</v>
       </c>
-      <c r="AS27" s="4">
+      <c r="AS27" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6006,13 +6216,13 @@
       <c r="AC28" t="s">
         <v>599</v>
       </c>
-      <c r="AE28" s="2">
+      <c r="AE28" s="1">
         <v>0.89</v>
       </c>
-      <c r="AF28" s="2">
+      <c r="AF28" s="1">
         <v>0.38</v>
       </c>
-      <c r="AG28" s="3">
+      <c r="AG28" s="2">
         <v>1.27</v>
       </c>
       <c r="AI28">
@@ -6031,7 +6241,7 @@
       <c r="AN28">
         <v>1.029485950413223</v>
       </c>
-      <c r="AO28" s="4">
+      <c r="AO28" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -6041,7 +6251,7 @@
       <c r="AR28">
         <v>0</v>
       </c>
-      <c r="AS28" s="4">
+      <c r="AS28" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6134,13 +6344,13 @@
       <c r="AC29" t="s">
         <v>601</v>
       </c>
-      <c r="AE29" s="2">
+      <c r="AE29" s="1">
         <v>2.5499999999999998</v>
       </c>
-      <c r="AF29" s="2">
+      <c r="AF29" s="1">
         <v>0.54</v>
       </c>
-      <c r="AG29" s="3">
+      <c r="AG29" s="2">
         <v>3.09</v>
       </c>
       <c r="AI29">
@@ -6159,7 +6369,7 @@
       <c r="AN29">
         <v>1.8208595041322315</v>
       </c>
-      <c r="AO29" s="4">
+      <c r="AO29" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -6169,7 +6379,7 @@
       <c r="AR29">
         <v>0</v>
       </c>
-      <c r="AS29" s="4">
+      <c r="AS29" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6262,13 +6472,13 @@
       <c r="AC30" t="s">
         <v>564</v>
       </c>
-      <c r="AE30" s="2">
+      <c r="AE30" s="1">
         <v>0.8</v>
       </c>
-      <c r="AF30" s="2">
+      <c r="AF30" s="1">
         <v>0.82</v>
       </c>
-      <c r="AG30" s="3">
+      <c r="AG30" s="2">
         <v>1.62</v>
       </c>
       <c r="AI30">
@@ -6287,7 +6497,7 @@
       <c r="AN30">
         <v>2.4677438016528925</v>
       </c>
-      <c r="AO30" s="4">
+      <c r="AO30" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -6297,7 +6507,7 @@
       <c r="AR30">
         <v>0</v>
       </c>
-      <c r="AS30" s="4">
+      <c r="AS30" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6390,13 +6600,13 @@
       <c r="AC31" t="s">
         <v>605</v>
       </c>
-      <c r="AE31" s="2">
+      <c r="AE31" s="1">
         <v>1.69</v>
       </c>
-      <c r="AF31" s="2">
+      <c r="AF31" s="1">
         <v>1.42</v>
       </c>
-      <c r="AG31" s="3">
+      <c r="AG31" s="2">
         <v>3.11</v>
       </c>
       <c r="AI31">
@@ -6415,7 +6625,7 @@
       <c r="AN31">
         <v>0.51511157024793386</v>
       </c>
-      <c r="AO31" s="4">
+      <c r="AO31" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -6425,7 +6635,7 @@
       <c r="AR31">
         <v>0</v>
       </c>
-      <c r="AS31" s="4">
+      <c r="AS31" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6518,13 +6728,13 @@
       <c r="AC32" t="s">
         <v>560</v>
       </c>
-      <c r="AE32" s="2">
+      <c r="AE32" s="1">
         <v>0.83</v>
       </c>
-      <c r="AF32" s="2">
+      <c r="AF32" s="1">
         <v>1.85</v>
       </c>
-      <c r="AG32" s="3">
+      <c r="AG32" s="2">
         <v>2.68</v>
       </c>
       <c r="AI32">
@@ -6543,7 +6753,7 @@
       <c r="AN32">
         <v>2.4592661157024791</v>
       </c>
-      <c r="AO32" s="4">
+      <c r="AO32" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -6553,7 +6763,7 @@
       <c r="AR32">
         <v>0</v>
       </c>
-      <c r="AS32" s="4">
+      <c r="AS32" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6646,13 +6856,13 @@
       <c r="AC33" t="s">
         <v>595</v>
       </c>
-      <c r="AE33" s="2">
+      <c r="AE33" s="1">
         <v>1.76</v>
       </c>
-      <c r="AF33" s="2">
+      <c r="AF33" s="1">
         <v>1.26</v>
       </c>
-      <c r="AG33" s="3">
+      <c r="AG33" s="2">
         <v>3.02</v>
       </c>
       <c r="AI33">
@@ -6671,7 +6881,7 @@
       <c r="AN33">
         <v>2.4307000000000003</v>
       </c>
-      <c r="AO33" s="4">
+      <c r="AO33" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -6681,7 +6891,7 @@
       <c r="AR33">
         <v>0</v>
       </c>
-      <c r="AS33" s="4">
+      <c r="AS33" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6774,13 +6984,13 @@
       <c r="AC34" t="s">
         <v>569</v>
       </c>
-      <c r="AE34" s="2">
+      <c r="AE34" s="1">
         <v>1.3</v>
       </c>
-      <c r="AF34" s="2">
+      <c r="AF34" s="1">
         <v>4.8</v>
       </c>
-      <c r="AG34" s="3">
+      <c r="AG34" s="2">
         <v>6.1</v>
       </c>
       <c r="AI34">
@@ -6799,7 +7009,7 @@
       <c r="AN34">
         <v>1.2823421487603304</v>
       </c>
-      <c r="AO34" s="4">
+      <c r="AO34" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -6809,7 +7019,7 @@
       <c r="AR34">
         <v>0</v>
       </c>
-      <c r="AS34" s="4">
+      <c r="AS34" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6902,13 +7112,13 @@
       <c r="AC35" t="s">
         <v>585</v>
       </c>
-      <c r="AE35" s="2">
+      <c r="AE35" s="1">
         <v>1.5</v>
       </c>
-      <c r="AF35" s="2">
+      <c r="AF35" s="1">
         <v>0.28999999999999998</v>
       </c>
-      <c r="AG35" s="3">
+      <c r="AG35" s="2">
         <v>1.79</v>
       </c>
       <c r="AI35">
@@ -6927,7 +7137,7 @@
       <c r="AN35">
         <v>1.7648330578512392</v>
       </c>
-      <c r="AO35" s="4">
+      <c r="AO35" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -6937,7 +7147,7 @@
       <c r="AR35">
         <v>0</v>
       </c>
-      <c r="AS35" s="4">
+      <c r="AS35" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7030,13 +7240,13 @@
       <c r="AC36" t="s">
         <v>611</v>
       </c>
-      <c r="AE36" s="2">
+      <c r="AE36" s="1">
         <v>2.0299999999999998</v>
       </c>
-      <c r="AF36" s="2">
+      <c r="AF36" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="AG36" s="3">
+      <c r="AG36" s="2">
         <v>2.5999999999999996</v>
       </c>
       <c r="AI36">
@@ -7055,7 +7265,7 @@
       <c r="AN36">
         <v>1.4262785123966941</v>
       </c>
-      <c r="AO36" s="4">
+      <c r="AO36" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -7065,7 +7275,7 @@
       <c r="AR36">
         <v>0</v>
       </c>
-      <c r="AS36" s="4">
+      <c r="AS36" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7158,13 +7368,13 @@
       <c r="AC37" t="s">
         <v>569</v>
       </c>
-      <c r="AE37" s="2">
+      <c r="AE37" s="1">
         <v>3.45</v>
       </c>
-      <c r="AF37" s="2">
+      <c r="AF37" s="1">
         <v>1.02</v>
       </c>
-      <c r="AG37" s="3">
+      <c r="AG37" s="2">
         <v>4.4700000000000006</v>
       </c>
       <c r="AI37">
@@ -7183,7 +7393,7 @@
       <c r="AN37">
         <v>1.1739752066115701</v>
       </c>
-      <c r="AO37" s="4">
+      <c r="AO37" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -7193,7 +7403,7 @@
       <c r="AR37">
         <v>0</v>
       </c>
-      <c r="AS37" s="4">
+      <c r="AS37" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7286,13 +7496,13 @@
       <c r="AC38" t="s">
         <v>615</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AE38" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AF38" s="2">
+      <c r="AF38" s="1">
         <v>1.42</v>
       </c>
-      <c r="AG38" s="3">
+      <c r="AG38" s="2">
         <v>1.98</v>
       </c>
       <c r="AI38">
@@ -7311,7 +7521,7 @@
       <c r="AN38">
         <v>1.3656446280991734</v>
       </c>
-      <c r="AO38" s="4">
+      <c r="AO38" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -7321,7 +7531,7 @@
       <c r="AR38">
         <v>0</v>
       </c>
-      <c r="AS38" s="4">
+      <c r="AS38" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -7414,13 +7624,13 @@
       <c r="AC39" t="s">
         <v>617</v>
       </c>
-      <c r="AE39" s="2">
+      <c r="AE39" s="1">
         <v>0.98</v>
       </c>
-      <c r="AF39" s="2">
+      <c r="AF39" s="1">
         <v>2.82</v>
       </c>
-      <c r="AG39" s="3">
+      <c r="AG39" s="2">
         <v>3.8</v>
       </c>
       <c r="AI39">
@@ -7439,7 +7649,7 @@
       <c r="AN39">
         <v>2.5624400000000001</v>
       </c>
-      <c r="AO39" s="4">
+      <c r="AO39" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -7449,7 +7659,7 @@
       <c r="AR39">
         <v>7.5409400000000009</v>
       </c>
-      <c r="AS39" s="4">
+      <c r="AS39" s="3">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
@@ -7542,13 +7752,13 @@
       <c r="AC40" t="s">
         <v>619</v>
       </c>
-      <c r="AE40" s="2">
+      <c r="AE40" s="1">
         <v>0.84</v>
       </c>
-      <c r="AF40" s="2">
+      <c r="AF40" s="1">
         <v>1.1499999999999999</v>
       </c>
-      <c r="AG40" s="3">
+      <c r="AG40" s="2">
         <v>1.9899999999999998</v>
       </c>
       <c r="AI40">
@@ -7567,7 +7777,7 @@
       <c r="AN40">
         <v>1.9702599999999999</v>
       </c>
-      <c r="AO40" s="4">
+      <c r="AO40" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -7577,7 +7787,7 @@
       <c r="AR40">
         <v>5.2096499999999999</v>
       </c>
-      <c r="AS40" s="4">
+      <c r="AS40" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -7670,13 +7880,13 @@
       <c r="AC41" t="s">
         <v>620</v>
       </c>
-      <c r="AE41" s="2">
+      <c r="AE41" s="1">
         <v>0.41</v>
       </c>
-      <c r="AF41" s="2">
+      <c r="AF41" s="1">
         <v>1</v>
       </c>
-      <c r="AG41" s="3">
+      <c r="AG41" s="2">
         <v>1.41</v>
       </c>
       <c r="AI41">
@@ -7695,7 +7905,7 @@
       <c r="AN41">
         <v>2.7864</v>
       </c>
-      <c r="AO41" s="4">
+      <c r="AO41" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -7705,7 +7915,7 @@
       <c r="AR41">
         <v>4.587776470588234</v>
       </c>
-      <c r="AS41" s="4">
+      <c r="AS41" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -7798,13 +8008,13 @@
       <c r="AC42" t="s">
         <v>621</v>
       </c>
-      <c r="AE42" s="2">
+      <c r="AE42" s="1">
         <v>1.44</v>
       </c>
-      <c r="AF42" s="2">
+      <c r="AF42" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AG42" s="3">
+      <c r="AG42" s="2">
         <v>2</v>
       </c>
       <c r="AI42">
@@ -7823,7 +8033,7 @@
       <c r="AN42">
         <v>1.1988000000000001</v>
       </c>
-      <c r="AO42" s="4">
+      <c r="AO42" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -7833,7 +8043,7 @@
       <c r="AR42">
         <v>5.9262564705882319</v>
       </c>
-      <c r="AS42" s="4">
+      <c r="AS42" s="3">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
@@ -7926,13 +8136,13 @@
       <c r="AC43" t="s">
         <v>622</v>
       </c>
-      <c r="AE43" s="2">
+      <c r="AE43" s="1">
         <v>1.95</v>
       </c>
-      <c r="AF43" s="2">
+      <c r="AF43" s="1">
         <v>1.19</v>
       </c>
-      <c r="AG43" s="3">
+      <c r="AG43" s="2">
         <v>3.1399999999999997</v>
       </c>
       <c r="AI43">
@@ -7951,7 +8161,7 @@
       <c r="AN43">
         <v>1.393605</v>
       </c>
-      <c r="AO43" s="4">
+      <c r="AO43" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -7961,7 +8171,7 @@
       <c r="AR43">
         <v>6.0216458823529386</v>
       </c>
-      <c r="AS43" s="4">
+      <c r="AS43" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -8054,13 +8264,13 @@
       <c r="AC44" t="s">
         <v>624</v>
       </c>
-      <c r="AE44" s="2">
+      <c r="AE44" s="1">
         <v>1.03</v>
       </c>
-      <c r="AF44" s="2">
+      <c r="AF44" s="1">
         <v>1.0900000000000001</v>
       </c>
-      <c r="AG44" s="3">
+      <c r="AG44" s="2">
         <v>2.12</v>
       </c>
       <c r="AI44">
@@ -8079,7 +8289,7 @@
       <c r="AN44">
         <v>1.4976899999999997</v>
       </c>
-      <c r="AO44" s="4">
+      <c r="AO44" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -8089,7 +8299,7 @@
       <c r="AR44">
         <v>4.3838752941176455</v>
       </c>
-      <c r="AS44" s="4">
+      <c r="AS44" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -8182,13 +8392,13 @@
       <c r="AC45" t="s">
         <v>626</v>
       </c>
-      <c r="AE45" s="2">
+      <c r="AE45" s="1">
         <v>1.97</v>
       </c>
-      <c r="AF45" s="2">
+      <c r="AF45" s="1">
         <v>1.04</v>
       </c>
-      <c r="AG45" s="3">
+      <c r="AG45" s="2">
         <v>3.01</v>
       </c>
       <c r="AI45">
@@ -8207,7 +8417,7 @@
       <c r="AN45">
         <v>1.52847</v>
       </c>
-      <c r="AO45" s="4">
+      <c r="AO45" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -8217,7 +8427,7 @@
       <c r="AR45">
         <v>5.9933823529411736</v>
       </c>
-      <c r="AS45" s="4">
+      <c r="AS45" s="3">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -8310,13 +8520,13 @@
       <c r="AC46" t="s">
         <v>595</v>
       </c>
-      <c r="AE46" s="2">
+      <c r="AE46" s="1">
         <v>1.23</v>
       </c>
-      <c r="AF46" s="2">
+      <c r="AF46" s="1">
         <v>3.15</v>
       </c>
-      <c r="AG46" s="3">
+      <c r="AG46" s="2">
         <v>4.38</v>
       </c>
       <c r="AI46">
@@ -8335,7 +8545,7 @@
       <c r="AN46">
         <v>2.8556999999999992</v>
       </c>
-      <c r="AO46" s="4">
+      <c r="AO46" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -8345,7 +8555,7 @@
       <c r="AR46">
         <v>3.5571611764705913</v>
       </c>
-      <c r="AS46" s="4">
+      <c r="AS46" s="3">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -8438,13 +8648,13 @@
       <c r="AC47" t="s">
         <v>606</v>
       </c>
-      <c r="AE47" s="2">
+      <c r="AE47" s="1">
         <v>1.44</v>
       </c>
-      <c r="AF47" s="2">
+      <c r="AF47" s="1">
         <v>1.1299999999999999</v>
       </c>
-      <c r="AG47" s="3">
+      <c r="AG47" s="2">
         <v>2.57</v>
       </c>
       <c r="AI47">
@@ -8463,7 +8673,7 @@
       <c r="AN47">
         <v>2.9759400000000005</v>
       </c>
-      <c r="AO47" s="4">
+      <c r="AO47" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -8473,7 +8683,7 @@
       <c r="AR47">
         <v>5.8222705882352983</v>
       </c>
-      <c r="AS47" s="4">
+      <c r="AS47" s="3">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -8566,13 +8776,13 @@
       <c r="AC48" t="s">
         <v>623</v>
       </c>
-      <c r="AE48" s="2">
+      <c r="AE48" s="1">
         <v>1.68</v>
       </c>
-      <c r="AF48" s="2">
+      <c r="AF48" s="1">
         <v>0.65</v>
       </c>
-      <c r="AG48" s="3">
+      <c r="AG48" s="2">
         <v>2.33</v>
       </c>
       <c r="AI48">
@@ -8591,7 +8801,7 @@
       <c r="AN48">
         <v>0.67635000000000001</v>
       </c>
-      <c r="AO48" s="4">
+      <c r="AO48" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -8601,7 +8811,7 @@
       <c r="AR48">
         <v>4.5965294117647097</v>
       </c>
-      <c r="AS48" s="4">
+      <c r="AS48" s="3">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
@@ -8694,13 +8904,13 @@
       <c r="AC49" t="s">
         <v>632</v>
       </c>
-      <c r="AE49" s="2">
+      <c r="AE49" s="1">
         <v>1.49</v>
       </c>
-      <c r="AF49" s="2">
+      <c r="AF49" s="1">
         <v>0.49</v>
       </c>
-      <c r="AG49" s="3">
+      <c r="AG49" s="2">
         <v>1.98</v>
       </c>
       <c r="AI49">
@@ -8719,7 +8929,7 @@
       <c r="AN49">
         <v>2.16432</v>
       </c>
-      <c r="AO49" s="4">
+      <c r="AO49" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -8729,7 +8939,7 @@
       <c r="AR49">
         <v>2.5057364705882375</v>
       </c>
-      <c r="AS49" s="4">
+      <c r="AS49" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -8822,13 +9032,13 @@
       <c r="AC50" t="s">
         <v>624</v>
       </c>
-      <c r="AE50" s="2">
+      <c r="AE50" s="1">
         <v>2.09</v>
       </c>
-      <c r="AF50" s="2">
+      <c r="AF50" s="1">
         <v>0.83</v>
       </c>
-      <c r="AG50" s="3">
+      <c r="AG50" s="2">
         <v>2.92</v>
       </c>
       <c r="AI50">
@@ -8847,7 +9057,7 @@
       <c r="AN50">
         <v>1.3677299999999999</v>
       </c>
-      <c r="AO50" s="4">
+      <c r="AO50" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -8857,7 +9067,7 @@
       <c r="AR50">
         <v>6.0131647058823576</v>
       </c>
-      <c r="AS50" s="4">
+      <c r="AS50" s="3">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -8950,13 +9160,13 @@
       <c r="AC51" t="s">
         <v>637</v>
       </c>
-      <c r="AE51" s="2">
+      <c r="AE51" s="1">
         <v>1.23</v>
       </c>
-      <c r="AF51" s="2">
+      <c r="AF51" s="1">
         <v>2.0099999999999998</v>
       </c>
-      <c r="AG51" s="3">
+      <c r="AG51" s="2">
         <v>3.2399999999999998</v>
       </c>
       <c r="AI51">
@@ -8975,7 +9185,7 @@
       <c r="AN51">
         <v>1.531789473684213</v>
       </c>
-      <c r="AO51" s="4">
+      <c r="AO51" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -8985,7 +9195,7 @@
       <c r="AR51">
         <v>3.1602567901234604</v>
       </c>
-      <c r="AS51" s="4">
+      <c r="AS51" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -9078,13 +9288,13 @@
       <c r="AC52" t="s">
         <v>639</v>
       </c>
-      <c r="AE52" s="2">
+      <c r="AE52" s="1">
         <v>1.26</v>
       </c>
-      <c r="AF52" s="2">
+      <c r="AF52" s="1">
         <v>1.52</v>
       </c>
-      <c r="AG52" s="3">
+      <c r="AG52" s="2">
         <v>2.7800000000000002</v>
       </c>
       <c r="AI52">
@@ -9103,7 +9313,7 @@
       <c r="AN52">
         <v>2.3783157894736875</v>
       </c>
-      <c r="AO52" s="4">
+      <c r="AO52" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -9113,7 +9323,7 @@
       <c r="AR52">
         <v>5.5360197530864257</v>
       </c>
-      <c r="AS52" s="4">
+      <c r="AS52" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -9206,13 +9416,13 @@
       <c r="AC53" t="s">
         <v>636</v>
       </c>
-      <c r="AE53" s="2">
+      <c r="AE53" s="1">
         <v>1.97</v>
       </c>
-      <c r="AF53" s="2">
+      <c r="AF53" s="1">
         <v>1.95</v>
       </c>
-      <c r="AG53" s="3">
+      <c r="AG53" s="2">
         <v>3.92</v>
       </c>
       <c r="AI53">
@@ -9231,7 +9441,7 @@
       <c r="AN53">
         <v>1.7393684210526343</v>
       </c>
-      <c r="AO53" s="4">
+      <c r="AO53" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -9241,7 +9451,7 @@
       <c r="AR53">
         <v>5.3132049382716096</v>
       </c>
-      <c r="AS53" s="4">
+      <c r="AS53" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -9334,13 +9544,13 @@
       <c r="AC54" t="s">
         <v>642</v>
       </c>
-      <c r="AE54" s="2">
+      <c r="AE54" s="1">
         <v>0.81</v>
       </c>
-      <c r="AF54" s="2">
+      <c r="AF54" s="1">
         <v>1.52</v>
       </c>
-      <c r="AG54" s="3">
+      <c r="AG54" s="2">
         <v>2.33</v>
       </c>
       <c r="AI54">
@@ -9359,7 +9569,7 @@
       <c r="AN54">
         <v>1.3957894736842127</v>
       </c>
-      <c r="AO54" s="4">
+      <c r="AO54" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -9369,7 +9579,7 @@
       <c r="AR54">
         <v>5.1052444444444491</v>
       </c>
-      <c r="AS54" s="4">
+      <c r="AS54" s="3">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
@@ -9462,13 +9672,13 @@
       <c r="AC55" t="s">
         <v>644</v>
       </c>
-      <c r="AE55" s="2">
+      <c r="AE55" s="1">
         <v>1.36</v>
       </c>
-      <c r="AF55" s="2">
+      <c r="AF55" s="1">
         <v>1.65</v>
       </c>
-      <c r="AG55" s="3">
+      <c r="AG55" s="2">
         <v>3.01</v>
       </c>
       <c r="AI55">
@@ -9487,7 +9697,7 @@
       <c r="AN55">
         <v>1.5800000000000021</v>
       </c>
-      <c r="AO55" s="4">
+      <c r="AO55" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -9497,7 +9707,7 @@
       <c r="AR55">
         <v>4.4117333333333386</v>
       </c>
-      <c r="AS55" s="4">
+      <c r="AS55" s="3">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -9590,13 +9800,13 @@
       <c r="AC56" t="s">
         <v>647</v>
       </c>
-      <c r="AE56" s="2">
+      <c r="AE56" s="1">
         <v>0.95</v>
       </c>
-      <c r="AF56" s="2">
+      <c r="AF56" s="1">
         <v>0.42</v>
       </c>
-      <c r="AG56" s="3">
+      <c r="AG56" s="2">
         <v>1.3699999999999999</v>
       </c>
       <c r="AI56">
@@ -9615,7 +9825,7 @@
       <c r="AN56">
         <v>3.3681063829787297</v>
       </c>
-      <c r="AO56" s="4">
+      <c r="AO56" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -9625,7 +9835,7 @@
       <c r="AR56">
         <v>3.9481131313131308</v>
       </c>
-      <c r="AS56" s="4">
+      <c r="AS56" s="3">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -9718,13 +9928,13 @@
       <c r="AC57" t="s">
         <v>647</v>
       </c>
-      <c r="AE57" s="2">
+      <c r="AE57" s="1">
         <v>1.69</v>
       </c>
-      <c r="AF57" s="2">
+      <c r="AF57" s="1">
         <v>1.97</v>
       </c>
-      <c r="AG57" s="3">
+      <c r="AG57" s="2">
         <v>3.66</v>
       </c>
       <c r="AI57">
@@ -9743,7 +9953,7 @@
       <c r="AN57">
         <v>2.5542526595744732</v>
       </c>
-      <c r="AO57" s="4">
+      <c r="AO57" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -9753,7 +9963,7 @@
       <c r="AR57">
         <v>3.5814191919191907</v>
       </c>
-      <c r="AS57" s="4">
+      <c r="AS57" s="3">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
@@ -9846,13 +10056,13 @@
       <c r="AC58" t="s">
         <v>651</v>
       </c>
-      <c r="AE58" s="2">
+      <c r="AE58" s="1">
         <v>1.19</v>
       </c>
-      <c r="AF58" s="2">
+      <c r="AF58" s="1">
         <v>1.99</v>
       </c>
-      <c r="AG58" s="3">
+      <c r="AG58" s="2">
         <v>3.1799999999999997</v>
       </c>
       <c r="AI58">
@@ -9871,7 +10081,7 @@
       <c r="AN58">
         <v>2.2380319148936212</v>
       </c>
-      <c r="AO58" s="4">
+      <c r="AO58" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -9881,7 +10091,7 @@
       <c r="AR58">
         <v>6.464492929292927</v>
       </c>
-      <c r="AS58" s="4">
+      <c r="AS58" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -9974,13 +10184,13 @@
       <c r="AC59" t="s">
         <v>654</v>
       </c>
-      <c r="AE59" s="2">
+      <c r="AE59" s="1">
         <v>1.67</v>
       </c>
-      <c r="AF59" s="2">
+      <c r="AF59" s="1">
         <v>0.84</v>
       </c>
-      <c r="AG59" s="3">
+      <c r="AG59" s="2">
         <v>2.5099999999999998</v>
       </c>
       <c r="AI59">
@@ -9999,7 +10209,7 @@
       <c r="AN59">
         <v>3.6335106382978788</v>
       </c>
-      <c r="AO59" s="4">
+      <c r="AO59" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -10009,7 +10219,7 @@
       <c r="AR59">
         <v>5.9567949494949488</v>
       </c>
-      <c r="AS59" s="4">
+      <c r="AS59" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -10102,13 +10312,13 @@
       <c r="AC60" t="s">
         <v>655</v>
       </c>
-      <c r="AE60" s="2">
+      <c r="AE60" s="1">
         <v>1.4</v>
       </c>
-      <c r="AF60" s="2">
+      <c r="AF60" s="1">
         <v>1.51</v>
       </c>
-      <c r="AG60" s="3">
+      <c r="AG60" s="2">
         <v>2.91</v>
       </c>
       <c r="AI60">
@@ -10127,7 +10337,7 @@
       <c r="AN60">
         <v>0.95849999999999769</v>
       </c>
-      <c r="AO60" s="4">
+      <c r="AO60" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -10137,7 +10347,7 @@
       <c r="AR60">
         <v>6.0111690677966116</v>
       </c>
-      <c r="AS60" s="4">
+      <c r="AS60" s="3">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
@@ -10230,13 +10440,13 @@
       <c r="AC61" t="s">
         <v>658</v>
       </c>
-      <c r="AE61" s="2">
+      <c r="AE61" s="1">
         <v>1.65</v>
       </c>
-      <c r="AF61" s="2">
+      <c r="AF61" s="1">
         <v>1.03</v>
       </c>
-      <c r="AG61" s="3">
+      <c r="AG61" s="2">
         <v>2.6799999999999997</v>
       </c>
       <c r="AI61">
@@ -10255,7 +10465,7 @@
       <c r="AN61">
         <v>3.1006800000000001</v>
       </c>
-      <c r="AO61" s="4">
+      <c r="AO61" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -10265,7 +10475,7 @@
       <c r="AR61">
         <v>3.0072959999999993</v>
       </c>
-      <c r="AS61" s="4">
+      <c r="AS61" s="3">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
@@ -10358,13 +10568,13 @@
       <c r="AC62" t="s">
         <v>660</v>
       </c>
-      <c r="AE62" s="2">
+      <c r="AE62" s="1">
         <v>1.72</v>
       </c>
-      <c r="AF62" s="2">
+      <c r="AF62" s="1">
         <v>0.96</v>
       </c>
-      <c r="AG62" s="3">
+      <c r="AG62" s="2">
         <v>2.6799999999999997</v>
       </c>
       <c r="AI62">
@@ -10383,7 +10593,7 @@
       <c r="AN62">
         <v>4.0460799999999999</v>
       </c>
-      <c r="AO62" s="4">
+      <c r="AO62" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -10393,7 +10603,7 @@
       <c r="AR62">
         <v>3.4994319999999997</v>
       </c>
-      <c r="AS62" s="4">
+      <c r="AS62" s="3">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
@@ -10486,13 +10696,13 @@
       <c r="AC63" t="s">
         <v>663</v>
       </c>
-      <c r="AE63" s="2">
+      <c r="AE63" s="1">
         <v>2.3199999999999998</v>
       </c>
-      <c r="AF63" s="2">
+      <c r="AF63" s="1">
         <v>2.31</v>
       </c>
-      <c r="AG63" s="3">
+      <c r="AG63" s="2">
         <v>4.63</v>
       </c>
       <c r="AI63">
@@ -10511,7 +10721,7 @@
       <c r="AN63">
         <v>2.9571300000000003</v>
       </c>
-      <c r="AO63" s="4">
+      <c r="AO63" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -10521,7 +10731,7 @@
       <c r="AR63">
         <v>3.5947720000000003</v>
       </c>
-      <c r="AS63" s="4">
+      <c r="AS63" s="3">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
@@ -10614,13 +10824,13 @@
       <c r="AC64" t="s">
         <v>619</v>
       </c>
-      <c r="AE64" s="2">
+      <c r="AE64" s="1">
         <v>1.05</v>
       </c>
-      <c r="AF64" s="2">
+      <c r="AF64" s="1">
         <v>0.51</v>
       </c>
-      <c r="AG64" s="3">
+      <c r="AG64" s="2">
         <v>1.56</v>
       </c>
       <c r="AI64">
@@ -10639,7 +10849,7 @@
       <c r="AN64">
         <v>2.3176800000000002</v>
       </c>
-      <c r="AO64" s="4">
+      <c r="AO64" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -10649,7 +10859,7 @@
       <c r="AR64">
         <v>6.3423800000000012</v>
       </c>
-      <c r="AS64" s="4">
+      <c r="AS64" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -10742,13 +10952,13 @@
       <c r="AC65" t="s">
         <v>660</v>
       </c>
-      <c r="AE65" s="2">
+      <c r="AE65" s="1">
         <v>1.75</v>
       </c>
-      <c r="AF65" s="2">
+      <c r="AF65" s="1">
         <v>0.96</v>
       </c>
-      <c r="AG65" s="3">
+      <c r="AG65" s="2">
         <v>2.71</v>
       </c>
       <c r="AI65">
@@ -10767,7 +10977,7 @@
       <c r="AN65">
         <v>2.81358</v>
       </c>
-      <c r="AO65" s="4">
+      <c r="AO65" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -10777,7 +10987,7 @@
       <c r="AR65">
         <v>5.2137359999999999</v>
       </c>
-      <c r="AS65" s="4">
+      <c r="AS65" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -10870,13 +11080,13 @@
       <c r="AC66" t="s">
         <v>666</v>
       </c>
-      <c r="AE66" s="2">
+      <c r="AE66" s="1">
         <v>0.95</v>
       </c>
-      <c r="AF66" s="2">
+      <c r="AF66" s="1">
         <v>0.53</v>
       </c>
-      <c r="AG66" s="3">
+      <c r="AG66" s="2">
         <v>1.48</v>
       </c>
       <c r="AI66">
@@ -10895,7 +11105,7 @@
       <c r="AN66">
         <v>5.2826399999999998</v>
       </c>
-      <c r="AO66" s="4">
+      <c r="AO66" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -10905,7 +11115,7 @@
       <c r="AR66">
         <v>1.7070399999999999</v>
       </c>
-      <c r="AS66" s="4">
+      <c r="AS66" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
@@ -10998,13 +11208,13 @@
       <c r="AC67" t="s">
         <v>668</v>
       </c>
-      <c r="AE67" s="2">
+      <c r="AE67" s="1">
         <v>1.05</v>
       </c>
-      <c r="AF67" s="2">
+      <c r="AF67" s="1">
         <v>1.48</v>
       </c>
-      <c r="AG67" s="3">
+      <c r="AG67" s="2">
         <v>2.5300000000000002</v>
       </c>
       <c r="AI67">
@@ -11023,7 +11233,7 @@
       <c r="AN67">
         <v>4.0089600000000001</v>
       </c>
-      <c r="AO67" s="4">
+      <c r="AO67" s="3">
         <f t="shared" ref="AO67:AO73" si="4">ROUNDDOWN(SUM(AM67:AN67),0)</f>
         <v>6</v>
       </c>
@@ -11033,7 +11243,7 @@
       <c r="AR67">
         <v>7.69076</v>
       </c>
-      <c r="AS67" s="4">
+      <c r="AS67" s="3">
         <f t="shared" ref="AS67:AS73" si="5">ROUNDDOWN(SUM(AQ67:AR67),0)</f>
         <v>9</v>
       </c>
@@ -11126,13 +11336,13 @@
       <c r="AC68" t="s">
         <v>671</v>
       </c>
-      <c r="AE68" s="2">
+      <c r="AE68" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="AF68" s="2">
+      <c r="AF68" s="1">
         <v>0.96</v>
       </c>
-      <c r="AG68" s="3">
+      <c r="AG68" s="2">
         <v>2.12</v>
       </c>
       <c r="AI68">
@@ -11151,7 +11361,7 @@
       <c r="AN68">
         <v>2.8182199999999993</v>
       </c>
-      <c r="AO68" s="4">
+      <c r="AO68" s="3">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
@@ -11161,7 +11371,7 @@
       <c r="AR68">
         <v>2.8638319999999999</v>
       </c>
-      <c r="AS68" s="4">
+      <c r="AS68" s="3">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
@@ -11254,13 +11464,13 @@
       <c r="AC69" t="s">
         <v>674</v>
       </c>
-      <c r="AE69" s="2">
+      <c r="AE69" s="1">
         <v>1.38</v>
       </c>
-      <c r="AF69" s="2">
+      <c r="AF69" s="1">
         <v>0.72</v>
       </c>
-      <c r="AG69" s="3">
+      <c r="AG69" s="2">
         <v>2.0999999999999996</v>
       </c>
       <c r="AI69">
@@ -11279,7 +11489,7 @@
       <c r="AN69">
         <v>1.9010106382978758</v>
       </c>
-      <c r="AO69" s="4">
+      <c r="AO69" s="3">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
@@ -11289,7 +11499,7 @@
       <c r="AR69">
         <v>3.4541818181818167</v>
       </c>
-      <c r="AS69" s="4">
+      <c r="AS69" s="3">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
@@ -11382,13 +11592,13 @@
       <c r="AC70" t="s">
         <v>677</v>
       </c>
-      <c r="AE70" s="2">
+      <c r="AE70" s="1">
         <v>0.67</v>
       </c>
-      <c r="AF70" s="2">
+      <c r="AF70" s="1">
         <v>1.0900000000000001</v>
       </c>
-      <c r="AG70" s="3">
+      <c r="AG70" s="2">
         <v>1.7600000000000002</v>
       </c>
       <c r="AI70">
@@ -11407,7 +11617,7 @@
       <c r="AN70">
         <v>3.2701595744680909</v>
       </c>
-      <c r="AO70" s="4">
+      <c r="AO70" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -11417,7 +11627,7 @@
       <c r="AR70">
         <v>3.2038787878787871</v>
       </c>
-      <c r="AS70" s="4">
+      <c r="AS70" s="3">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
@@ -11510,13 +11720,13 @@
       <c r="AC71" t="s">
         <v>678</v>
       </c>
-      <c r="AE71" s="2">
+      <c r="AE71" s="1">
         <v>1.1599999999999999</v>
       </c>
-      <c r="AF71" s="2">
+      <c r="AF71" s="1">
         <v>0.24</v>
       </c>
-      <c r="AG71" s="3">
+      <c r="AG71" s="2">
         <v>1.4</v>
       </c>
       <c r="AI71">
@@ -11535,7 +11745,7 @@
       <c r="AN71">
         <v>1.919441489361706</v>
       </c>
-      <c r="AO71" s="4">
+      <c r="AO71" s="3">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -11545,7 +11755,7 @@
       <c r="AR71">
         <v>2.6769909090909079</v>
       </c>
-      <c r="AS71" s="4">
+      <c r="AS71" s="3">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
@@ -11638,13 +11848,13 @@
       <c r="AC72" t="s">
         <v>681</v>
       </c>
-      <c r="AE72" s="2">
+      <c r="AE72" s="1">
         <v>1.29</v>
       </c>
-      <c r="AF72" s="2">
+      <c r="AF72" s="1">
         <v>0.54</v>
       </c>
-      <c r="AG72" s="3">
+      <c r="AG72" s="2">
         <v>1.83</v>
       </c>
       <c r="AI72">
@@ -11663,7 +11873,7 @@
       <c r="AN72">
         <v>3.116656914893623</v>
       </c>
-      <c r="AO72" s="4">
+      <c r="AO72" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -11673,7 +11883,7 @@
       <c r="AR72">
         <v>3.0837333333333321</v>
       </c>
-      <c r="AS72" s="4">
+      <c r="AS72" s="3">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
@@ -11766,13 +11976,13 @@
       <c r="AC73" t="s">
         <v>685</v>
       </c>
-      <c r="AE73" s="2">
+      <c r="AE73" s="1">
         <v>0.21</v>
       </c>
-      <c r="AF73" s="2">
+      <c r="AF73" s="1">
         <v>0.8</v>
       </c>
-      <c r="AG73" s="3">
+      <c r="AG73" s="2">
         <v>1.01</v>
       </c>
       <c r="AI73">
@@ -11791,7 +12001,7 @@
       <c r="AN73">
         <v>1.1406063829787254</v>
       </c>
-      <c r="AO73" s="4">
+      <c r="AO73" s="3">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
@@ -11801,14 +12011,2976 @@
       <c r="AR73">
         <v>2.1259070707070702</v>
       </c>
-      <c r="AS73" s="4">
+      <c r="AS73" s="3">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="35:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>37</v>
+      </c>
+      <c r="B74" t="s">
+        <v>320</v>
+      </c>
+      <c r="C74" t="s">
+        <v>157</v>
+      </c>
+      <c r="D74" t="s">
+        <v>183</v>
+      </c>
+      <c r="E74" t="s">
+        <v>686</v>
+      </c>
+      <c r="F74" t="s">
+        <v>687</v>
+      </c>
+      <c r="G74" t="s">
+        <v>688</v>
+      </c>
+      <c r="H74">
+        <v>7.63</v>
+      </c>
+      <c r="I74" t="s">
+        <v>689</v>
+      </c>
+      <c r="J74">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K74" t="s">
+        <v>690</v>
+      </c>
+      <c r="L74">
+        <v>6.02</v>
+      </c>
+      <c r="M74" t="s">
+        <v>691</v>
+      </c>
+      <c r="N74">
+        <v>1.2</v>
+      </c>
+      <c r="O74">
+        <v>3.758</v>
+      </c>
+      <c r="P74">
+        <v>10.846</v>
+      </c>
+      <c r="Q74">
+        <v>11.696</v>
+      </c>
+      <c r="R74">
+        <v>8.1170000000000009</v>
+      </c>
+      <c r="S74">
+        <v>67.567999999999998</v>
+      </c>
+      <c r="T74">
+        <v>25.253</v>
+      </c>
+      <c r="U74">
+        <v>72.992999999999995</v>
+      </c>
+      <c r="V74" t="s">
+        <v>179</v>
+      </c>
+      <c r="W74" t="s">
+        <v>79</v>
+      </c>
+      <c r="X74">
+        <v>-4</v>
+      </c>
+      <c r="Y74">
+        <v>-2</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>550</v>
+      </c>
+      <c r="AA74" t="s">
+        <v>563</v>
+      </c>
+      <c r="AB74" t="s">
+        <v>564</v>
+      </c>
+      <c r="AC74" t="s">
+        <v>585</v>
+      </c>
+      <c r="AE74" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="AF74" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="AG74" s="2">
+        <f>SUM(AE74:AF74)</f>
+        <v>1.25</v>
+      </c>
+      <c r="AI74">
+        <v>0</v>
+      </c>
+      <c r="AJ74">
+        <v>0</v>
+      </c>
+      <c r="AK74" s="5">
+        <f>ROUNDDOWN(SUM(AI74:AJ74),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM74">
+        <v>1.6382198347107473</v>
+      </c>
+      <c r="AN74">
+        <v>1.393289256198347</v>
+      </c>
+      <c r="AO74" s="3">
+        <f>ROUNDDOWN(SUM(AM74:AN74),0)</f>
+        <v>3</v>
+      </c>
+      <c r="AQ74">
+        <v>0</v>
+      </c>
+      <c r="AR74">
+        <v>0</v>
+      </c>
+      <c r="AS74" s="3">
+        <f>ROUNDDOWN(SUM(AQ74:AR74),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75" t="s">
+        <v>47</v>
+      </c>
+      <c r="C75" t="s">
+        <v>607</v>
+      </c>
+      <c r="D75" t="s">
+        <v>212</v>
+      </c>
+      <c r="E75" t="s">
+        <v>206</v>
+      </c>
+      <c r="F75" t="s">
+        <v>308</v>
+      </c>
+      <c r="G75" t="s">
+        <v>470</v>
+      </c>
+      <c r="H75">
+        <v>1.64</v>
+      </c>
+      <c r="I75" t="s">
+        <v>212</v>
+      </c>
+      <c r="J75">
+        <v>2.57</v>
+      </c>
+      <c r="K75" t="s">
+        <v>692</v>
+      </c>
+      <c r="L75">
+        <v>1.59</v>
+      </c>
+      <c r="M75" t="s">
+        <v>463</v>
+      </c>
+      <c r="N75">
+        <v>2.7</v>
+      </c>
+      <c r="O75">
+        <v>14.683999999999999</v>
+      </c>
+      <c r="P75">
+        <v>15.06</v>
+      </c>
+      <c r="Q75">
+        <v>9.4250000000000007</v>
+      </c>
+      <c r="R75">
+        <v>18.382000000000001</v>
+      </c>
+      <c r="S75">
+        <v>19.341999999999999</v>
+      </c>
+      <c r="T75">
+        <v>11.792</v>
+      </c>
+      <c r="U75">
+        <v>12.106999999999999</v>
+      </c>
+      <c r="V75" t="s">
+        <v>44</v>
+      </c>
+      <c r="W75" t="s">
+        <v>51</v>
+      </c>
+      <c r="X75">
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <v>-5</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>550</v>
+      </c>
+      <c r="AA75" t="s">
+        <v>547</v>
+      </c>
+      <c r="AB75" t="s">
+        <v>606</v>
+      </c>
+      <c r="AC75" t="s">
+        <v>595</v>
+      </c>
+      <c r="AE75" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="AF75" s="1">
+        <v>1.56</v>
+      </c>
+      <c r="AG75" s="2">
+        <f t="shared" ref="AG75:AG96" si="6">SUM(AE75:AF75)</f>
+        <v>3.16</v>
+      </c>
+      <c r="AI75">
+        <v>0</v>
+      </c>
+      <c r="AJ75">
+        <v>0</v>
+      </c>
+      <c r="AK75" s="5">
+        <f t="shared" ref="AK75:AK96" si="7">ROUNDDOWN(SUM(AI75:AJ75),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM75">
+        <v>1.9882314049586822</v>
+      </c>
+      <c r="AN75">
+        <v>3.0996999999999999</v>
+      </c>
+      <c r="AO75" s="3">
+        <f t="shared" ref="AO75:AO96" si="8">ROUNDDOWN(SUM(AM75:AN75),0)</f>
+        <v>5</v>
+      </c>
+      <c r="AQ75">
+        <v>0</v>
+      </c>
+      <c r="AR75">
+        <v>0</v>
+      </c>
+      <c r="AS75" s="3">
+        <f>ROUNDDOWN(SUM(AQ75:AR75),0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>385</v>
+      </c>
+      <c r="B76" t="s">
+        <v>388</v>
+      </c>
+      <c r="C76" t="s">
+        <v>397</v>
+      </c>
+      <c r="D76" t="s">
+        <v>693</v>
+      </c>
+      <c r="E76" t="s">
+        <v>694</v>
+      </c>
+      <c r="F76" t="s">
+        <v>695</v>
+      </c>
+      <c r="G76" t="s">
+        <v>696</v>
+      </c>
+      <c r="H76">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I76" t="s">
+        <v>697</v>
+      </c>
+      <c r="J76">
+        <v>1.26</v>
+      </c>
+      <c r="K76" t="s">
+        <v>508</v>
+      </c>
+      <c r="L76">
+        <v>4.62</v>
+      </c>
+      <c r="M76" t="s">
+        <v>698</v>
+      </c>
+      <c r="N76">
+        <v>1.28</v>
+      </c>
+      <c r="O76">
+        <v>4.0129999999999999</v>
+      </c>
+      <c r="P76">
+        <v>12.563000000000001</v>
+      </c>
+      <c r="Q76">
+        <v>10.683999999999999</v>
+      </c>
+      <c r="R76">
+        <v>6.8259999999999996</v>
+      </c>
+      <c r="S76">
+        <v>67.114000000000004</v>
+      </c>
+      <c r="T76">
+        <v>18.181999999999999</v>
+      </c>
+      <c r="U76">
+        <v>56.817999999999998</v>
+      </c>
+      <c r="V76" t="s">
+        <v>179</v>
+      </c>
+      <c r="W76" t="s">
+        <v>51</v>
+      </c>
+      <c r="X76">
+        <v>5</v>
+      </c>
+      <c r="Y76">
+        <v>1</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>547</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>550</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>654</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>649</v>
+      </c>
+      <c r="AE76" s="1">
+        <v>1.18</v>
+      </c>
+      <c r="AF76" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="AG76" s="2">
+        <f t="shared" si="6"/>
+        <v>1.56</v>
+      </c>
+      <c r="AI76">
+        <v>3.1296739361702159</v>
+      </c>
+      <c r="AJ76">
+        <v>1.927498404255316</v>
+      </c>
+      <c r="AK76" s="5">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AM76">
+        <v>2.6950212765957482</v>
+      </c>
+      <c r="AN76">
+        <v>1.2406595744680873</v>
+      </c>
+      <c r="AO76" s="3">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AQ76">
+        <v>4.1450535353535383</v>
+      </c>
+      <c r="AR76">
+        <v>3.9047272727272717</v>
+      </c>
+      <c r="AS76" s="3">
+        <f t="shared" ref="AS76:AS96" si="9">ROUNDDOWN(SUM(AQ76:AR76),0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>385</v>
+      </c>
+      <c r="B77" t="s">
+        <v>699</v>
+      </c>
+      <c r="C77" t="s">
+        <v>404</v>
+      </c>
+      <c r="D77" t="s">
+        <v>700</v>
+      </c>
+      <c r="E77" t="s">
+        <v>701</v>
+      </c>
+      <c r="F77" t="s">
+        <v>343</v>
+      </c>
+      <c r="G77" t="s">
+        <v>306</v>
+      </c>
+      <c r="H77">
+        <v>3.72</v>
+      </c>
+      <c r="I77" t="s">
+        <v>702</v>
+      </c>
+      <c r="J77">
+        <v>1.37</v>
+      </c>
+      <c r="K77" t="s">
+        <v>131</v>
+      </c>
+      <c r="L77">
+        <v>3.88</v>
+      </c>
+      <c r="M77" t="s">
+        <v>466</v>
+      </c>
+      <c r="N77">
+        <v>1.35</v>
+      </c>
+      <c r="O77">
+        <v>14.286</v>
+      </c>
+      <c r="P77">
+        <v>4.3959999999999999</v>
+      </c>
+      <c r="Q77">
+        <v>10.384</v>
+      </c>
+      <c r="R77">
+        <v>67.567999999999998</v>
+      </c>
+      <c r="S77">
+        <v>6.3819999999999997</v>
+      </c>
+      <c r="T77">
+        <v>49.02</v>
+      </c>
+      <c r="U77">
+        <v>15.083</v>
+      </c>
+      <c r="V77" t="s">
+        <v>425</v>
+      </c>
+      <c r="W77" t="s">
+        <v>51</v>
+      </c>
+      <c r="X77">
+        <v>1</v>
+      </c>
+      <c r="Y77">
+        <v>0</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>547</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB77" t="s">
+        <v>703</v>
+      </c>
+      <c r="AC77" t="s">
+        <v>651</v>
+      </c>
+      <c r="AE77" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="AF77" s="1">
+        <v>1.38</v>
+      </c>
+      <c r="AG77" s="2">
+        <f t="shared" si="6"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="AI77">
+        <v>1.8646276595744697</v>
+      </c>
+      <c r="AJ77">
+        <v>3.1924281914893564</v>
+      </c>
+      <c r="AK77" s="5">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AM77">
+        <v>2.3806021276595781</v>
+      </c>
+      <c r="AN77">
+        <v>2.8962765957446863</v>
+      </c>
+      <c r="AO77" s="3">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AQ77">
+        <v>2.6723212121212137</v>
+      </c>
+      <c r="AR77">
+        <v>6.464492929292927</v>
+      </c>
+      <c r="AS77" s="3">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>385</v>
+      </c>
+      <c r="B78" t="s">
+        <v>648</v>
+      </c>
+      <c r="C78" t="s">
+        <v>398</v>
+      </c>
+      <c r="D78" t="s">
+        <v>704</v>
+      </c>
+      <c r="E78" t="s">
+        <v>27</v>
+      </c>
+      <c r="F78" t="s">
+        <v>195</v>
+      </c>
+      <c r="G78" t="s">
+        <v>125</v>
+      </c>
+      <c r="H78">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="I78" t="s">
+        <v>705</v>
+      </c>
+      <c r="J78">
+        <v>1.28</v>
+      </c>
+      <c r="K78" t="s">
+        <v>408</v>
+      </c>
+      <c r="L78">
+        <v>3.28</v>
+      </c>
+      <c r="M78" t="s">
+        <v>324</v>
+      </c>
+      <c r="N78">
+        <v>1.44</v>
+      </c>
+      <c r="O78">
+        <v>5.907</v>
+      </c>
+      <c r="P78">
+        <v>6.5570000000000004</v>
+      </c>
+      <c r="Q78">
+        <v>7.74</v>
+      </c>
+      <c r="R78">
+        <v>13.946999999999999</v>
+      </c>
+      <c r="S78">
+        <v>17.181999999999999</v>
+      </c>
+      <c r="T78">
+        <v>18.282</v>
+      </c>
+      <c r="U78">
+        <v>20.283999999999999</v>
+      </c>
+      <c r="V78" t="s">
+        <v>28</v>
+      </c>
+      <c r="W78" t="s">
+        <v>26</v>
+      </c>
+      <c r="X78">
+        <v>-4</v>
+      </c>
+      <c r="Y78">
+        <v>-2</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>547</v>
+      </c>
+      <c r="AA78" t="s">
+        <v>563</v>
+      </c>
+      <c r="AB78" t="s">
+        <v>647</v>
+      </c>
+      <c r="AC78" t="s">
+        <v>646</v>
+      </c>
+      <c r="AE78" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="AF78" s="1">
+        <v>0.76</v>
+      </c>
+      <c r="AG78" s="2">
+        <f t="shared" si="6"/>
+        <v>1.6099999999999999</v>
+      </c>
+      <c r="AI78">
+        <v>4.6379505319148988</v>
+      </c>
+      <c r="AJ78">
+        <v>3.2259723404255261</v>
+      </c>
+      <c r="AK78" s="5">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="AM78">
+        <v>3.177034042553196</v>
+      </c>
+      <c r="AN78">
+        <v>3.1379840425531969</v>
+      </c>
+      <c r="AO78" s="3">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AQ78">
+        <v>4.7942787878787909</v>
+      </c>
+      <c r="AR78">
+        <v>4.111644444444444</v>
+      </c>
+      <c r="AS78" s="3">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>458</v>
+      </c>
+      <c r="B79" t="s">
+        <v>464</v>
+      </c>
+      <c r="C79" t="s">
+        <v>453</v>
+      </c>
+      <c r="D79" t="s">
+        <v>138</v>
+      </c>
+      <c r="E79" t="s">
+        <v>127</v>
+      </c>
+      <c r="F79" t="s">
+        <v>706</v>
+      </c>
+      <c r="G79" t="s">
+        <v>340</v>
+      </c>
+      <c r="H79">
+        <v>7.22</v>
+      </c>
+      <c r="I79" t="s">
+        <v>707</v>
+      </c>
+      <c r="J79">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="K79" t="s">
+        <v>178</v>
+      </c>
+      <c r="L79">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="M79" t="s">
+        <v>708</v>
+      </c>
+      <c r="N79">
+        <v>1.25</v>
+      </c>
+      <c r="O79">
+        <v>4.2770000000000001</v>
+      </c>
+      <c r="P79">
+        <v>8.1969999999999992</v>
+      </c>
+      <c r="Q79">
+        <v>9.7370000000000001</v>
+      </c>
+      <c r="R79">
+        <v>10.163</v>
+      </c>
+      <c r="S79">
+        <v>37.313000000000002</v>
+      </c>
+      <c r="T79">
+        <v>23.094999999999999</v>
+      </c>
+      <c r="U79">
+        <v>44.247999999999998</v>
+      </c>
+      <c r="V79" t="s">
+        <v>179</v>
+      </c>
+      <c r="W79" t="s">
+        <v>72</v>
+      </c>
+      <c r="X79">
+        <v>-2</v>
+      </c>
+      <c r="Y79">
+        <v>0</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>556</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>563</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>617</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>618</v>
+      </c>
+      <c r="AE79" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="AF79" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="AG79" s="2">
+        <f t="shared" si="6"/>
+        <v>1.28</v>
+      </c>
+      <c r="AI79">
+        <v>3.6127828571428537</v>
+      </c>
+      <c r="AJ79">
+        <v>1.8276214285714296</v>
+      </c>
+      <c r="AK79" s="5">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="AM79">
+        <v>2.3676300000000006</v>
+      </c>
+      <c r="AN79">
+        <v>1.7808899999999999</v>
+      </c>
+      <c r="AO79" s="3">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AQ79">
+        <v>4.0924800000000001</v>
+      </c>
+      <c r="AR79">
+        <v>4.9504159999999997</v>
+      </c>
+      <c r="AS79" s="3">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>385</v>
+      </c>
+      <c r="B80" t="s">
+        <v>386</v>
+      </c>
+      <c r="C80" t="s">
+        <v>652</v>
+      </c>
+      <c r="D80" t="s">
+        <v>709</v>
+      </c>
+      <c r="E80" t="s">
+        <v>515</v>
+      </c>
+      <c r="F80" t="s">
+        <v>529</v>
+      </c>
+      <c r="G80" t="s">
+        <v>710</v>
+      </c>
+      <c r="H80">
+        <v>1.73</v>
+      </c>
+      <c r="I80" t="s">
+        <v>711</v>
+      </c>
+      <c r="J80">
+        <v>2.4</v>
+      </c>
+      <c r="K80" t="s">
+        <v>712</v>
+      </c>
+      <c r="L80">
+        <v>1.97</v>
+      </c>
+      <c r="M80" t="s">
+        <v>32</v>
+      </c>
+      <c r="N80">
+        <v>2.06</v>
+      </c>
+      <c r="O80">
+        <v>9.5419999999999998</v>
+      </c>
+      <c r="P80">
+        <v>24.155000000000001</v>
+      </c>
+      <c r="Q80">
+        <v>11.122999999999999</v>
+      </c>
+      <c r="R80">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="S80">
+        <v>56.497</v>
+      </c>
+      <c r="T80">
+        <v>10.225</v>
+      </c>
+      <c r="U80">
+        <v>25.907</v>
+      </c>
+      <c r="V80" t="s">
+        <v>64</v>
+      </c>
+      <c r="W80" t="s">
+        <v>79</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>0</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>547</v>
+      </c>
+      <c r="AA80" t="s">
+        <v>556</v>
+      </c>
+      <c r="AB80" t="s">
+        <v>674</v>
+      </c>
+      <c r="AC80" t="s">
+        <v>653</v>
+      </c>
+      <c r="AE80" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="AF80" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="AG80" s="2">
+        <f t="shared" si="6"/>
+        <v>3.03</v>
+      </c>
+      <c r="AI80">
+        <v>6.1337962765957501</v>
+      </c>
+      <c r="AJ80">
+        <v>3.1995957446808458</v>
+      </c>
+      <c r="AK80" s="5">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="AM80">
+        <v>3.0244127659574511</v>
+      </c>
+      <c r="AN80">
+        <v>2.0210744680851098</v>
+      </c>
+      <c r="AO80" s="3">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AQ80">
+        <v>4.8946691919191947</v>
+      </c>
+      <c r="AR80">
+        <v>3.9714747474747467</v>
+      </c>
+      <c r="AS80" s="3">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>385</v>
+      </c>
+      <c r="B81" t="s">
+        <v>394</v>
+      </c>
+      <c r="C81" t="s">
+        <v>672</v>
+      </c>
+      <c r="D81" t="s">
+        <v>49</v>
+      </c>
+      <c r="E81" t="s">
+        <v>713</v>
+      </c>
+      <c r="F81" t="s">
+        <v>714</v>
+      </c>
+      <c r="G81" t="s">
+        <v>715</v>
+      </c>
+      <c r="H81">
+        <v>6.13</v>
+      </c>
+      <c r="I81" t="s">
+        <v>716</v>
+      </c>
+      <c r="J81">
+        <v>1.19</v>
+      </c>
+      <c r="K81" t="s">
+        <v>125</v>
+      </c>
+      <c r="L81">
+        <v>4.57</v>
+      </c>
+      <c r="M81" t="s">
+        <v>705</v>
+      </c>
+      <c r="N81">
+        <v>1.28</v>
+      </c>
+      <c r="O81">
+        <v>4.25</v>
+      </c>
+      <c r="P81">
+        <v>8.9849999999999994</v>
+      </c>
+      <c r="Q81">
+        <v>9.5510000000000002</v>
+      </c>
+      <c r="R81">
+        <v>9.0329999999999995</v>
+      </c>
+      <c r="S81">
+        <v>40.323</v>
+      </c>
+      <c r="T81">
+        <v>20.283999999999999</v>
+      </c>
+      <c r="U81">
+        <v>42.917999999999999</v>
+      </c>
+      <c r="V81" t="s">
+        <v>179</v>
+      </c>
+      <c r="W81" t="s">
+        <v>79</v>
+      </c>
+      <c r="X81">
+        <v>-1</v>
+      </c>
+      <c r="Y81">
+        <v>8</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>563</v>
+      </c>
+      <c r="AA81" t="s">
+        <v>547</v>
+      </c>
+      <c r="AB81" t="s">
+        <v>678</v>
+      </c>
+      <c r="AC81" t="s">
+        <v>673</v>
+      </c>
+      <c r="AE81" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="AF81" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="AG81" s="2">
+        <f t="shared" si="6"/>
+        <v>1.39</v>
+      </c>
+      <c r="AI81">
+        <v>2.1812000000000022</v>
+      </c>
+      <c r="AJ81">
+        <v>2.3455101063829749</v>
+      </c>
+      <c r="AK81" s="5">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AM81">
+        <v>1.8271085106383003</v>
+      </c>
+      <c r="AN81">
+        <v>1.542662234042556</v>
+      </c>
+      <c r="AO81" s="3">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AQ81">
+        <v>2.1530429292929312</v>
+      </c>
+      <c r="AR81">
+        <v>5.526690909090906</v>
+      </c>
+      <c r="AS81" s="3">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>385</v>
+      </c>
+      <c r="B82" t="s">
+        <v>717</v>
+      </c>
+      <c r="C82" t="s">
+        <v>379</v>
+      </c>
+      <c r="D82" t="s">
+        <v>519</v>
+      </c>
+      <c r="E82" t="s">
+        <v>718</v>
+      </c>
+      <c r="F82" t="s">
+        <v>293</v>
+      </c>
+      <c r="G82" t="s">
+        <v>306</v>
+      </c>
+      <c r="H82">
+        <v>3.72</v>
+      </c>
+      <c r="I82" t="s">
+        <v>532</v>
+      </c>
+      <c r="J82">
+        <v>1.37</v>
+      </c>
+      <c r="K82" t="s">
+        <v>246</v>
+      </c>
+      <c r="L82">
+        <v>2.85</v>
+      </c>
+      <c r="M82" t="s">
+        <v>227</v>
+      </c>
+      <c r="N82">
+        <v>1.54</v>
+      </c>
+      <c r="O82">
+        <v>6.4269999999999996</v>
+      </c>
+      <c r="P82">
+        <v>7.0419999999999998</v>
+      </c>
+      <c r="Q82">
+        <v>7.4850000000000003</v>
+      </c>
+      <c r="R82">
+        <v>13.661</v>
+      </c>
+      <c r="S82">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="T82">
+        <v>15.898</v>
+      </c>
+      <c r="U82">
+        <v>17.452000000000002</v>
+      </c>
+      <c r="V82" t="s">
+        <v>28</v>
+      </c>
+      <c r="W82" t="s">
+        <v>79</v>
+      </c>
+      <c r="X82">
+        <v>-3</v>
+      </c>
+      <c r="Y82">
+        <v>4</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>550</v>
+      </c>
+      <c r="AA82" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB82" t="s">
+        <v>719</v>
+      </c>
+      <c r="AC82" t="s">
+        <v>575</v>
+      </c>
+      <c r="AE82" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="AF82" s="1">
+        <v>0.86</v>
+      </c>
+      <c r="AG82" s="2">
+        <f t="shared" si="6"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="AI82">
+        <v>3.6099191489361733</v>
+      </c>
+      <c r="AJ82">
+        <v>2.6663297872340381</v>
+      </c>
+      <c r="AK82" s="5">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="AM82">
+        <v>2.1772680851063861</v>
+      </c>
+      <c r="AN82">
+        <v>3.0516223404255371</v>
+      </c>
+      <c r="AO82" s="3">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AQ82">
+        <v>6.5421929292929342</v>
+      </c>
+      <c r="AR82">
+        <v>4.1550303030303013</v>
+      </c>
+      <c r="AS82" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>458</v>
+      </c>
+      <c r="B83" t="s">
+        <v>494</v>
+      </c>
+      <c r="C83" t="s">
+        <v>459</v>
+      </c>
+      <c r="D83" t="s">
+        <v>230</v>
+      </c>
+      <c r="E83" t="s">
+        <v>720</v>
+      </c>
+      <c r="F83" t="s">
+        <v>721</v>
+      </c>
+      <c r="G83" t="s">
+        <v>207</v>
+      </c>
+      <c r="H83">
+        <v>2.27</v>
+      </c>
+      <c r="I83" t="s">
+        <v>262</v>
+      </c>
+      <c r="J83">
+        <v>1.79</v>
+      </c>
+      <c r="K83" t="s">
+        <v>116</v>
+      </c>
+      <c r="L83">
+        <v>2.02</v>
+      </c>
+      <c r="M83" t="s">
+        <v>722</v>
+      </c>
+      <c r="N83">
+        <v>1.99</v>
+      </c>
+      <c r="O83">
+        <v>8.9290000000000003</v>
+      </c>
+      <c r="P83">
+        <v>9.98</v>
+      </c>
+      <c r="Q83">
+        <v>7.734</v>
+      </c>
+      <c r="R83">
+        <v>13.85</v>
+      </c>
+      <c r="S83">
+        <v>17.300999999999998</v>
+      </c>
+      <c r="T83">
+        <v>12.005000000000001</v>
+      </c>
+      <c r="U83">
+        <v>13.404999999999999</v>
+      </c>
+      <c r="V83" t="s">
+        <v>28</v>
+      </c>
+      <c r="W83" t="s">
+        <v>51</v>
+      </c>
+      <c r="X83">
+        <v>2</v>
+      </c>
+      <c r="Y83">
+        <v>-1</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>550</v>
+      </c>
+      <c r="AA83" t="s">
+        <v>563</v>
+      </c>
+      <c r="AB83" t="s">
+        <v>619</v>
+      </c>
+      <c r="AC83" t="s">
+        <v>670</v>
+      </c>
+      <c r="AE83" s="1">
+        <v>1.29</v>
+      </c>
+      <c r="AF83" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="AG83" s="2">
+        <f t="shared" si="6"/>
+        <v>2.44</v>
+      </c>
+      <c r="AI83">
+        <v>4.654251428571424</v>
+      </c>
+      <c r="AJ83">
+        <v>2.8648800000000021</v>
+      </c>
+      <c r="AK83" s="5">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="AM83">
+        <v>3.0569400000000009</v>
+      </c>
+      <c r="AN83">
+        <v>3.8184300000000002</v>
+      </c>
+      <c r="AO83" s="3">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AQ83">
+        <v>5.0127000000000006</v>
+      </c>
+      <c r="AR83">
+        <v>4.7465700000000002</v>
+      </c>
+      <c r="AS83" s="3">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>458</v>
+      </c>
+      <c r="B84" t="s">
+        <v>491</v>
+      </c>
+      <c r="C84" t="s">
+        <v>661</v>
+      </c>
+      <c r="D84" t="s">
+        <v>215</v>
+      </c>
+      <c r="E84" t="s">
+        <v>171</v>
+      </c>
+      <c r="F84" t="s">
+        <v>723</v>
+      </c>
+      <c r="G84" t="s">
+        <v>724</v>
+      </c>
+      <c r="H84">
+        <v>3.45</v>
+      </c>
+      <c r="I84" t="s">
+        <v>414</v>
+      </c>
+      <c r="J84">
+        <v>1.41</v>
+      </c>
+      <c r="K84" t="s">
+        <v>250</v>
+      </c>
+      <c r="L84">
+        <v>2.97</v>
+      </c>
+      <c r="M84" t="s">
+        <v>445</v>
+      </c>
+      <c r="N84">
+        <v>1.51</v>
+      </c>
+      <c r="O84">
+        <v>10.151999999999999</v>
+      </c>
+      <c r="P84">
+        <v>5.3049999999999997</v>
+      </c>
+      <c r="Q84">
+        <v>8.2240000000000002</v>
+      </c>
+      <c r="R84">
+        <v>31.446999999999999</v>
+      </c>
+      <c r="S84">
+        <v>8.5980000000000008</v>
+      </c>
+      <c r="T84">
+        <v>25.51</v>
+      </c>
+      <c r="U84">
+        <v>13.333</v>
+      </c>
+      <c r="V84" t="s">
+        <v>28</v>
+      </c>
+      <c r="W84" t="s">
+        <v>26</v>
+      </c>
+      <c r="X84">
+        <v>0</v>
+      </c>
+      <c r="Y84">
+        <v>-3</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>563</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>563</v>
+      </c>
+      <c r="AB84" t="s">
+        <v>666</v>
+      </c>
+      <c r="AC84" t="s">
+        <v>662</v>
+      </c>
+      <c r="AE84" s="1">
+        <v>0.64</v>
+      </c>
+      <c r="AF84" s="1">
+        <v>1.23</v>
+      </c>
+      <c r="AG84" s="2">
+        <f t="shared" si="6"/>
+        <v>1.87</v>
+      </c>
       <c r="AI84">
+        <v>3.0493371428571399</v>
+      </c>
+      <c r="AJ84">
+        <v>3.131794285714288</v>
+      </c>
+      <c r="AK84" s="5">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="AM84">
+        <v>5.3835300000000004</v>
+      </c>
+      <c r="AN84">
+        <v>2.94408</v>
+      </c>
+      <c r="AO84" s="3">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="AQ84">
+        <v>5.2062499999999998</v>
+      </c>
+      <c r="AR84">
+        <v>1.887732</v>
+      </c>
+      <c r="AS84" s="3">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>458</v>
+      </c>
+      <c r="B85" t="s">
+        <v>492</v>
+      </c>
+      <c r="C85" t="s">
+        <v>496</v>
+      </c>
+      <c r="D85" t="s">
+        <v>725</v>
+      </c>
+      <c r="E85" t="s">
+        <v>88</v>
+      </c>
+      <c r="F85" t="s">
+        <v>384</v>
+      </c>
+      <c r="G85" t="s">
+        <v>726</v>
+      </c>
+      <c r="H85">
+        <v>1.38</v>
+      </c>
+      <c r="I85" t="s">
+        <v>142</v>
+      </c>
+      <c r="J85">
+        <v>3.76</v>
+      </c>
+      <c r="K85" t="s">
+        <v>727</v>
+      </c>
+      <c r="L85">
+        <v>1.43</v>
+      </c>
+      <c r="M85" t="s">
+        <v>307</v>
+      </c>
+      <c r="N85">
+        <v>3.41</v>
+      </c>
+      <c r="O85">
+        <v>19.96</v>
+      </c>
+      <c r="P85">
+        <v>29.585999999999999</v>
+      </c>
+      <c r="Q85">
+        <v>12.987</v>
+      </c>
+      <c r="R85">
+        <v>17.513000000000002</v>
+      </c>
+      <c r="S85">
+        <v>38.462000000000003</v>
+      </c>
+      <c r="T85">
+        <v>11.39</v>
+      </c>
+      <c r="U85">
+        <v>16.891999999999999</v>
+      </c>
+      <c r="V85" t="s">
+        <v>44</v>
+      </c>
+      <c r="W85" t="s">
+        <v>45</v>
+      </c>
+      <c r="X85">
+        <v>-8</v>
+      </c>
+      <c r="Y85">
+        <v>1</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>563</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB85" t="s">
+        <v>664</v>
+      </c>
+      <c r="AC85" t="s">
+        <v>663</v>
+      </c>
+      <c r="AE85" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="AF85" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="AG85" s="2">
+        <f t="shared" si="6"/>
+        <v>3.82</v>
+      </c>
+      <c r="AI85">
+        <v>2.4876171428571405</v>
+      </c>
+      <c r="AJ85">
+        <v>5.1247542857142889</v>
+      </c>
+      <c r="AK85" s="5">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="AM85">
+        <v>2.06793</v>
+      </c>
+      <c r="AN85">
+        <v>2.6714799999999999</v>
+      </c>
+      <c r="AO85" s="3">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AQ85">
+        <v>3.6162000000000001</v>
+      </c>
+      <c r="AR85">
+        <v>4.6344319999999994</v>
+      </c>
+      <c r="AS85" s="3">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>458</v>
+      </c>
+      <c r="B86" t="s">
+        <v>521</v>
+      </c>
+      <c r="C86" t="s">
+        <v>667</v>
+      </c>
+      <c r="D86" t="s">
+        <v>248</v>
+      </c>
+      <c r="E86" t="s">
+        <v>141</v>
+      </c>
+      <c r="F86" t="s">
+        <v>724</v>
+      </c>
+      <c r="G86" t="s">
+        <v>228</v>
+      </c>
+      <c r="H86">
+        <v>3.35</v>
+      </c>
+      <c r="I86" t="s">
+        <v>502</v>
+      </c>
+      <c r="J86">
+        <v>1.42</v>
+      </c>
+      <c r="K86" t="s">
+        <v>484</v>
+      </c>
+      <c r="L86">
+        <v>2.67</v>
+      </c>
+      <c r="M86" t="s">
+        <v>728</v>
+      </c>
+      <c r="N86">
+        <v>1.6</v>
+      </c>
+      <c r="O86">
+        <v>6.3979999999999997</v>
+      </c>
+      <c r="P86">
+        <v>7.88</v>
+      </c>
+      <c r="Q86">
+        <v>7.4850000000000003</v>
+      </c>
+      <c r="R86">
+        <v>12.151</v>
+      </c>
+      <c r="S86">
+        <v>18.45</v>
+      </c>
+      <c r="T86">
+        <v>14.225</v>
+      </c>
+      <c r="U86">
+        <v>17.513000000000002</v>
+      </c>
+      <c r="V86" t="s">
+        <v>28</v>
+      </c>
+      <c r="W86" t="s">
+        <v>29</v>
+      </c>
+      <c r="X86">
         <v>0</v>
+      </c>
+      <c r="Y86">
+        <v>2</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>550</v>
+      </c>
+      <c r="AA86" t="s">
+        <v>563</v>
+      </c>
+      <c r="AB86" t="s">
+        <v>665</v>
+      </c>
+      <c r="AC86" t="s">
+        <v>663</v>
+      </c>
+      <c r="AE86" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="AF86" s="1">
+        <v>0.85</v>
+      </c>
+      <c r="AG86" s="2">
+        <f t="shared" si="6"/>
+        <v>1.9</v>
+      </c>
+      <c r="AI86">
+        <v>5.1219199999999958</v>
+      </c>
+      <c r="AJ86">
+        <v>2.428920000000002</v>
+      </c>
+      <c r="AK86" s="5">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="AM86">
+        <v>2.2720500000000001</v>
+      </c>
+      <c r="AN86">
+        <v>3.0241199999999999</v>
+      </c>
+      <c r="AO86" s="3">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AQ86">
+        <v>8.4044800000000013</v>
+      </c>
+      <c r="AR86">
+        <v>2.0057719999999999</v>
+      </c>
+      <c r="AS86" s="3">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>458</v>
+      </c>
+      <c r="B87" t="s">
+        <v>656</v>
+      </c>
+      <c r="C87" t="s">
+        <v>511</v>
+      </c>
+      <c r="D87" t="s">
+        <v>238</v>
+      </c>
+      <c r="E87" t="s">
+        <v>416</v>
+      </c>
+      <c r="F87" t="s">
+        <v>109</v>
+      </c>
+      <c r="G87" t="s">
+        <v>94</v>
+      </c>
+      <c r="H87">
+        <v>1.94</v>
+      </c>
+      <c r="I87" t="s">
+        <v>729</v>
+      </c>
+      <c r="J87">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="K87" t="s">
+        <v>390</v>
+      </c>
+      <c r="L87">
+        <v>1.81</v>
+      </c>
+      <c r="M87" t="s">
+        <v>48</v>
+      </c>
+      <c r="N87">
+        <v>2.25</v>
+      </c>
+      <c r="O87">
+        <v>12.346</v>
+      </c>
+      <c r="P87">
+        <v>10.515000000000001</v>
+      </c>
+      <c r="Q87">
+        <v>8.3190000000000008</v>
+      </c>
+      <c r="R87">
+        <v>19.530999999999999</v>
+      </c>
+      <c r="S87">
+        <v>14.164</v>
+      </c>
+      <c r="T87">
+        <v>13.175000000000001</v>
+      </c>
+      <c r="U87">
+        <v>11.211</v>
+      </c>
+      <c r="V87" t="s">
+        <v>28</v>
+      </c>
+      <c r="W87" t="s">
+        <v>51</v>
+      </c>
+      <c r="X87">
+        <v>1</v>
+      </c>
+      <c r="Y87">
+        <v>-5</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>547</v>
+      </c>
+      <c r="AA87" t="s">
+        <v>547</v>
+      </c>
+      <c r="AB87" t="s">
+        <v>658</v>
+      </c>
+      <c r="AC87" t="s">
+        <v>616</v>
+      </c>
+      <c r="AE87" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="AF87" s="1">
+        <v>1.48</v>
+      </c>
+      <c r="AG87" s="2">
+        <f t="shared" si="6"/>
+        <v>2.74</v>
+      </c>
+      <c r="AI87">
+        <v>3.932902857142853</v>
+      </c>
+      <c r="AJ87">
+        <v>5.7909278571428615</v>
+      </c>
+      <c r="AK87" s="5">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="AM87">
+        <v>1.8816300000000001</v>
+      </c>
+      <c r="AN87">
+        <v>1.6808399999999999</v>
+      </c>
+      <c r="AO87" s="3">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AQ87">
+        <v>4.8730499999999992</v>
+      </c>
+      <c r="AR87">
+        <v>4.1822480000000004</v>
+      </c>
+      <c r="AS87" s="3">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>458</v>
+      </c>
+      <c r="B88" t="s">
+        <v>513</v>
+      </c>
+      <c r="C88" t="s">
+        <v>514</v>
+      </c>
+      <c r="D88" t="s">
+        <v>312</v>
+      </c>
+      <c r="E88" t="s">
+        <v>694</v>
+      </c>
+      <c r="F88" t="s">
+        <v>730</v>
+      </c>
+      <c r="G88" t="s">
+        <v>303</v>
+      </c>
+      <c r="H88">
+        <v>3.54</v>
+      </c>
+      <c r="I88" t="s">
+        <v>731</v>
+      </c>
+      <c r="J88">
+        <v>1.39</v>
+      </c>
+      <c r="K88" t="s">
+        <v>27</v>
+      </c>
+      <c r="L88">
+        <v>2.84</v>
+      </c>
+      <c r="M88" t="s">
+        <v>732</v>
+      </c>
+      <c r="N88">
+        <v>1.54</v>
+      </c>
+      <c r="O88">
+        <v>8.4670000000000005</v>
+      </c>
+      <c r="P88">
+        <v>5.79</v>
+      </c>
+      <c r="Q88">
+        <v>7.7039999999999997</v>
+      </c>
+      <c r="R88">
+        <v>22.523</v>
+      </c>
+      <c r="S88">
+        <v>10.537000000000001</v>
+      </c>
+      <c r="T88">
+        <v>20.492000000000001</v>
+      </c>
+      <c r="U88">
+        <v>14.025</v>
+      </c>
+      <c r="V88" t="s">
+        <v>28</v>
+      </c>
+      <c r="W88" t="s">
+        <v>26</v>
+      </c>
+      <c r="X88">
+        <v>-2</v>
+      </c>
+      <c r="Y88">
+        <v>2</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>547</v>
+      </c>
+      <c r="AA88" t="s">
+        <v>556</v>
+      </c>
+      <c r="AB88" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC88" t="s">
+        <v>657</v>
+      </c>
+      <c r="AE88" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="AF88" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AG88" s="2">
+        <f t="shared" si="6"/>
+        <v>1.85</v>
+      </c>
+      <c r="AI88">
+        <v>4.5144685714285666</v>
+      </c>
+      <c r="AJ88">
+        <v>4.8563571428571466</v>
+      </c>
+      <c r="AK88" s="5">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="AM88">
+        <v>3.6563400000000001</v>
+      </c>
+      <c r="AN88">
+        <v>2.5888299999999997</v>
+      </c>
+      <c r="AO88" s="3">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AQ88">
+        <v>6.3636300000000006</v>
+      </c>
+      <c r="AR88">
+        <v>5.1610719999999999</v>
+      </c>
+      <c r="AS88" s="3">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>458</v>
+      </c>
+      <c r="B89" t="s">
+        <v>495</v>
+      </c>
+      <c r="C89" t="s">
+        <v>499</v>
+      </c>
+      <c r="D89" t="s">
+        <v>443</v>
+      </c>
+      <c r="E89" t="s">
+        <v>733</v>
+      </c>
+      <c r="F89" t="s">
+        <v>422</v>
+      </c>
+      <c r="G89" t="s">
+        <v>298</v>
+      </c>
+      <c r="H89">
+        <v>1.76</v>
+      </c>
+      <c r="I89" t="s">
+        <v>146</v>
+      </c>
+      <c r="J89">
+        <v>2.35</v>
+      </c>
+      <c r="K89" t="s">
+        <v>734</v>
+      </c>
+      <c r="L89">
+        <v>1.85</v>
+      </c>
+      <c r="M89" t="s">
+        <v>735</v>
+      </c>
+      <c r="N89">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="O89">
+        <v>9.93</v>
+      </c>
+      <c r="P89">
+        <v>20.079999999999998</v>
+      </c>
+      <c r="Q89">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="R89">
+        <v>9.93</v>
+      </c>
+      <c r="S89">
+        <v>40.65</v>
+      </c>
+      <c r="T89">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="U89">
+        <v>20.324999999999999</v>
+      </c>
+      <c r="V89" t="s">
+        <v>64</v>
+      </c>
+      <c r="W89" t="s">
+        <v>29</v>
+      </c>
+      <c r="X89">
+        <v>-1</v>
+      </c>
+      <c r="Y89">
+        <v>6</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>563</v>
+      </c>
+      <c r="AA89" t="s">
+        <v>563</v>
+      </c>
+      <c r="AB89" t="s">
+        <v>619</v>
+      </c>
+      <c r="AC89" t="s">
+        <v>668</v>
+      </c>
+      <c r="AE89" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF89" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="AG89" s="2">
+        <f t="shared" si="6"/>
+        <v>2.99</v>
+      </c>
+      <c r="AI89">
+        <v>4.441988571428567</v>
+      </c>
+      <c r="AJ89">
+        <v>3.205195714285717</v>
+      </c>
+      <c r="AK89" s="5">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="AM89">
+        <v>2.8188</v>
+      </c>
+      <c r="AN89">
+        <v>4.75136</v>
+      </c>
+      <c r="AO89" s="3">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="AQ89">
+        <v>2.6469800000000001</v>
+      </c>
+      <c r="AR89">
+        <v>6.8009200000000005</v>
+      </c>
+      <c r="AS89" s="3">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>458</v>
+      </c>
+      <c r="B90" t="s">
+        <v>498</v>
+      </c>
+      <c r="C90" t="s">
+        <v>465</v>
+      </c>
+      <c r="D90" t="s">
+        <v>195</v>
+      </c>
+      <c r="E90" t="s">
+        <v>60</v>
+      </c>
+      <c r="F90" t="s">
+        <v>736</v>
+      </c>
+      <c r="G90" t="s">
+        <v>737</v>
+      </c>
+      <c r="H90">
+        <v>1.83</v>
+      </c>
+      <c r="I90" t="s">
+        <v>738</v>
+      </c>
+      <c r="J90">
+        <v>2.21</v>
+      </c>
+      <c r="K90" t="s">
+        <v>739</v>
+      </c>
+      <c r="L90">
+        <v>1.75</v>
+      </c>
+      <c r="M90" t="s">
+        <v>146</v>
+      </c>
+      <c r="N90">
+        <v>2.35</v>
+      </c>
+      <c r="O90">
+        <v>14.025</v>
+      </c>
+      <c r="P90">
+        <v>11.000999999999999</v>
+      </c>
+      <c r="Q90">
+        <v>8.7029999999999994</v>
+      </c>
+      <c r="R90">
+        <v>22.222000000000001</v>
+      </c>
+      <c r="S90">
+        <v>13.643000000000001</v>
+      </c>
+      <c r="T90">
+        <v>13.773999999999999</v>
+      </c>
+      <c r="U90">
+        <v>10.798999999999999</v>
+      </c>
+      <c r="V90" t="s">
+        <v>34</v>
+      </c>
+      <c r="W90" t="s">
+        <v>51</v>
+      </c>
+      <c r="X90">
+        <v>6</v>
+      </c>
+      <c r="Y90">
+        <v>4</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>553</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>563</v>
+      </c>
+      <c r="AB90" t="s">
+        <v>663</v>
+      </c>
+      <c r="AC90" t="s">
+        <v>659</v>
+      </c>
+      <c r="AE90" s="1">
+        <v>1.26</v>
+      </c>
+      <c r="AF90" s="1">
+        <v>1.61</v>
+      </c>
+      <c r="AG90" s="2">
+        <f t="shared" si="6"/>
+        <v>2.87</v>
+      </c>
+      <c r="AI90">
+        <v>4.9286399999999944</v>
+      </c>
+      <c r="AJ90">
+        <v>4.5879600000000034</v>
+      </c>
+      <c r="AK90" s="5">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="AM90">
+        <v>2.9646000000000003</v>
+      </c>
+      <c r="AN90">
+        <v>2.4612299999999996</v>
+      </c>
+      <c r="AO90" s="3">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AQ90">
+        <v>6.0328800000000005</v>
+      </c>
+      <c r="AR90">
+        <v>5.1815019999999992</v>
+      </c>
+      <c r="AS90" s="3">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="91" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>458</v>
+      </c>
+      <c r="B91" t="s">
+        <v>669</v>
+      </c>
+      <c r="C91" t="s">
+        <v>493</v>
+      </c>
+      <c r="D91" t="s">
+        <v>486</v>
+      </c>
+      <c r="E91" t="s">
+        <v>329</v>
+      </c>
+      <c r="F91" t="s">
+        <v>529</v>
+      </c>
+      <c r="G91" t="s">
+        <v>256</v>
+      </c>
+      <c r="H91">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="I91" t="s">
+        <v>256</v>
+      </c>
+      <c r="J91">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="K91" t="s">
+        <v>740</v>
+      </c>
+      <c r="L91">
+        <v>2.23</v>
+      </c>
+      <c r="M91" t="s">
+        <v>23</v>
+      </c>
+      <c r="N91">
+        <v>1.83</v>
+      </c>
+      <c r="O91">
+        <v>7.5590000000000002</v>
+      </c>
+      <c r="P91">
+        <v>19.530999999999999</v>
+      </c>
+      <c r="Q91">
+        <v>10.101000000000001</v>
+      </c>
+      <c r="R91">
+        <v>7.8120000000000003</v>
+      </c>
+      <c r="S91">
+        <v>52.356000000000002</v>
+      </c>
+      <c r="T91">
+        <v>10.449</v>
+      </c>
+      <c r="U91">
+        <v>27.027000000000001</v>
+      </c>
+      <c r="V91" t="s">
+        <v>64</v>
+      </c>
+      <c r="W91" t="s">
+        <v>51</v>
+      </c>
+      <c r="X91">
+        <v>1</v>
+      </c>
+      <c r="Y91">
+        <v>-3</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>550</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>563</v>
+      </c>
+      <c r="AB91" t="s">
+        <v>671</v>
+      </c>
+      <c r="AC91" t="s">
+        <v>660</v>
+      </c>
+      <c r="AE91" s="1">
+        <v>1.93</v>
+      </c>
+      <c r="AF91" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="AG91" s="2">
+        <f t="shared" si="6"/>
+        <v>2.6799999999999997</v>
+      </c>
+      <c r="AI91">
+        <v>5.2418571428571372</v>
+      </c>
+      <c r="AJ91">
+        <v>2.9620071428571446</v>
+      </c>
+      <c r="AK91" s="5">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="AM91">
+        <v>2.3352300000000001</v>
+      </c>
+      <c r="AN91">
+        <v>4.0776900000000005</v>
+      </c>
+      <c r="AO91" s="3">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="AQ91">
+        <v>7.2970800000000002</v>
+      </c>
+      <c r="AR91">
+        <v>4.2067639999999997</v>
+      </c>
+      <c r="AS91" s="3">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="92" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>385</v>
+      </c>
+      <c r="B92" t="s">
+        <v>433</v>
+      </c>
+      <c r="C92" t="s">
+        <v>435</v>
+      </c>
+      <c r="D92" t="s">
+        <v>482</v>
+      </c>
+      <c r="E92" t="s">
+        <v>102</v>
+      </c>
+      <c r="F92" t="s">
+        <v>529</v>
+      </c>
+      <c r="G92" t="s">
+        <v>307</v>
+      </c>
+      <c r="H92">
+        <v>3.42</v>
+      </c>
+      <c r="I92" t="s">
+        <v>741</v>
+      </c>
+      <c r="J92">
+        <v>1.42</v>
+      </c>
+      <c r="K92" t="s">
+        <v>228</v>
+      </c>
+      <c r="L92">
+        <v>3.35</v>
+      </c>
+      <c r="M92" t="s">
+        <v>403</v>
+      </c>
+      <c r="N92">
+        <v>1.43</v>
+      </c>
+      <c r="O92">
+        <v>4.7919999999999998</v>
+      </c>
+      <c r="P92">
+        <v>13.004</v>
+      </c>
+      <c r="Q92">
+        <v>9.4160000000000004</v>
+      </c>
+      <c r="R92">
+        <v>6.944</v>
+      </c>
+      <c r="S92">
+        <v>51.02</v>
+      </c>
+      <c r="T92">
+        <v>13.643000000000001</v>
+      </c>
+      <c r="U92">
+        <v>37.036999999999999</v>
+      </c>
+      <c r="V92" t="s">
+        <v>28</v>
+      </c>
+      <c r="W92" t="s">
+        <v>51</v>
+      </c>
+      <c r="X92">
+        <v>2</v>
+      </c>
+      <c r="Y92">
+        <v>1</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>563</v>
+      </c>
+      <c r="AA92" t="s">
+        <v>550</v>
+      </c>
+      <c r="AB92" t="s">
+        <v>685</v>
+      </c>
+      <c r="AC92" t="s">
+        <v>654</v>
+      </c>
+      <c r="AE92" s="1">
+        <v>1.38</v>
+      </c>
+      <c r="AF92" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="AG92" s="2">
+        <f t="shared" si="6"/>
+        <v>1.89</v>
+      </c>
+      <c r="AI92">
+        <v>3.6695872340425568</v>
+      </c>
+      <c r="AJ92">
+        <v>3.6124468085106325</v>
+      </c>
+      <c r="AK92" s="5">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="AM92">
+        <v>2.5766914893617057</v>
+      </c>
+      <c r="AN92">
+        <v>2.1066462765957485</v>
+      </c>
+      <c r="AO92" s="3">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AQ92">
+        <v>3.9259272727272756</v>
+      </c>
+      <c r="AR92">
+        <v>5.139555555555555</v>
+      </c>
+      <c r="AS92" s="3">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>385</v>
+      </c>
+      <c r="B93" t="s">
+        <v>392</v>
+      </c>
+      <c r="C93" t="s">
+        <v>391</v>
+      </c>
+      <c r="D93" t="s">
+        <v>429</v>
+      </c>
+      <c r="E93" t="s">
+        <v>463</v>
+      </c>
+      <c r="F93" t="s">
+        <v>742</v>
+      </c>
+      <c r="G93" t="s">
+        <v>743</v>
+      </c>
+      <c r="H93">
+        <v>5.43</v>
+      </c>
+      <c r="I93" t="s">
+        <v>744</v>
+      </c>
+      <c r="J93">
+        <v>1.23</v>
+      </c>
+      <c r="K93" t="s">
+        <v>306</v>
+      </c>
+      <c r="L93">
+        <v>3.72</v>
+      </c>
+      <c r="M93" t="s">
+        <v>532</v>
+      </c>
+      <c r="N93">
+        <v>1.37</v>
+      </c>
+      <c r="O93">
+        <v>5.4169999999999998</v>
+      </c>
+      <c r="P93">
+        <v>6.532</v>
+      </c>
+      <c r="Q93">
+        <v>8.1170000000000009</v>
+      </c>
+      <c r="R93">
+        <v>13.459</v>
+      </c>
+      <c r="S93">
+        <v>19.568999999999999</v>
+      </c>
+      <c r="T93">
+        <v>20.161000000000001</v>
+      </c>
+      <c r="U93">
+        <v>24.331</v>
+      </c>
+      <c r="V93" t="s">
+        <v>28</v>
+      </c>
+      <c r="W93" t="s">
+        <v>26</v>
+      </c>
+      <c r="X93">
+        <v>-3</v>
+      </c>
+      <c r="Y93">
+        <v>-1</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>563</v>
+      </c>
+      <c r="AA93" t="s">
+        <v>563</v>
+      </c>
+      <c r="AB93" t="s">
+        <v>677</v>
+      </c>
+      <c r="AC93" t="s">
+        <v>650</v>
+      </c>
+      <c r="AE93" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="AF93" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="AG93" s="2">
+        <f t="shared" si="6"/>
+        <v>1.4700000000000002</v>
+      </c>
+      <c r="AI93">
+        <v>2.6253957446808536</v>
+      </c>
+      <c r="AJ93">
+        <v>4.1408388297872269</v>
+      </c>
+      <c r="AK93" s="5">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="AM93">
+        <v>2.8109361702127695</v>
+      </c>
+      <c r="AN93">
+        <v>2.1793164893617063</v>
+      </c>
+      <c r="AO93" s="3">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AQ93">
+        <v>2.8155176767676786</v>
+      </c>
+      <c r="AR93">
+        <v>9.7309474747474738</v>
+      </c>
+      <c r="AS93" s="3">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="94" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>385</v>
+      </c>
+      <c r="B94" t="s">
+        <v>399</v>
+      </c>
+      <c r="C94" t="s">
+        <v>675</v>
+      </c>
+      <c r="D94" t="s">
+        <v>745</v>
+      </c>
+      <c r="E94" t="s">
+        <v>171</v>
+      </c>
+      <c r="F94" t="s">
+        <v>189</v>
+      </c>
+      <c r="G94" t="s">
+        <v>701</v>
+      </c>
+      <c r="H94">
+        <v>3.63</v>
+      </c>
+      <c r="I94" t="s">
+        <v>726</v>
+      </c>
+      <c r="J94">
+        <v>1.38</v>
+      </c>
+      <c r="K94" t="s">
+        <v>141</v>
+      </c>
+      <c r="L94">
+        <v>3.18</v>
+      </c>
+      <c r="M94" t="s">
+        <v>505</v>
+      </c>
+      <c r="N94">
+        <v>1.46</v>
+      </c>
+      <c r="O94">
+        <v>10.603999999999999</v>
+      </c>
+      <c r="P94">
+        <v>5.0049999999999999</v>
+      </c>
+      <c r="Q94">
+        <v>8.5470000000000006</v>
+      </c>
+      <c r="R94">
+        <v>36.231999999999999</v>
+      </c>
+      <c r="S94">
+        <v>8.0709999999999997</v>
+      </c>
+      <c r="T94">
+        <v>29.24</v>
+      </c>
+      <c r="U94">
+        <v>13.792999999999999</v>
+      </c>
+      <c r="V94" t="s">
+        <v>28</v>
+      </c>
+      <c r="W94" t="s">
+        <v>79</v>
+      </c>
+      <c r="X94">
+        <v>-7</v>
+      </c>
+      <c r="Y94">
+        <v>-1</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>550</v>
+      </c>
+      <c r="AA94" t="s">
+        <v>550</v>
+      </c>
+      <c r="AB94" t="s">
+        <v>647</v>
+      </c>
+      <c r="AC94" t="s">
+        <v>676</v>
+      </c>
+      <c r="AE94" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="AF94" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="AG94" s="2">
+        <f t="shared" si="6"/>
+        <v>1.83</v>
+      </c>
+      <c r="AI94">
+        <v>2.6394840425531942</v>
+      </c>
+      <c r="AJ94">
+        <v>3.6250617021276534</v>
+      </c>
+      <c r="AK94" s="5">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="AM94">
+        <v>3.1741361702127704</v>
+      </c>
+      <c r="AN94">
+        <v>2.5795292553191533</v>
+      </c>
+      <c r="AO94" s="3">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="AQ94">
+        <v>3.6405535353535377</v>
+      </c>
+      <c r="AR94">
+        <v>3.4141333333333326</v>
+      </c>
+      <c r="AS94" s="3">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>385</v>
+      </c>
+      <c r="B95" t="s">
+        <v>423</v>
+      </c>
+      <c r="C95" t="s">
+        <v>431</v>
+      </c>
+      <c r="D95" t="s">
+        <v>746</v>
+      </c>
+      <c r="E95" t="s">
+        <v>24</v>
+      </c>
+      <c r="F95" t="s">
+        <v>747</v>
+      </c>
+      <c r="G95" t="s">
+        <v>748</v>
+      </c>
+      <c r="H95">
+        <v>2.12</v>
+      </c>
+      <c r="I95" t="s">
+        <v>259</v>
+      </c>
+      <c r="J95">
+        <v>1.9</v>
+      </c>
+      <c r="K95" t="s">
+        <v>749</v>
+      </c>
+      <c r="L95">
+        <v>2.19</v>
+      </c>
+      <c r="M95" t="s">
+        <v>305</v>
+      </c>
+      <c r="N95">
+        <v>1.85</v>
+      </c>
+      <c r="O95">
+        <v>7.3959999999999999</v>
+      </c>
+      <c r="P95">
+        <v>16.207000000000001</v>
+      </c>
+      <c r="Q95">
+        <v>9.1910000000000007</v>
+      </c>
+      <c r="R95">
+        <v>8.3889999999999993</v>
+      </c>
+      <c r="S95">
+        <v>40.323</v>
+      </c>
+      <c r="T95">
+        <v>10.417</v>
+      </c>
+      <c r="U95">
+        <v>22.831</v>
+      </c>
+      <c r="V95" t="s">
+        <v>64</v>
+      </c>
+      <c r="W95" t="s">
+        <v>51</v>
+      </c>
+      <c r="X95">
+        <v>3</v>
+      </c>
+      <c r="Y95">
+        <v>-4</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>563</v>
+      </c>
+      <c r="AA95" t="s">
+        <v>550</v>
+      </c>
+      <c r="AB95" t="s">
+        <v>680</v>
+      </c>
+      <c r="AC95" t="s">
+        <v>684</v>
+      </c>
+      <c r="AE95" s="1">
+        <v>1.76</v>
+      </c>
+      <c r="AF95" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="AG95" s="2">
+        <f t="shared" si="6"/>
+        <v>2.56</v>
+      </c>
+      <c r="AI95">
+        <v>5.5056239361702186</v>
+      </c>
+      <c r="AJ95">
+        <v>2.7812973404255277</v>
+      </c>
+      <c r="AK95" s="5">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="AM95">
+        <v>2.3950914893617052</v>
+      </c>
+      <c r="AN95">
+        <v>5.3228297872340526</v>
+      </c>
+      <c r="AO95" s="3">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="AQ95">
+        <v>6.2068787878787912</v>
+      </c>
+      <c r="AR95">
+        <v>3.1204444444444435</v>
+      </c>
+      <c r="AS95" s="3">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>385</v>
+      </c>
+      <c r="B96" t="s">
+        <v>428</v>
+      </c>
+      <c r="C96" t="s">
+        <v>377</v>
+      </c>
+      <c r="D96" t="s">
+        <v>244</v>
+      </c>
+      <c r="E96" t="s">
+        <v>686</v>
+      </c>
+      <c r="F96" t="s">
+        <v>679</v>
+      </c>
+      <c r="G96" t="s">
+        <v>473</v>
+      </c>
+      <c r="H96">
+        <v>7.02</v>
+      </c>
+      <c r="I96" t="s">
+        <v>750</v>
+      </c>
+      <c r="J96">
+        <v>1.17</v>
+      </c>
+      <c r="K96" t="s">
+        <v>751</v>
+      </c>
+      <c r="L96">
+        <v>5.17</v>
+      </c>
+      <c r="M96" t="s">
+        <v>752</v>
+      </c>
+      <c r="N96">
+        <v>1.24</v>
+      </c>
+      <c r="O96">
+        <v>4.0469999999999997</v>
+      </c>
+      <c r="P96">
+        <v>9.32</v>
+      </c>
+      <c r="Q96">
+        <v>10.288</v>
+      </c>
+      <c r="R96">
+        <v>8.9369999999999994</v>
+      </c>
+      <c r="S96">
+        <v>47.393000000000001</v>
+      </c>
+      <c r="T96">
+        <v>22.727</v>
+      </c>
+      <c r="U96">
+        <v>52.356000000000002</v>
+      </c>
+      <c r="V96" t="s">
+        <v>179</v>
+      </c>
+      <c r="W96" t="s">
+        <v>79</v>
+      </c>
+      <c r="X96">
+        <v>-2</v>
+      </c>
+      <c r="Y96">
+        <v>3</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>547</v>
+      </c>
+      <c r="AA96" t="s">
+        <v>550</v>
+      </c>
+      <c r="AB96" t="s">
+        <v>681</v>
+      </c>
+      <c r="AC96" t="s">
+        <v>574</v>
+      </c>
+      <c r="AE96" s="1">
+        <v>0.91</v>
+      </c>
+      <c r="AF96" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="AG96" s="2">
+        <f t="shared" si="6"/>
+        <v>1.3</v>
+      </c>
+      <c r="AI96">
+        <v>3.2485957446808547</v>
+      </c>
+      <c r="AJ96">
+        <v>2.8005063829787189</v>
+      </c>
+      <c r="AK96" s="5">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="AM96">
+        <v>2.2955978723404287</v>
+      </c>
+      <c r="AN96">
+        <v>2.1306063829787272</v>
+      </c>
+      <c r="AO96" s="3">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="AQ96">
+        <v>3.7180121212121238</v>
+      </c>
+      <c r="AR96">
+        <v>3.5317757575757565</v>
+      </c>
+      <c r="AS96" s="3">
+        <f t="shared" si="9"/>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
